--- a/Source/Tam/MaestroTests/SupportTests/Services.Broadcast.IntegrationTests/Files/Campaign export/CampaignExport_ReservedPlanWithConstraints.xlsx
+++ b/Source/Tam/MaestroTests/SupportTests/Services.Broadcast.IntegrationTests/Files/Campaign export/CampaignExport_ReservedPlanWithConstraints.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\sroibu\Source\Repos\Broadcast\Source\Tam\MaestroTests\SupportTests\Services.Broadcast.IntegrationTests\Files\Excel templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{88F44F33-E8D2-4E18-A958-9508F1739303}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{2F81421C-A94C-4967-94F3-4ADC9D3CDA03}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="33600" yWindow="465" windowWidth="23250" windowHeight="13170" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -286,7 +286,7 @@
     <t>Broadcast Proposal Campaign with all types of plans</t>
   </si>
   <si>
-    <t>Created 02/20/20</t>
+    <t>Created 02/21/20</t>
   </si>
   <si>
     <t>Stub Agency</t>
@@ -358,7 +358,7 @@
         <d:color rgb="FF3D5261"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
-      <d:t xml:space="preserve">Genres exclude Documentary, Action/Adventure, Children (Plan ID 1850) | Program include BIG BANG THEORY, Big Bang Theory/Young Sheldon-CBS (Plan ID 1850)</d:t>
+      <d:t xml:space="preserve">Genre Excludes Documentary, Action/Adventure, Children (Plan ID 1850) | Program Includes BIG BANG THEORY, Big Bang Theory/Young Sheldon-CBS (Plan ID 1850)</d:t>
     </d:r>
     <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <d:rPr>
@@ -375,7 +375,7 @@
         <d:color rgb="FF3D5261"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
-      <d:t xml:space="preserve">Genres include Documentary (Plan ID 1851) | Program exclude The Big Bang Theory (Plan ID 1851)</d:t>
+      <d:t xml:space="preserve">Genre Includes Documentary (Plan ID 1851) | Program Excludes The Big Bang Theory (Plan ID 1851)</d:t>
     </d:r>
     <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <d:rPr>
@@ -392,7 +392,7 @@
         <d:color rgb="FF3D5261"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
-      <d:t xml:space="preserve">Genres include Documentary (Plan ID 1850) | Program exclude The Big Bang Theory (Plan ID 1850)</d:t>
+      <d:t xml:space="preserve">Genre Includes Documentary (Plan ID 1850) | Program Excludes The Big Bang Theory (Plan ID 1850)</d:t>
     </d:r>
   </si>
   <si>
@@ -1646,7 +1646,7 @@
   </sheetPr>
   <dimension ref="A2:P152"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="0" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0" tabSelected="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -1675,7 +1675,7 @@
       <c r="K2" s="5"/>
       <c r="P2" s="6" t="str">
         <f>'PROPOSAL'!T2</f>
-        <v>Created 02/20/20</v>
+        <v>Created 02/21/20</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1"/>
@@ -9563,6 +9563,11 @@
     </row>
   </sheetData>
   <mergeCells>
+    <mergeCell ref="G7:L7"/>
+    <mergeCell ref="N7:T7"/>
+    <mergeCell ref="G13:L13"/>
+    <mergeCell ref="N13:T13"/>
+    <mergeCell ref="C35:T35"/>
     <mergeCell ref="C37:T37"/>
     <mergeCell ref="C39:T39"/>
     <mergeCell ref="C41:T41"/>
@@ -9572,11 +9577,6 @@
     <mergeCell ref="N25:T25"/>
     <mergeCell ref="C31:T31"/>
     <mergeCell ref="C33:T33"/>
-    <mergeCell ref="G7:L7"/>
-    <mergeCell ref="N7:T7"/>
-    <mergeCell ref="G13:L13"/>
-    <mergeCell ref="N13:T13"/>
-    <mergeCell ref="C35:T35"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="50" fitToHeight="0" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
@@ -11038,11 +11038,6 @@
     </row>
   </sheetData>
   <mergeCells>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="F33:T33"/>
     <mergeCell ref="F35:T35"/>
     <mergeCell ref="F37:T37"/>
     <mergeCell ref="F39:T39"/>
@@ -11052,6 +11047,11 @@
     <mergeCell ref="H7:M7"/>
     <mergeCell ref="N7:T7"/>
     <mergeCell ref="F31:T31"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="F33:T33"/>
     <mergeCell ref="H15:M15"/>
     <mergeCell ref="N15:T15"/>
     <mergeCell ref="H23:M23"/>

--- a/Source/Tam/MaestroTests/SupportTests/Services.Broadcast.IntegrationTests/Files/Campaign export/CampaignExport_ReservedPlanWithConstraints.xlsx
+++ b/Source/Tam/MaestroTests/SupportTests/Services.Broadcast.IntegrationTests/Files/Campaign export/CampaignExport_ReservedPlanWithConstraints.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\sroibu\Source\Repos\Broadcast\Source\Tam\MaestroTests\SupportTests\Services.Broadcast.IntegrationTests\Files\Excel templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\sroibu\Source\Repos\Broadcast\Source\Tam\Maestro\UI\BroadcastComposerWeb\App_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{2F81421C-A94C-4967-94F3-4ADC9D3CDA03}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{04481987-1715-4D5A-AAE3-09F3C365BCA7}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="33600" yWindow="465" windowWidth="23250" windowHeight="13170" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
   <si>
     <t>Broadcast Proposal Gorilla Glue Q4 '19 - Q1 '20</t>
   </si>
@@ -211,9 +211,6 @@
     <t>Distribution</t>
   </si>
   <si>
-    <t>Imp.</t>
-  </si>
-  <si>
     <t>Cost</t>
   </si>
   <si>
@@ -286,7 +283,7 @@
     <t>Broadcast Proposal Campaign with all types of plans</t>
   </si>
   <si>
-    <t>Created 02/21/20</t>
+    <t>Created 02/24/20</t>
   </si>
   <si>
     <t>Stub Agency</t>
@@ -1675,7 +1672,7 @@
       <c r="K2" s="5"/>
       <c r="P2" s="6" t="str">
         <f>'PROPOSAL'!T2</f>
-        <v>Created 02/21/20</v>
+        <v>Created 02/24/20</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1"/>
@@ -1885,7 +1882,7 @@
     </row>
     <row r="11" ht="24" customHeight="1">
       <c r="B11" s="61" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="C11" s="66">
         <v>384.61538461538464</v>
@@ -1979,7 +1976,7 @@
     </row>
     <row r="13" ht="24" customHeight="1">
       <c r="B13" s="61" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C13" s="70">
         <v>9615.3846153846</v>
@@ -2026,7 +2023,7 @@
     </row>
     <row r="14" ht="30" customHeight="1">
       <c r="B14" s="90" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C14" s="92"/>
       <c r="D14" s="93"/>
@@ -2045,7 +2042,7 @@
     </row>
     <row r="16">
       <c r="B16" s="53" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C16" s="98" t="s">
         <v>55</v>
@@ -2209,7 +2206,7 @@
     </row>
     <row r="20" ht="24" customHeight="1">
       <c r="B20" s="61" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="C20" s="66">
         <v>384.61538461538464</v>
@@ -2303,7 +2300,7 @@
     </row>
     <row r="22" ht="24" customHeight="1">
       <c r="B22" s="61" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C22" s="70">
         <v>9615.3846153846</v>
@@ -2350,7 +2347,7 @@
     </row>
     <row r="23" ht="30" customHeight="1">
       <c r="B23" s="90" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C23" s="92"/>
       <c r="D23" s="93"/>
@@ -2369,7 +2366,7 @@
     </row>
     <row r="25">
       <c r="B25" s="53" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C25" s="98" t="s">
         <v>55</v>
@@ -2533,7 +2530,7 @@
     </row>
     <row r="29" ht="24" customHeight="1">
       <c r="B29" s="61" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="C29" s="66">
         <v>384.61538461538464</v>
@@ -2627,7 +2624,7 @@
     </row>
     <row r="31" ht="24" customHeight="1">
       <c r="B31" s="61" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C31" s="70">
         <v>9615.3846153846</v>
@@ -2674,7 +2671,7 @@
     </row>
     <row r="32" ht="30" customHeight="1">
       <c r="B32" s="90" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C32" s="92"/>
       <c r="D32" s="93"/>
@@ -2693,7 +2690,7 @@
     </row>
     <row r="34">
       <c r="B34" s="53" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C34" s="98" t="s">
         <v>55</v>
@@ -2857,7 +2854,7 @@
     </row>
     <row r="38" ht="24" customHeight="1">
       <c r="B38" s="61" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="C38" s="66">
         <v>384.61538461538464</v>
@@ -2951,7 +2948,7 @@
     </row>
     <row r="40" ht="24" customHeight="1">
       <c r="B40" s="61" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C40" s="70">
         <v>9615.3846153846</v>
@@ -2998,7 +2995,7 @@
     </row>
     <row r="41" ht="30" customHeight="1">
       <c r="B41" s="90" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C41" s="92"/>
       <c r="D41" s="93"/>
@@ -3017,7 +3014,7 @@
     </row>
     <row r="43">
       <c r="B43" s="53" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C43" s="98" t="s">
         <v>55</v>
@@ -3181,7 +3178,7 @@
     </row>
     <row r="47" ht="24" customHeight="1">
       <c r="B47" s="61" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="C47" s="66">
         <v>0</v>
@@ -3275,7 +3272,7 @@
     </row>
     <row r="49" ht="24" customHeight="1">
       <c r="B49" s="61" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C49" s="70">
         <v>0</v>
@@ -3322,7 +3319,7 @@
     </row>
     <row r="50" ht="30" customHeight="1">
       <c r="B50" s="90" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C50" s="92"/>
       <c r="D50" s="93"/>
@@ -3341,7 +3338,7 @@
     </row>
     <row r="52">
       <c r="B52" s="53" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C52" s="98" t="s">
         <v>55</v>
@@ -3505,7 +3502,7 @@
     </row>
     <row r="56" ht="24" customHeight="1">
       <c r="B56" s="61" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="C56" s="66">
         <v>0</v>
@@ -3599,7 +3596,7 @@
     </row>
     <row r="58" ht="24" customHeight="1">
       <c r="B58" s="61" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C58" s="70">
         <v>0</v>
@@ -3646,7 +3643,7 @@
     </row>
     <row r="59" ht="30" customHeight="1">
       <c r="B59" s="90" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C59" s="92"/>
       <c r="D59" s="93"/>
@@ -3665,7 +3662,7 @@
     </row>
     <row r="61">
       <c r="B61" s="53" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C61" s="98" t="s">
         <v>55</v>
@@ -3829,7 +3826,7 @@
     </row>
     <row r="65" ht="24" customHeight="1">
       <c r="B65" s="61" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="C65" s="66">
         <v>0</v>
@@ -3923,7 +3920,7 @@
     </row>
     <row r="67" ht="24" customHeight="1">
       <c r="B67" s="61" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C67" s="70">
         <v>0</v>
@@ -3970,7 +3967,7 @@
     </row>
     <row r="68" ht="30" customHeight="1">
       <c r="B68" s="90" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C68" s="92"/>
       <c r="D68" s="93"/>
@@ -3989,7 +3986,7 @@
     </row>
     <row r="70">
       <c r="B70" s="53" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C70" s="98" t="s">
         <v>55</v>
@@ -4153,7 +4150,7 @@
     </row>
     <row r="74" ht="24" customHeight="1">
       <c r="B74" s="61" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="C74" s="66">
         <v>0</v>
@@ -4247,7 +4244,7 @@
     </row>
     <row r="76" ht="24" customHeight="1">
       <c r="B76" s="61" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C76" s="70">
         <v>0</v>
@@ -4294,7 +4291,7 @@
     </row>
     <row r="77" ht="30" customHeight="1">
       <c r="B77" s="90" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C77" s="92"/>
       <c r="D77" s="93"/>
@@ -4313,23 +4310,23 @@
     </row>
     <row r="79">
       <c r="B79" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="C79" s="98" t="s">
         <v>69</v>
-      </c>
-      <c r="C79" s="98" t="s">
-        <v>70</v>
       </c>
       <c r="D79" s="99"/>
       <c r="E79" s="99"/>
       <c r="F79" s="100"/>
       <c r="G79" s="99" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H79" s="99"/>
       <c r="I79" s="99"/>
       <c r="J79" s="99"/>
       <c r="K79" s="100"/>
       <c r="L79" s="98" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M79" s="99"/>
       <c r="N79" s="99"/>
@@ -4477,7 +4474,7 @@
     </row>
     <row r="83" ht="24" customHeight="1">
       <c r="B83" s="61" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="C83" s="66">
         <v>401.75824175824181</v>
@@ -4571,7 +4568,7 @@
     </row>
     <row r="85" ht="24" customHeight="1">
       <c r="B85" s="61" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C85" s="70">
         <v>10043.956043956028</v>
@@ -4618,7 +4615,7 @@
     </row>
     <row r="86" ht="30" customHeight="1">
       <c r="B86" s="90" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C86" s="92"/>
       <c r="D86" s="93"/>
@@ -4637,23 +4634,23 @@
     </row>
     <row r="88">
       <c r="B88" s="53" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C88" s="98" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D88" s="99"/>
       <c r="E88" s="99"/>
       <c r="F88" s="100"/>
       <c r="G88" s="99" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H88" s="99"/>
       <c r="I88" s="99"/>
       <c r="J88" s="99"/>
       <c r="K88" s="100"/>
       <c r="L88" s="98" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M88" s="99"/>
       <c r="N88" s="99"/>
@@ -4801,7 +4798,7 @@
     </row>
     <row r="92" ht="24" customHeight="1">
       <c r="B92" s="61" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="C92" s="66">
         <v>401.75824175824181</v>
@@ -4895,7 +4892,7 @@
     </row>
     <row r="94" ht="24" customHeight="1">
       <c r="B94" s="61" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C94" s="70">
         <v>10043.956043956028</v>
@@ -4942,7 +4939,7 @@
     </row>
     <row r="95" ht="30" customHeight="1">
       <c r="B95" s="90" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C95" s="92"/>
       <c r="D95" s="93"/>
@@ -4961,23 +4958,23 @@
     </row>
     <row r="97">
       <c r="B97" s="53" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C97" s="98" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D97" s="99"/>
       <c r="E97" s="99"/>
       <c r="F97" s="100"/>
       <c r="G97" s="99" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H97" s="99"/>
       <c r="I97" s="99"/>
       <c r="J97" s="99"/>
       <c r="K97" s="100"/>
       <c r="L97" s="98" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M97" s="99"/>
       <c r="N97" s="99"/>
@@ -5125,7 +5122,7 @@
     </row>
     <row r="101" ht="24" customHeight="1">
       <c r="B101" s="61" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="C101" s="66">
         <v>384.61538461538464</v>
@@ -5219,7 +5216,7 @@
     </row>
     <row r="103" ht="24" customHeight="1">
       <c r="B103" s="61" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C103" s="70">
         <v>9615.3846153846</v>
@@ -5266,7 +5263,7 @@
     </row>
     <row r="104" ht="30" customHeight="1">
       <c r="B104" s="90" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C104" s="92"/>
       <c r="D104" s="93"/>
@@ -5285,23 +5282,23 @@
     </row>
     <row r="106">
       <c r="B106" s="53" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C106" s="98" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D106" s="99"/>
       <c r="E106" s="99"/>
       <c r="F106" s="100"/>
       <c r="G106" s="99" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H106" s="99"/>
       <c r="I106" s="99"/>
       <c r="J106" s="99"/>
       <c r="K106" s="100"/>
       <c r="L106" s="98" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M106" s="99"/>
       <c r="N106" s="99"/>
@@ -5449,7 +5446,7 @@
     </row>
     <row r="110" ht="24" customHeight="1">
       <c r="B110" s="61" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="C110" s="66">
         <v>384.61538461538464</v>
@@ -5543,7 +5540,7 @@
     </row>
     <row r="112" ht="24" customHeight="1">
       <c r="B112" s="61" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C112" s="70">
         <v>9615.3846153846</v>
@@ -5590,7 +5587,7 @@
     </row>
     <row r="113" ht="30" customHeight="1">
       <c r="B113" s="90" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C113" s="92"/>
       <c r="D113" s="93"/>
@@ -5609,23 +5606,23 @@
     </row>
     <row r="115">
       <c r="B115" s="53" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C115" s="98" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D115" s="99"/>
       <c r="E115" s="99"/>
       <c r="F115" s="100"/>
       <c r="G115" s="99" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H115" s="99"/>
       <c r="I115" s="99"/>
       <c r="J115" s="99"/>
       <c r="K115" s="100"/>
       <c r="L115" s="98" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M115" s="99"/>
       <c r="N115" s="99"/>
@@ -5773,7 +5770,7 @@
     </row>
     <row r="119" ht="24" customHeight="1">
       <c r="B119" s="61" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="C119" s="66">
         <v>1420.0000000000005</v>
@@ -5867,7 +5864,7 @@
     </row>
     <row r="121" ht="24" customHeight="1">
       <c r="B121" s="61" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C121" s="70">
         <v>35500</v>
@@ -5914,7 +5911,7 @@
     </row>
     <row r="122" ht="30" customHeight="1">
       <c r="B122" s="90" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C122" s="92"/>
       <c r="D122" s="93"/>
@@ -5933,23 +5930,23 @@
     </row>
     <row r="124">
       <c r="B124" s="53" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C124" s="98" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D124" s="99"/>
       <c r="E124" s="99"/>
       <c r="F124" s="100"/>
       <c r="G124" s="99" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H124" s="99"/>
       <c r="I124" s="99"/>
       <c r="J124" s="99"/>
       <c r="K124" s="100"/>
       <c r="L124" s="98" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M124" s="99"/>
       <c r="N124" s="99"/>
@@ -6097,7 +6094,7 @@
     </row>
     <row r="128" ht="24" customHeight="1">
       <c r="B128" s="61" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="C128" s="66">
         <v>1420.0000000000005</v>
@@ -6191,7 +6188,7 @@
     </row>
     <row r="130" ht="24" customHeight="1">
       <c r="B130" s="61" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C130" s="70">
         <v>35500</v>
@@ -6238,7 +6235,7 @@
     </row>
     <row r="131" ht="30" customHeight="1">
       <c r="B131" s="90" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C131" s="92"/>
       <c r="D131" s="93"/>
@@ -6257,23 +6254,23 @@
     </row>
     <row r="133">
       <c r="B133" s="53" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C133" s="98" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D133" s="99"/>
       <c r="E133" s="99"/>
       <c r="F133" s="100"/>
       <c r="G133" s="99" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H133" s="99"/>
       <c r="I133" s="99"/>
       <c r="J133" s="99"/>
       <c r="K133" s="100"/>
       <c r="L133" s="98" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M133" s="99"/>
       <c r="N133" s="99"/>
@@ -6421,7 +6418,7 @@
     </row>
     <row r="137" ht="24" customHeight="1">
       <c r="B137" s="61" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="C137" s="66">
         <v>1420.0000000000005</v>
@@ -6515,7 +6512,7 @@
     </row>
     <row r="139" ht="24" customHeight="1">
       <c r="B139" s="61" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C139" s="70">
         <v>35500</v>
@@ -6562,7 +6559,7 @@
     </row>
     <row r="140" ht="30" customHeight="1">
       <c r="B140" s="90" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C140" s="92"/>
       <c r="D140" s="93"/>
@@ -6581,23 +6578,23 @@
     </row>
     <row r="142">
       <c r="B142" s="53" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C142" s="98" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D142" s="99"/>
       <c r="E142" s="99"/>
       <c r="F142" s="100"/>
       <c r="G142" s="99" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H142" s="99"/>
       <c r="I142" s="99"/>
       <c r="J142" s="99"/>
       <c r="K142" s="100"/>
       <c r="L142" s="98" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M142" s="99"/>
       <c r="N142" s="99"/>
@@ -6745,7 +6742,7 @@
     </row>
     <row r="146" ht="24" customHeight="1">
       <c r="B146" s="61" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="C146" s="66">
         <v>1420.0000000000005</v>
@@ -6839,7 +6836,7 @@
     </row>
     <row r="148" ht="24" customHeight="1">
       <c r="B148" s="61" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C148" s="70">
         <v>35500</v>
@@ -6886,7 +6883,7 @@
     </row>
     <row r="149" ht="30" customHeight="1">
       <c r="B149" s="90" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C149" s="92"/>
       <c r="D149" s="93"/>
@@ -7061,7 +7058,7 @@
         <v>14</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M5" s="3" t="s">
         <v>16</v>
@@ -7094,7 +7091,7 @@
     </row>
     <row r="7" ht="24" customHeight="1">
       <c r="B7" s="53" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
@@ -7355,7 +7352,7 @@
     </row>
     <row r="13" ht="24" customHeight="1">
       <c r="B13" s="53" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -9563,11 +9560,6 @@
     </row>
   </sheetData>
   <mergeCells>
-    <mergeCell ref="G7:L7"/>
-    <mergeCell ref="N7:T7"/>
-    <mergeCell ref="G13:L13"/>
-    <mergeCell ref="N13:T13"/>
-    <mergeCell ref="C35:T35"/>
     <mergeCell ref="C37:T37"/>
     <mergeCell ref="C39:T39"/>
     <mergeCell ref="C41:T41"/>
@@ -9577,6 +9569,11 @@
     <mergeCell ref="N25:T25"/>
     <mergeCell ref="C31:T31"/>
     <mergeCell ref="C33:T33"/>
+    <mergeCell ref="G7:L7"/>
+    <mergeCell ref="N7:T7"/>
+    <mergeCell ref="G13:L13"/>
+    <mergeCell ref="N13:T13"/>
+    <mergeCell ref="C35:T35"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="50" fitToHeight="0" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
@@ -9617,10 +9614,10 @@
     <row r="2" ht="27.95" customHeight="1">
       <c r="E2" s="5"/>
       <c r="F2" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="T2" s="6" t="s">
         <v>83</v>
-      </c>
-      <c r="T2" s="6" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1"/>
@@ -9655,24 +9652,24 @@
     </row>
     <row r="5" ht="18" customHeight="1" s="3" customFormat="1">
       <c r="C5" s="95" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D5" s="95"/>
       <c r="E5" s="95" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F5" s="95"/>
       <c r="G5" s="95"/>
       <c r="H5" s="95" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I5" s="95"/>
       <c r="J5" s="95" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K5" s="95"/>
       <c r="L5" s="95" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M5" s="95"/>
       <c r="N5" s="76" t="s">
@@ -9704,7 +9701,7 @@
     </row>
     <row r="7" ht="24" customHeight="1">
       <c r="C7" s="53" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D7" s="53"/>
       <c r="E7" s="7"/>
@@ -9719,7 +9716,7 @@
       <c r="L7" s="99"/>
       <c r="M7" s="100"/>
       <c r="N7" s="98" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O7" s="99"/>
       <c r="P7" s="99"/>
@@ -9730,14 +9727,14 @@
     </row>
     <row r="8" ht="24" customHeight="1">
       <c r="A8" s="80" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B8" s="25"/>
       <c r="C8" s="39" t="s">
         <v>22</v>
       </c>
       <c r="D8" s="40" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E8" s="40" t="s">
         <v>23</v>
@@ -9790,14 +9787,14 @@
     </row>
     <row r="9" ht="24" customHeight="1">
       <c r="A9" s="80" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B9" s="25"/>
       <c r="C9" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D9" s="8" t="s">
         <v>93</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>94</v>
       </c>
       <c r="E9" s="83">
         <v>0</v>
@@ -9850,14 +9847,14 @@
     </row>
     <row r="10" ht="24" customHeight="1">
       <c r="A10" s="80" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B10" s="25"/>
       <c r="C10" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E10" s="83">
         <v>0</v>
@@ -9910,14 +9907,14 @@
     </row>
     <row r="11" ht="24" customHeight="1">
       <c r="A11" s="80" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E11" s="83">
         <v>0</v>
@@ -9970,14 +9967,14 @@
     </row>
     <row r="12" ht="24" customHeight="1">
       <c r="A12" s="80" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E12" s="83">
         <v>0</v>
@@ -10032,7 +10029,7 @@
       <c r="B13" s="25"/>
       <c r="C13" s="39"/>
       <c r="D13" s="40" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E13" s="51">
         <v>0</v>
@@ -10085,7 +10082,7 @@
     </row>
     <row r="15" ht="24" customHeight="1">
       <c r="C15" s="53" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D15" s="53"/>
       <c r="E15" s="7"/>
@@ -10100,7 +10097,7 @@
       <c r="L15" s="99"/>
       <c r="M15" s="100"/>
       <c r="N15" s="98" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O15" s="99"/>
       <c r="P15" s="99"/>
@@ -10111,14 +10108,14 @@
     </row>
     <row r="16" ht="24" customHeight="1">
       <c r="A16" s="80" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="39" t="s">
         <v>22</v>
       </c>
       <c r="D16" s="40" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E16" s="40" t="s">
         <v>23</v>
@@ -10171,14 +10168,14 @@
     </row>
     <row r="17" ht="24" customHeight="1">
       <c r="A17" s="80" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B17" s="25"/>
       <c r="C17" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D17" s="8" t="s">
         <v>93</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>94</v>
       </c>
       <c r="E17" s="83">
         <v>0</v>
@@ -10231,14 +10228,14 @@
     </row>
     <row r="18" ht="24" customHeight="1">
       <c r="A18" s="80" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B18" s="25"/>
       <c r="C18" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E18" s="83">
         <v>0</v>
@@ -10291,14 +10288,14 @@
     </row>
     <row r="19" ht="24" customHeight="1">
       <c r="A19" s="80" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B19" s="25"/>
       <c r="C19" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E19" s="83">
         <v>0</v>
@@ -10351,14 +10348,14 @@
     </row>
     <row r="20" ht="24" customHeight="1">
       <c r="A20" s="80" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B20" s="25"/>
       <c r="C20" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E20" s="83">
         <v>0</v>
@@ -10413,7 +10410,7 @@
       <c r="B21" s="25"/>
       <c r="C21" s="39"/>
       <c r="D21" s="40" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E21" s="51">
         <v>0</v>
@@ -10481,7 +10478,7 @@
       <c r="L23" s="99"/>
       <c r="M23" s="100"/>
       <c r="N23" s="98" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O23" s="99"/>
       <c r="P23" s="99"/>
@@ -10492,14 +10489,14 @@
     </row>
     <row r="24" ht="24" customHeight="1">
       <c r="A24" s="80" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B24" s="25"/>
       <c r="C24" s="39" t="s">
         <v>22</v>
       </c>
       <c r="D24" s="40" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E24" s="40" t="s">
         <v>23</v>
@@ -10552,14 +10549,14 @@
     </row>
     <row r="25" ht="24" customHeight="1">
       <c r="A25" s="80" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B25" s="25"/>
       <c r="C25" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D25" s="8" t="s">
         <v>93</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>94</v>
       </c>
       <c r="E25" s="83">
         <v>0</v>
@@ -10612,14 +10609,14 @@
     </row>
     <row r="26" ht="24" customHeight="1">
       <c r="A26" s="80" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B26" s="25"/>
       <c r="C26" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E26" s="83">
         <v>0</v>
@@ -10672,14 +10669,14 @@
     </row>
     <row r="27" ht="24" customHeight="1">
       <c r="A27" s="80" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B27" s="25"/>
       <c r="C27" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E27" s="83">
         <v>0</v>
@@ -10732,14 +10729,14 @@
     </row>
     <row r="28" ht="24" customHeight="1">
       <c r="A28" s="80" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E28" s="83">
         <v>0</v>
@@ -10794,7 +10791,7 @@
       <c r="B29" s="25"/>
       <c r="C29" s="39"/>
       <c r="D29" s="40" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E29" s="51">
         <v>0</v>
@@ -10852,7 +10849,7 @@
       <c r="D31" s="55"/>
       <c r="E31" s="81"/>
       <c r="F31" s="104" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G31" s="104"/>
       <c r="H31" s="104"/>
@@ -10894,7 +10891,7 @@
       </c>
       <c r="D33" s="55"/>
       <c r="F33" s="104" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G33" s="104"/>
       <c r="H33" s="104"/>
@@ -10937,7 +10934,7 @@
       <c r="D35" s="55"/>
       <c r="E35" s="81"/>
       <c r="F35" s="104" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G35" s="104"/>
       <c r="H35" s="104"/>
@@ -11019,7 +11016,7 @@
       </c>
       <c r="D39" s="55"/>
       <c r="F39" s="96" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G39" s="96"/>
       <c r="H39" s="96"/>
@@ -11038,6 +11035,11 @@
     </row>
   </sheetData>
   <mergeCells>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="F33:T33"/>
     <mergeCell ref="F35:T35"/>
     <mergeCell ref="F37:T37"/>
     <mergeCell ref="F39:T39"/>
@@ -11047,11 +11049,6 @@
     <mergeCell ref="H7:M7"/>
     <mergeCell ref="N7:T7"/>
     <mergeCell ref="F31:T31"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="F33:T33"/>
     <mergeCell ref="H15:M15"/>
     <mergeCell ref="N15:T15"/>
     <mergeCell ref="H23:M23"/>

--- a/Source/Tam/MaestroTests/SupportTests/Services.Broadcast.IntegrationTests/Files/Campaign export/CampaignExport_ReservedPlanWithConstraints.xlsx
+++ b/Source/Tam/MaestroTests/SupportTests/Services.Broadcast.IntegrationTests/Files/Campaign export/CampaignExport_ReservedPlanWithConstraints.xlsx
@@ -196,7 +196,7 @@
     <t>Posting</t>
   </si>
   <si>
-    <t xml:space="preserve">1Q '20 MDN :90s </t>
+    <t>1Q '20 MDN :90s</t>
   </si>
   <si>
     <t>January</t>
@@ -220,25 +220,25 @@
     <t>1Q '20 MDN Total</t>
   </si>
   <si>
-    <t xml:space="preserve">1Q '20 PA :90s </t>
+    <t>1Q '20 PA :90s</t>
   </si>
   <si>
     <t>1Q '20 PA Total</t>
   </si>
   <si>
-    <t xml:space="preserve">1Q '20 EF :90s </t>
+    <t>1Q '20 EF :90s</t>
   </si>
   <si>
     <t>1Q '20 EF Total</t>
   </si>
   <si>
-    <t xml:space="preserve">1Q '20 EM :90s </t>
+    <t>1Q '20 EM :90s</t>
   </si>
   <si>
     <t>1Q '20 EM Total</t>
   </si>
   <si>
-    <t xml:space="preserve">2Q '20 MDN :90s </t>
+    <t>2Q '20 MDN :90s</t>
   </si>
   <si>
     <t>April</t>
@@ -253,19 +253,19 @@
     <t>2Q '20 MDN Total</t>
   </si>
   <si>
-    <t xml:space="preserve">2Q '20 PA :90s </t>
+    <t>2Q '20 PA :90s</t>
   </si>
   <si>
     <t>2Q '20 PA Total</t>
   </si>
   <si>
-    <t xml:space="preserve">2Q '20 EF :90s </t>
+    <t>2Q '20 EF :90s</t>
   </si>
   <si>
     <t>2Q '20 EF Total</t>
   </si>
   <si>
-    <t xml:space="preserve">2Q '20 EM :90s </t>
+    <t>2Q '20 EM :90s</t>
   </si>
   <si>
     <t>2Q '20 EM Total</t>

--- a/Source/Tam/MaestroTests/SupportTests/Services.Broadcast.IntegrationTests/Files/Campaign export/CampaignExport_ReservedPlanWithConstraints.xlsx
+++ b/Source/Tam/MaestroTests/SupportTests/Services.Broadcast.IntegrationTests/Files/Campaign export/CampaignExport_ReservedPlanWithConstraints.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\sroibu\Source\Repos\Broadcast\Source\Tam\Maestro\UI\BroadcastComposerWeb\App_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{04481987-1715-4D5A-AAE3-09F3C365BCA7}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{3EB8DD41-BA33-4302-AB61-07D30AE281FC}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="33600" yWindow="465" windowWidth="23250" windowHeight="13170" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -196,6 +196,9 @@
     <t>Posting</t>
   </si>
   <si>
+    <t>EF - M-SU 03:00pm - 06:00pm, EM - M-SU 06:00am - 09:00am, MDN - M-F,SU 11:00am - 01:00pm, MDN - M-SU 11:00am - 01:00pm, PA - M-F,SU 06:00pm - 08:00pm</t>
+  </si>
+  <si>
     <t>1Q '20 MDN :90s</t>
   </si>
   <si>
@@ -283,7 +286,7 @@
     <t>Broadcast Proposal Campaign with all types of plans</t>
   </si>
   <si>
-    <t>Created 02/24/20</t>
+    <t>Created 02/25/20</t>
   </si>
   <si>
     <t>Stub Agency</t>
@@ -335,9 +338,6 @@
   </si>
   <si>
     <t>~80% Minimum TV HH Coverage</t>
-  </si>
-  <si>
-    <t>EF - M-SU 03:00pm - 06:00pm, EM - M-SU 06:00am - 09:00am, MDN - M-F,SU 11:00am - 01:00pm, MDN - M-SU 11:00am - 01:00pm, PA - M-F,SU 06:00pm - 08:00pm</t>
   </si>
   <si>
     <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
@@ -1644,7 +1644,7 @@
   <dimension ref="A2:P152"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0" tabSelected="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1672,7 +1672,7 @@
       <c r="K2" s="5"/>
       <c r="P2" s="6" t="str">
         <f>'PROPOSAL'!T2</f>
-        <v>Created 02/24/20</v>
+        <v>Created 02/25/20</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1"/>
@@ -1696,9 +1696,8 @@
         <f>'PROPOSAL'!N5</f>
         <v>NTI</v>
       </c>
-      <c r="D5" s="95" t="str">
-        <f>'PROPOSAL'!F33</f>
-        <v>EF - M-SU 03:00pm - 06:00pm, EM - M-SU 06:00am - 09:00am, MDN - M-F,SU 11:00am - 01:00pm, MDN - M-SU 11:00am - 01:00pm, PA - M-F,SU 06:00pm - 08:00pm</v>
+      <c r="D5" s="95" t="s">
+        <v>54</v>
       </c>
       <c r="E5" s="95"/>
       <c r="F5" s="95"/>
@@ -1718,22 +1717,22 @@
     </row>
     <row r="7">
       <c r="B7" s="53" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C7" s="98" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D7" s="99"/>
       <c r="E7" s="99"/>
       <c r="F7" s="100"/>
       <c r="G7" s="99" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H7" s="99"/>
       <c r="I7" s="99"/>
       <c r="J7" s="100"/>
       <c r="K7" s="98" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L7" s="99"/>
       <c r="M7" s="99"/>
@@ -1788,7 +1787,7 @@
     </row>
     <row r="9" ht="24" customHeight="1">
       <c r="B9" s="62" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C9" s="63">
         <v>0.0096153846153846177</v>
@@ -1976,7 +1975,7 @@
     </row>
     <row r="13" ht="24" customHeight="1">
       <c r="B13" s="61" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C13" s="70">
         <v>9615.3846153846</v>
@@ -2023,7 +2022,7 @@
     </row>
     <row r="14" ht="30" customHeight="1">
       <c r="B14" s="90" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C14" s="92"/>
       <c r="D14" s="93"/>
@@ -2042,22 +2041,22 @@
     </row>
     <row r="16">
       <c r="B16" s="53" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C16" s="98" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D16" s="99"/>
       <c r="E16" s="99"/>
       <c r="F16" s="100"/>
       <c r="G16" s="99" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H16" s="99"/>
       <c r="I16" s="99"/>
       <c r="J16" s="100"/>
       <c r="K16" s="98" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L16" s="99"/>
       <c r="M16" s="99"/>
@@ -2112,7 +2111,7 @@
     </row>
     <row r="18" ht="24" customHeight="1">
       <c r="B18" s="62" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C18" s="63">
         <v>0.0096153846153846177</v>
@@ -2300,7 +2299,7 @@
     </row>
     <row r="22" ht="24" customHeight="1">
       <c r="B22" s="61" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C22" s="70">
         <v>9615.3846153846</v>
@@ -2347,7 +2346,7 @@
     </row>
     <row r="23" ht="30" customHeight="1">
       <c r="B23" s="90" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C23" s="92"/>
       <c r="D23" s="93"/>
@@ -2366,22 +2365,22 @@
     </row>
     <row r="25">
       <c r="B25" s="53" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C25" s="98" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D25" s="99"/>
       <c r="E25" s="99"/>
       <c r="F25" s="100"/>
       <c r="G25" s="99" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H25" s="99"/>
       <c r="I25" s="99"/>
       <c r="J25" s="100"/>
       <c r="K25" s="98" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L25" s="99"/>
       <c r="M25" s="99"/>
@@ -2436,7 +2435,7 @@
     </row>
     <row r="27" ht="24" customHeight="1">
       <c r="B27" s="62" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C27" s="63">
         <v>0.0096153846153846177</v>
@@ -2624,7 +2623,7 @@
     </row>
     <row r="31" ht="24" customHeight="1">
       <c r="B31" s="61" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C31" s="70">
         <v>9615.3846153846</v>
@@ -2671,7 +2670,7 @@
     </row>
     <row r="32" ht="30" customHeight="1">
       <c r="B32" s="90" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C32" s="92"/>
       <c r="D32" s="93"/>
@@ -2690,22 +2689,22 @@
     </row>
     <row r="34">
       <c r="B34" s="53" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C34" s="98" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D34" s="99"/>
       <c r="E34" s="99"/>
       <c r="F34" s="100"/>
       <c r="G34" s="99" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H34" s="99"/>
       <c r="I34" s="99"/>
       <c r="J34" s="100"/>
       <c r="K34" s="98" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L34" s="99"/>
       <c r="M34" s="99"/>
@@ -2760,7 +2759,7 @@
     </row>
     <row r="36" ht="24" customHeight="1">
       <c r="B36" s="62" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C36" s="63">
         <v>0.0096153846153846177</v>
@@ -2948,7 +2947,7 @@
     </row>
     <row r="40" ht="24" customHeight="1">
       <c r="B40" s="61" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C40" s="70">
         <v>9615.3846153846</v>
@@ -2995,7 +2994,7 @@
     </row>
     <row r="41" ht="30" customHeight="1">
       <c r="B41" s="90" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C41" s="92"/>
       <c r="D41" s="93"/>
@@ -3014,22 +3013,22 @@
     </row>
     <row r="43">
       <c r="B43" s="53" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C43" s="98" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D43" s="99"/>
       <c r="E43" s="99"/>
       <c r="F43" s="100"/>
       <c r="G43" s="99" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H43" s="99"/>
       <c r="I43" s="99"/>
       <c r="J43" s="100"/>
       <c r="K43" s="98" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L43" s="99"/>
       <c r="M43" s="99"/>
@@ -3084,7 +3083,7 @@
     </row>
     <row r="45" ht="24" customHeight="1">
       <c r="B45" s="62" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C45" s="63">
         <v>0</v>
@@ -3272,7 +3271,7 @@
     </row>
     <row r="49" ht="24" customHeight="1">
       <c r="B49" s="61" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C49" s="70">
         <v>0</v>
@@ -3319,7 +3318,7 @@
     </row>
     <row r="50" ht="30" customHeight="1">
       <c r="B50" s="90" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C50" s="92"/>
       <c r="D50" s="93"/>
@@ -3338,22 +3337,22 @@
     </row>
     <row r="52">
       <c r="B52" s="53" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C52" s="98" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D52" s="99"/>
       <c r="E52" s="99"/>
       <c r="F52" s="100"/>
       <c r="G52" s="99" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H52" s="99"/>
       <c r="I52" s="99"/>
       <c r="J52" s="100"/>
       <c r="K52" s="98" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L52" s="99"/>
       <c r="M52" s="99"/>
@@ -3408,7 +3407,7 @@
     </row>
     <row r="54" ht="24" customHeight="1">
       <c r="B54" s="62" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C54" s="63">
         <v>0</v>
@@ -3596,7 +3595,7 @@
     </row>
     <row r="58" ht="24" customHeight="1">
       <c r="B58" s="61" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C58" s="70">
         <v>0</v>
@@ -3643,7 +3642,7 @@
     </row>
     <row r="59" ht="30" customHeight="1">
       <c r="B59" s="90" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C59" s="92"/>
       <c r="D59" s="93"/>
@@ -3662,22 +3661,22 @@
     </row>
     <row r="61">
       <c r="B61" s="53" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C61" s="98" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D61" s="99"/>
       <c r="E61" s="99"/>
       <c r="F61" s="100"/>
       <c r="G61" s="99" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H61" s="99"/>
       <c r="I61" s="99"/>
       <c r="J61" s="100"/>
       <c r="K61" s="98" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L61" s="99"/>
       <c r="M61" s="99"/>
@@ -3732,7 +3731,7 @@
     </row>
     <row r="63" ht="24" customHeight="1">
       <c r="B63" s="62" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C63" s="63">
         <v>0</v>
@@ -3920,7 +3919,7 @@
     </row>
     <row r="67" ht="24" customHeight="1">
       <c r="B67" s="61" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C67" s="70">
         <v>0</v>
@@ -3967,7 +3966,7 @@
     </row>
     <row r="68" ht="30" customHeight="1">
       <c r="B68" s="90" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C68" s="92"/>
       <c r="D68" s="93"/>
@@ -3986,22 +3985,22 @@
     </row>
     <row r="70">
       <c r="B70" s="53" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C70" s="98" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D70" s="99"/>
       <c r="E70" s="99"/>
       <c r="F70" s="100"/>
       <c r="G70" s="99" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H70" s="99"/>
       <c r="I70" s="99"/>
       <c r="J70" s="100"/>
       <c r="K70" s="98" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L70" s="99"/>
       <c r="M70" s="99"/>
@@ -4056,7 +4055,7 @@
     </row>
     <row r="72" ht="24" customHeight="1">
       <c r="B72" s="62" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C72" s="63">
         <v>0</v>
@@ -4244,7 +4243,7 @@
     </row>
     <row r="76" ht="24" customHeight="1">
       <c r="B76" s="61" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C76" s="70">
         <v>0</v>
@@ -4291,7 +4290,7 @@
     </row>
     <row r="77" ht="30" customHeight="1">
       <c r="B77" s="90" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C77" s="92"/>
       <c r="D77" s="93"/>
@@ -4310,23 +4309,23 @@
     </row>
     <row r="79">
       <c r="B79" s="53" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C79" s="98" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D79" s="99"/>
       <c r="E79" s="99"/>
       <c r="F79" s="100"/>
       <c r="G79" s="99" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H79" s="99"/>
       <c r="I79" s="99"/>
       <c r="J79" s="99"/>
       <c r="K79" s="100"/>
       <c r="L79" s="98" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M79" s="99"/>
       <c r="N79" s="99"/>
@@ -4380,7 +4379,7 @@
     </row>
     <row r="81" ht="24" customHeight="1">
       <c r="B81" s="62" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C81" s="63">
         <v>0.010043956043956047</v>
@@ -4568,7 +4567,7 @@
     </row>
     <row r="85" ht="24" customHeight="1">
       <c r="B85" s="61" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C85" s="70">
         <v>10043.956043956028</v>
@@ -4615,7 +4614,7 @@
     </row>
     <row r="86" ht="30" customHeight="1">
       <c r="B86" s="90" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C86" s="92"/>
       <c r="D86" s="93"/>
@@ -4634,23 +4633,23 @@
     </row>
     <row r="88">
       <c r="B88" s="53" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C88" s="98" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D88" s="99"/>
       <c r="E88" s="99"/>
       <c r="F88" s="100"/>
       <c r="G88" s="99" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H88" s="99"/>
       <c r="I88" s="99"/>
       <c r="J88" s="99"/>
       <c r="K88" s="100"/>
       <c r="L88" s="98" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M88" s="99"/>
       <c r="N88" s="99"/>
@@ -4704,7 +4703,7 @@
     </row>
     <row r="90" ht="24" customHeight="1">
       <c r="B90" s="62" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C90" s="63">
         <v>0.010043956043956047</v>
@@ -4892,7 +4891,7 @@
     </row>
     <row r="94" ht="24" customHeight="1">
       <c r="B94" s="61" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C94" s="70">
         <v>10043.956043956028</v>
@@ -4939,7 +4938,7 @@
     </row>
     <row r="95" ht="30" customHeight="1">
       <c r="B95" s="90" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C95" s="92"/>
       <c r="D95" s="93"/>
@@ -4958,23 +4957,23 @@
     </row>
     <row r="97">
       <c r="B97" s="53" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C97" s="98" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D97" s="99"/>
       <c r="E97" s="99"/>
       <c r="F97" s="100"/>
       <c r="G97" s="99" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H97" s="99"/>
       <c r="I97" s="99"/>
       <c r="J97" s="99"/>
       <c r="K97" s="100"/>
       <c r="L97" s="98" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M97" s="99"/>
       <c r="N97" s="99"/>
@@ -5028,7 +5027,7 @@
     </row>
     <row r="99" ht="24" customHeight="1">
       <c r="B99" s="62" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C99" s="63">
         <v>0.0096153846153846177</v>
@@ -5216,7 +5215,7 @@
     </row>
     <row r="103" ht="24" customHeight="1">
       <c r="B103" s="61" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C103" s="70">
         <v>9615.3846153846</v>
@@ -5263,7 +5262,7 @@
     </row>
     <row r="104" ht="30" customHeight="1">
       <c r="B104" s="90" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C104" s="92"/>
       <c r="D104" s="93"/>
@@ -5282,23 +5281,23 @@
     </row>
     <row r="106">
       <c r="B106" s="53" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C106" s="98" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D106" s="99"/>
       <c r="E106" s="99"/>
       <c r="F106" s="100"/>
       <c r="G106" s="99" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H106" s="99"/>
       <c r="I106" s="99"/>
       <c r="J106" s="99"/>
       <c r="K106" s="100"/>
       <c r="L106" s="98" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M106" s="99"/>
       <c r="N106" s="99"/>
@@ -5352,7 +5351,7 @@
     </row>
     <row r="108" ht="24" customHeight="1">
       <c r="B108" s="62" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C108" s="63">
         <v>0.0096153846153846177</v>
@@ -5540,7 +5539,7 @@
     </row>
     <row r="112" ht="24" customHeight="1">
       <c r="B112" s="61" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C112" s="70">
         <v>9615.3846153846</v>
@@ -5587,7 +5586,7 @@
     </row>
     <row r="113" ht="30" customHeight="1">
       <c r="B113" s="90" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C113" s="92"/>
       <c r="D113" s="93"/>
@@ -5606,23 +5605,23 @@
     </row>
     <row r="115">
       <c r="B115" s="53" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C115" s="98" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D115" s="99"/>
       <c r="E115" s="99"/>
       <c r="F115" s="100"/>
       <c r="G115" s="99" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H115" s="99"/>
       <c r="I115" s="99"/>
       <c r="J115" s="99"/>
       <c r="K115" s="100"/>
       <c r="L115" s="98" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M115" s="99"/>
       <c r="N115" s="99"/>
@@ -5676,7 +5675,7 @@
     </row>
     <row r="117" ht="24" customHeight="1">
       <c r="B117" s="62" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C117" s="63">
         <v>0.035500000000000018</v>
@@ -5864,7 +5863,7 @@
     </row>
     <row r="121" ht="24" customHeight="1">
       <c r="B121" s="61" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C121" s="70">
         <v>35500</v>
@@ -5911,7 +5910,7 @@
     </row>
     <row r="122" ht="30" customHeight="1">
       <c r="B122" s="90" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C122" s="92"/>
       <c r="D122" s="93"/>
@@ -5930,23 +5929,23 @@
     </row>
     <row r="124">
       <c r="B124" s="53" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C124" s="98" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D124" s="99"/>
       <c r="E124" s="99"/>
       <c r="F124" s="100"/>
       <c r="G124" s="99" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H124" s="99"/>
       <c r="I124" s="99"/>
       <c r="J124" s="99"/>
       <c r="K124" s="100"/>
       <c r="L124" s="98" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M124" s="99"/>
       <c r="N124" s="99"/>
@@ -6000,7 +5999,7 @@
     </row>
     <row r="126" ht="24" customHeight="1">
       <c r="B126" s="62" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C126" s="63">
         <v>0.035500000000000018</v>
@@ -6188,7 +6187,7 @@
     </row>
     <row r="130" ht="24" customHeight="1">
       <c r="B130" s="61" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C130" s="70">
         <v>35500</v>
@@ -6235,7 +6234,7 @@
     </row>
     <row r="131" ht="30" customHeight="1">
       <c r="B131" s="90" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C131" s="92"/>
       <c r="D131" s="93"/>
@@ -6254,23 +6253,23 @@
     </row>
     <row r="133">
       <c r="B133" s="53" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C133" s="98" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D133" s="99"/>
       <c r="E133" s="99"/>
       <c r="F133" s="100"/>
       <c r="G133" s="99" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H133" s="99"/>
       <c r="I133" s="99"/>
       <c r="J133" s="99"/>
       <c r="K133" s="100"/>
       <c r="L133" s="98" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M133" s="99"/>
       <c r="N133" s="99"/>
@@ -6324,7 +6323,7 @@
     </row>
     <row r="135" ht="24" customHeight="1">
       <c r="B135" s="62" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C135" s="63">
         <v>0.035500000000000018</v>
@@ -6512,7 +6511,7 @@
     </row>
     <row r="139" ht="24" customHeight="1">
       <c r="B139" s="61" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C139" s="70">
         <v>35500</v>
@@ -6559,7 +6558,7 @@
     </row>
     <row r="140" ht="30" customHeight="1">
       <c r="B140" s="90" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C140" s="92"/>
       <c r="D140" s="93"/>
@@ -6578,23 +6577,23 @@
     </row>
     <row r="142">
       <c r="B142" s="53" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C142" s="98" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D142" s="99"/>
       <c r="E142" s="99"/>
       <c r="F142" s="100"/>
       <c r="G142" s="99" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H142" s="99"/>
       <c r="I142" s="99"/>
       <c r="J142" s="99"/>
       <c r="K142" s="100"/>
       <c r="L142" s="98" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M142" s="99"/>
       <c r="N142" s="99"/>
@@ -6648,7 +6647,7 @@
     </row>
     <row r="144" ht="24" customHeight="1">
       <c r="B144" s="62" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C144" s="63">
         <v>0.035500000000000018</v>
@@ -6836,7 +6835,7 @@
     </row>
     <row r="148" ht="24" customHeight="1">
       <c r="B148" s="61" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C148" s="70">
         <v>35500</v>
@@ -6883,7 +6882,7 @@
     </row>
     <row r="149" ht="30" customHeight="1">
       <c r="B149" s="90" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C149" s="92"/>
       <c r="D149" s="93"/>
@@ -7058,7 +7057,7 @@
         <v>14</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M5" s="3" t="s">
         <v>16</v>
@@ -7091,7 +7090,7 @@
     </row>
     <row r="7" ht="24" customHeight="1">
       <c r="B7" s="53" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
@@ -7352,7 +7351,7 @@
     </row>
     <row r="13" ht="24" customHeight="1">
       <c r="B13" s="53" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -9589,7 +9588,7 @@
   </sheetPr>
   <dimension ref="A2:T39"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0" tabSelected="1">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="C5" sqref="C5:D5"/>
     </sheetView>
   </sheetViews>
@@ -9614,10 +9613,10 @@
     <row r="2" ht="27.95" customHeight="1">
       <c r="E2" s="5"/>
       <c r="F2" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="T2" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1"/>
@@ -9652,24 +9651,24 @@
     </row>
     <row r="5" ht="18" customHeight="1" s="3" customFormat="1">
       <c r="C5" s="95" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D5" s="95"/>
       <c r="E5" s="95" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F5" s="95"/>
       <c r="G5" s="95"/>
       <c r="H5" s="95" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I5" s="95"/>
       <c r="J5" s="95" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K5" s="95"/>
       <c r="L5" s="95" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M5" s="95"/>
       <c r="N5" s="76" t="s">
@@ -9701,7 +9700,7 @@
     </row>
     <row r="7" ht="24" customHeight="1">
       <c r="C7" s="53" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D7" s="53"/>
       <c r="E7" s="7"/>
@@ -9716,7 +9715,7 @@
       <c r="L7" s="99"/>
       <c r="M7" s="100"/>
       <c r="N7" s="98" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O7" s="99"/>
       <c r="P7" s="99"/>
@@ -9727,14 +9726,14 @@
     </row>
     <row r="8" ht="24" customHeight="1">
       <c r="A8" s="80" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B8" s="25"/>
       <c r="C8" s="39" t="s">
         <v>22</v>
       </c>
       <c r="D8" s="40" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E8" s="40" t="s">
         <v>23</v>
@@ -9787,14 +9786,14 @@
     </row>
     <row r="9" ht="24" customHeight="1">
       <c r="A9" s="80" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B9" s="25"/>
       <c r="C9" s="8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E9" s="83">
         <v>0</v>
@@ -9847,14 +9846,14 @@
     </row>
     <row r="10" ht="24" customHeight="1">
       <c r="A10" s="80" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B10" s="25"/>
       <c r="C10" s="8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E10" s="83">
         <v>0</v>
@@ -9907,14 +9906,14 @@
     </row>
     <row r="11" ht="24" customHeight="1">
       <c r="A11" s="80" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="8" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E11" s="83">
         <v>0</v>
@@ -9967,14 +9966,14 @@
     </row>
     <row r="12" ht="24" customHeight="1">
       <c r="A12" s="80" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E12" s="83">
         <v>0</v>
@@ -10029,7 +10028,7 @@
       <c r="B13" s="25"/>
       <c r="C13" s="39"/>
       <c r="D13" s="40" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E13" s="51">
         <v>0</v>
@@ -10082,7 +10081,7 @@
     </row>
     <row r="15" ht="24" customHeight="1">
       <c r="C15" s="53" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D15" s="53"/>
       <c r="E15" s="7"/>
@@ -10097,7 +10096,7 @@
       <c r="L15" s="99"/>
       <c r="M15" s="100"/>
       <c r="N15" s="98" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O15" s="99"/>
       <c r="P15" s="99"/>
@@ -10108,14 +10107,14 @@
     </row>
     <row r="16" ht="24" customHeight="1">
       <c r="A16" s="80" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="39" t="s">
         <v>22</v>
       </c>
       <c r="D16" s="40" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E16" s="40" t="s">
         <v>23</v>
@@ -10168,14 +10167,14 @@
     </row>
     <row r="17" ht="24" customHeight="1">
       <c r="A17" s="80" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B17" s="25"/>
       <c r="C17" s="8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E17" s="83">
         <v>0</v>
@@ -10228,14 +10227,14 @@
     </row>
     <row r="18" ht="24" customHeight="1">
       <c r="A18" s="80" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B18" s="25"/>
       <c r="C18" s="8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E18" s="83">
         <v>0</v>
@@ -10288,14 +10287,14 @@
     </row>
     <row r="19" ht="24" customHeight="1">
       <c r="A19" s="80" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B19" s="25"/>
       <c r="C19" s="8" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E19" s="83">
         <v>0</v>
@@ -10348,14 +10347,14 @@
     </row>
     <row r="20" ht="24" customHeight="1">
       <c r="A20" s="80" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B20" s="25"/>
       <c r="C20" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E20" s="83">
         <v>0</v>
@@ -10410,7 +10409,7 @@
       <c r="B21" s="25"/>
       <c r="C21" s="39"/>
       <c r="D21" s="40" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E21" s="51">
         <v>0</v>
@@ -10478,7 +10477,7 @@
       <c r="L23" s="99"/>
       <c r="M23" s="100"/>
       <c r="N23" s="98" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O23" s="99"/>
       <c r="P23" s="99"/>
@@ -10489,14 +10488,14 @@
     </row>
     <row r="24" ht="24" customHeight="1">
       <c r="A24" s="80" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B24" s="25"/>
       <c r="C24" s="39" t="s">
         <v>22</v>
       </c>
       <c r="D24" s="40" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E24" s="40" t="s">
         <v>23</v>
@@ -10549,14 +10548,14 @@
     </row>
     <row r="25" ht="24" customHeight="1">
       <c r="A25" s="80" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B25" s="25"/>
       <c r="C25" s="8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E25" s="83">
         <v>0</v>
@@ -10609,14 +10608,14 @@
     </row>
     <row r="26" ht="24" customHeight="1">
       <c r="A26" s="80" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B26" s="25"/>
       <c r="C26" s="8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E26" s="83">
         <v>0</v>
@@ -10669,14 +10668,14 @@
     </row>
     <row r="27" ht="24" customHeight="1">
       <c r="A27" s="80" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B27" s="25"/>
       <c r="C27" s="8" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E27" s="83">
         <v>0</v>
@@ -10729,14 +10728,14 @@
     </row>
     <row r="28" ht="24" customHeight="1">
       <c r="A28" s="80" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E28" s="83">
         <v>0</v>
@@ -10791,7 +10790,7 @@
       <c r="B29" s="25"/>
       <c r="C29" s="39"/>
       <c r="D29" s="40" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E29" s="51">
         <v>0</v>
@@ -10849,7 +10848,7 @@
       <c r="D31" s="55"/>
       <c r="E31" s="81"/>
       <c r="F31" s="104" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G31" s="104"/>
       <c r="H31" s="104"/>
@@ -10891,7 +10890,7 @@
       </c>
       <c r="D33" s="55"/>
       <c r="F33" s="104" t="s">
-        <v>101</v>
+        <v>54</v>
       </c>
       <c r="G33" s="104"/>
       <c r="H33" s="104"/>

--- a/Source/Tam/MaestroTests/SupportTests/Services.Broadcast.IntegrationTests/Files/Campaign export/CampaignExport_ReservedPlanWithConstraints.xlsx
+++ b/Source/Tam/MaestroTests/SupportTests/Services.Broadcast.IntegrationTests/Files/Campaign export/CampaignExport_ReservedPlanWithConstraints.xlsx
@@ -286,7 +286,7 @@
     <t>Broadcast Proposal Campaign with all types of plans</t>
   </si>
   <si>
-    <t>Created 02/25/20</t>
+    <t>Created 02/26/20</t>
   </si>
   <si>
     <t>Stub Agency</t>
@@ -343,7 +343,7 @@
     <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <d:rPr>
         <d:b/>
-        <d:sz val="14"/>
+        <d:sz val="12"/>
         <d:color rgb="FF3D5261"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
@@ -351,7 +351,7 @@
     </d:r>
     <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <d:rPr>
-        <d:sz val="14"/>
+        <d:sz val="12"/>
         <d:color rgb="FF3D5261"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
@@ -360,7 +360,7 @@
     <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <d:rPr>
         <d:b/>
-        <d:sz val="14"/>
+        <d:sz val="12"/>
         <d:color rgb="FF3D5261"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
@@ -368,7 +368,7 @@
     </d:r>
     <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <d:rPr>
-        <d:sz val="14"/>
+        <d:sz val="12"/>
         <d:color rgb="FF3D5261"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
@@ -377,7 +377,7 @@
     <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <d:rPr>
         <d:b/>
-        <d:sz val="14"/>
+        <d:sz val="12"/>
         <d:color rgb="FF3D5261"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
@@ -385,7 +385,7 @@
     </d:r>
     <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <d:rPr>
-        <d:sz val="14"/>
+        <d:sz val="12"/>
         <d:color rgb="FF3D5261"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
@@ -702,7 +702,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="103">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
@@ -942,9 +942,6 @@
     <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
       <alignment horizontal="left" vertical="center" shrinkToFit="1" indent="2"/>
     </xf>
@@ -1010,9 +1007,6 @@
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
       <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1672,7 +1666,7 @@
       <c r="K2" s="5"/>
       <c r="P2" s="6" t="str">
         <f>'PROPOSAL'!T2</f>
-        <v>Created 02/25/20</v>
+        <v>Created 02/26/20</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1"/>
@@ -1696,21 +1690,21 @@
         <f>'PROPOSAL'!N5</f>
         <v>NTI</v>
       </c>
-      <c r="D5" s="95" t="s">
+      <c r="D5" s="94" t="s">
         <v>54</v>
       </c>
-      <c r="E5" s="95"/>
-      <c r="F5" s="95"/>
-      <c r="G5" s="95"/>
-      <c r="H5" s="95"/>
-      <c r="I5" s="95"/>
-      <c r="J5" s="95"/>
-      <c r="K5" s="95"/>
-      <c r="L5" s="95"/>
-      <c r="M5" s="95"/>
-      <c r="N5" s="95"/>
-      <c r="O5" s="95"/>
-      <c r="P5" s="95"/>
+      <c r="E5" s="94"/>
+      <c r="F5" s="94"/>
+      <c r="G5" s="94"/>
+      <c r="H5" s="94"/>
+      <c r="I5" s="94"/>
+      <c r="J5" s="94"/>
+      <c r="K5" s="94"/>
+      <c r="L5" s="94"/>
+      <c r="M5" s="94"/>
+      <c r="N5" s="94"/>
+      <c r="O5" s="94"/>
+      <c r="P5" s="94"/>
     </row>
     <row r="6" ht="24" customHeight="1">
       <c r="P6" s="60"/>
@@ -1719,25 +1713,25 @@
       <c r="B7" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="98" t="s">
+      <c r="C7" s="97" t="s">
         <v>56</v>
       </c>
-      <c r="D7" s="99"/>
-      <c r="E7" s="99"/>
-      <c r="F7" s="100"/>
-      <c r="G7" s="99" t="s">
+      <c r="D7" s="98"/>
+      <c r="E7" s="98"/>
+      <c r="F7" s="99"/>
+      <c r="G7" s="98" t="s">
         <v>57</v>
       </c>
-      <c r="H7" s="99"/>
-      <c r="I7" s="99"/>
-      <c r="J7" s="100"/>
-      <c r="K7" s="98" t="s">
+      <c r="H7" s="98"/>
+      <c r="I7" s="98"/>
+      <c r="J7" s="99"/>
+      <c r="K7" s="97" t="s">
         <v>58</v>
       </c>
-      <c r="L7" s="99"/>
-      <c r="M7" s="99"/>
-      <c r="N7" s="99"/>
-      <c r="O7" s="100"/>
+      <c r="L7" s="98"/>
+      <c r="M7" s="98"/>
+      <c r="N7" s="98"/>
+      <c r="O7" s="99"/>
       <c r="P7" s="30"/>
     </row>
     <row r="8" ht="24" customHeight="1">
@@ -2021,47 +2015,47 @@
       </c>
     </row>
     <row r="14" ht="30" customHeight="1">
-      <c r="B14" s="90" t="s">
+      <c r="B14" s="89" t="s">
         <v>61</v>
       </c>
-      <c r="C14" s="92"/>
-      <c r="D14" s="93"/>
-      <c r="E14" s="93"/>
-      <c r="F14" s="93"/>
-      <c r="G14" s="92"/>
-      <c r="H14" s="93"/>
-      <c r="I14" s="93"/>
-      <c r="J14" s="94"/>
-      <c r="K14" s="92"/>
-      <c r="L14" s="93"/>
-      <c r="M14" s="93"/>
-      <c r="N14" s="93"/>
-      <c r="O14" s="94"/>
-      <c r="P14" s="91"/>
+      <c r="C14" s="91"/>
+      <c r="D14" s="92"/>
+      <c r="E14" s="92"/>
+      <c r="F14" s="92"/>
+      <c r="G14" s="91"/>
+      <c r="H14" s="92"/>
+      <c r="I14" s="92"/>
+      <c r="J14" s="93"/>
+      <c r="K14" s="91"/>
+      <c r="L14" s="92"/>
+      <c r="M14" s="92"/>
+      <c r="N14" s="92"/>
+      <c r="O14" s="93"/>
+      <c r="P14" s="90"/>
     </row>
     <row r="16">
       <c r="B16" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="C16" s="98" t="s">
+      <c r="C16" s="97" t="s">
         <v>56</v>
       </c>
-      <c r="D16" s="99"/>
-      <c r="E16" s="99"/>
-      <c r="F16" s="100"/>
-      <c r="G16" s="99" t="s">
+      <c r="D16" s="98"/>
+      <c r="E16" s="98"/>
+      <c r="F16" s="99"/>
+      <c r="G16" s="98" t="s">
         <v>57</v>
       </c>
-      <c r="H16" s="99"/>
-      <c r="I16" s="99"/>
-      <c r="J16" s="100"/>
-      <c r="K16" s="98" t="s">
+      <c r="H16" s="98"/>
+      <c r="I16" s="98"/>
+      <c r="J16" s="99"/>
+      <c r="K16" s="97" t="s">
         <v>58</v>
       </c>
-      <c r="L16" s="99"/>
-      <c r="M16" s="99"/>
-      <c r="N16" s="99"/>
-      <c r="O16" s="100"/>
+      <c r="L16" s="98"/>
+      <c r="M16" s="98"/>
+      <c r="N16" s="98"/>
+      <c r="O16" s="99"/>
       <c r="P16" s="30"/>
     </row>
     <row r="17" ht="24" customHeight="1">
@@ -2345,47 +2339,47 @@
       </c>
     </row>
     <row r="23" ht="30" customHeight="1">
-      <c r="B23" s="90" t="s">
+      <c r="B23" s="89" t="s">
         <v>61</v>
       </c>
-      <c r="C23" s="92"/>
-      <c r="D23" s="93"/>
-      <c r="E23" s="93"/>
-      <c r="F23" s="93"/>
-      <c r="G23" s="92"/>
-      <c r="H23" s="93"/>
-      <c r="I23" s="93"/>
-      <c r="J23" s="94"/>
-      <c r="K23" s="92"/>
-      <c r="L23" s="93"/>
-      <c r="M23" s="93"/>
-      <c r="N23" s="93"/>
-      <c r="O23" s="94"/>
-      <c r="P23" s="91"/>
+      <c r="C23" s="91"/>
+      <c r="D23" s="92"/>
+      <c r="E23" s="92"/>
+      <c r="F23" s="92"/>
+      <c r="G23" s="91"/>
+      <c r="H23" s="92"/>
+      <c r="I23" s="92"/>
+      <c r="J23" s="93"/>
+      <c r="K23" s="91"/>
+      <c r="L23" s="92"/>
+      <c r="M23" s="92"/>
+      <c r="N23" s="92"/>
+      <c r="O23" s="93"/>
+      <c r="P23" s="90"/>
     </row>
     <row r="25">
       <c r="B25" s="53" t="s">
         <v>63</v>
       </c>
-      <c r="C25" s="98" t="s">
+      <c r="C25" s="97" t="s">
         <v>56</v>
       </c>
-      <c r="D25" s="99"/>
-      <c r="E25" s="99"/>
-      <c r="F25" s="100"/>
-      <c r="G25" s="99" t="s">
+      <c r="D25" s="98"/>
+      <c r="E25" s="98"/>
+      <c r="F25" s="99"/>
+      <c r="G25" s="98" t="s">
         <v>57</v>
       </c>
-      <c r="H25" s="99"/>
-      <c r="I25" s="99"/>
-      <c r="J25" s="100"/>
-      <c r="K25" s="98" t="s">
+      <c r="H25" s="98"/>
+      <c r="I25" s="98"/>
+      <c r="J25" s="99"/>
+      <c r="K25" s="97" t="s">
         <v>58</v>
       </c>
-      <c r="L25" s="99"/>
-      <c r="M25" s="99"/>
-      <c r="N25" s="99"/>
-      <c r="O25" s="100"/>
+      <c r="L25" s="98"/>
+      <c r="M25" s="98"/>
+      <c r="N25" s="98"/>
+      <c r="O25" s="99"/>
       <c r="P25" s="30"/>
     </row>
     <row r="26" ht="24" customHeight="1">
@@ -2669,47 +2663,47 @@
       </c>
     </row>
     <row r="32" ht="30" customHeight="1">
-      <c r="B32" s="90" t="s">
+      <c r="B32" s="89" t="s">
         <v>61</v>
       </c>
-      <c r="C32" s="92"/>
-      <c r="D32" s="93"/>
-      <c r="E32" s="93"/>
-      <c r="F32" s="93"/>
-      <c r="G32" s="92"/>
-      <c r="H32" s="93"/>
-      <c r="I32" s="93"/>
-      <c r="J32" s="94"/>
-      <c r="K32" s="92"/>
-      <c r="L32" s="93"/>
-      <c r="M32" s="93"/>
-      <c r="N32" s="93"/>
-      <c r="O32" s="94"/>
-      <c r="P32" s="91"/>
+      <c r="C32" s="91"/>
+      <c r="D32" s="92"/>
+      <c r="E32" s="92"/>
+      <c r="F32" s="92"/>
+      <c r="G32" s="91"/>
+      <c r="H32" s="92"/>
+      <c r="I32" s="92"/>
+      <c r="J32" s="93"/>
+      <c r="K32" s="91"/>
+      <c r="L32" s="92"/>
+      <c r="M32" s="92"/>
+      <c r="N32" s="92"/>
+      <c r="O32" s="93"/>
+      <c r="P32" s="90"/>
     </row>
     <row r="34">
       <c r="B34" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="C34" s="98" t="s">
+      <c r="C34" s="97" t="s">
         <v>56</v>
       </c>
-      <c r="D34" s="99"/>
-      <c r="E34" s="99"/>
-      <c r="F34" s="100"/>
-      <c r="G34" s="99" t="s">
+      <c r="D34" s="98"/>
+      <c r="E34" s="98"/>
+      <c r="F34" s="99"/>
+      <c r="G34" s="98" t="s">
         <v>57</v>
       </c>
-      <c r="H34" s="99"/>
-      <c r="I34" s="99"/>
-      <c r="J34" s="100"/>
-      <c r="K34" s="98" t="s">
+      <c r="H34" s="98"/>
+      <c r="I34" s="98"/>
+      <c r="J34" s="99"/>
+      <c r="K34" s="97" t="s">
         <v>58</v>
       </c>
-      <c r="L34" s="99"/>
-      <c r="M34" s="99"/>
-      <c r="N34" s="99"/>
-      <c r="O34" s="100"/>
+      <c r="L34" s="98"/>
+      <c r="M34" s="98"/>
+      <c r="N34" s="98"/>
+      <c r="O34" s="99"/>
       <c r="P34" s="30"/>
     </row>
     <row r="35" ht="24" customHeight="1">
@@ -2993,47 +2987,47 @@
       </c>
     </row>
     <row r="41" ht="30" customHeight="1">
-      <c r="B41" s="90" t="s">
+      <c r="B41" s="89" t="s">
         <v>61</v>
       </c>
-      <c r="C41" s="92"/>
-      <c r="D41" s="93"/>
-      <c r="E41" s="93"/>
-      <c r="F41" s="93"/>
-      <c r="G41" s="92"/>
-      <c r="H41" s="93"/>
-      <c r="I41" s="93"/>
-      <c r="J41" s="94"/>
-      <c r="K41" s="92"/>
-      <c r="L41" s="93"/>
-      <c r="M41" s="93"/>
-      <c r="N41" s="93"/>
-      <c r="O41" s="94"/>
-      <c r="P41" s="91"/>
+      <c r="C41" s="91"/>
+      <c r="D41" s="92"/>
+      <c r="E41" s="92"/>
+      <c r="F41" s="92"/>
+      <c r="G41" s="91"/>
+      <c r="H41" s="92"/>
+      <c r="I41" s="92"/>
+      <c r="J41" s="93"/>
+      <c r="K41" s="91"/>
+      <c r="L41" s="92"/>
+      <c r="M41" s="92"/>
+      <c r="N41" s="92"/>
+      <c r="O41" s="93"/>
+      <c r="P41" s="90"/>
     </row>
     <row r="43">
       <c r="B43" s="53" t="s">
         <v>65</v>
       </c>
-      <c r="C43" s="98" t="s">
+      <c r="C43" s="97" t="s">
         <v>56</v>
       </c>
-      <c r="D43" s="99"/>
-      <c r="E43" s="99"/>
-      <c r="F43" s="100"/>
-      <c r="G43" s="99" t="s">
+      <c r="D43" s="98"/>
+      <c r="E43" s="98"/>
+      <c r="F43" s="99"/>
+      <c r="G43" s="98" t="s">
         <v>57</v>
       </c>
-      <c r="H43" s="99"/>
-      <c r="I43" s="99"/>
-      <c r="J43" s="100"/>
-      <c r="K43" s="98" t="s">
+      <c r="H43" s="98"/>
+      <c r="I43" s="98"/>
+      <c r="J43" s="99"/>
+      <c r="K43" s="97" t="s">
         <v>58</v>
       </c>
-      <c r="L43" s="99"/>
-      <c r="M43" s="99"/>
-      <c r="N43" s="99"/>
-      <c r="O43" s="100"/>
+      <c r="L43" s="98"/>
+      <c r="M43" s="98"/>
+      <c r="N43" s="98"/>
+      <c r="O43" s="99"/>
       <c r="P43" s="30"/>
     </row>
     <row r="44" ht="24" customHeight="1">
@@ -3317,47 +3311,47 @@
       </c>
     </row>
     <row r="50" ht="30" customHeight="1">
-      <c r="B50" s="90" t="s">
+      <c r="B50" s="89" t="s">
         <v>61</v>
       </c>
-      <c r="C50" s="92"/>
-      <c r="D50" s="93"/>
-      <c r="E50" s="93"/>
-      <c r="F50" s="93"/>
-      <c r="G50" s="92"/>
-      <c r="H50" s="93"/>
-      <c r="I50" s="93"/>
-      <c r="J50" s="94"/>
-      <c r="K50" s="92"/>
-      <c r="L50" s="93"/>
-      <c r="M50" s="93"/>
-      <c r="N50" s="93"/>
-      <c r="O50" s="94"/>
-      <c r="P50" s="91"/>
+      <c r="C50" s="91"/>
+      <c r="D50" s="92"/>
+      <c r="E50" s="92"/>
+      <c r="F50" s="92"/>
+      <c r="G50" s="91"/>
+      <c r="H50" s="92"/>
+      <c r="I50" s="92"/>
+      <c r="J50" s="93"/>
+      <c r="K50" s="91"/>
+      <c r="L50" s="92"/>
+      <c r="M50" s="92"/>
+      <c r="N50" s="92"/>
+      <c r="O50" s="93"/>
+      <c r="P50" s="90"/>
     </row>
     <row r="52">
       <c r="B52" s="53" t="s">
         <v>66</v>
       </c>
-      <c r="C52" s="98" t="s">
+      <c r="C52" s="97" t="s">
         <v>56</v>
       </c>
-      <c r="D52" s="99"/>
-      <c r="E52" s="99"/>
-      <c r="F52" s="100"/>
-      <c r="G52" s="99" t="s">
+      <c r="D52" s="98"/>
+      <c r="E52" s="98"/>
+      <c r="F52" s="99"/>
+      <c r="G52" s="98" t="s">
         <v>57</v>
       </c>
-      <c r="H52" s="99"/>
-      <c r="I52" s="99"/>
-      <c r="J52" s="100"/>
-      <c r="K52" s="98" t="s">
+      <c r="H52" s="98"/>
+      <c r="I52" s="98"/>
+      <c r="J52" s="99"/>
+      <c r="K52" s="97" t="s">
         <v>58</v>
       </c>
-      <c r="L52" s="99"/>
-      <c r="M52" s="99"/>
-      <c r="N52" s="99"/>
-      <c r="O52" s="100"/>
+      <c r="L52" s="98"/>
+      <c r="M52" s="98"/>
+      <c r="N52" s="98"/>
+      <c r="O52" s="99"/>
       <c r="P52" s="30"/>
     </row>
     <row r="53" ht="24" customHeight="1">
@@ -3641,47 +3635,47 @@
       </c>
     </row>
     <row r="59" ht="30" customHeight="1">
-      <c r="B59" s="90" t="s">
+      <c r="B59" s="89" t="s">
         <v>61</v>
       </c>
-      <c r="C59" s="92"/>
-      <c r="D59" s="93"/>
-      <c r="E59" s="93"/>
-      <c r="F59" s="93"/>
-      <c r="G59" s="92"/>
-      <c r="H59" s="93"/>
-      <c r="I59" s="93"/>
-      <c r="J59" s="94"/>
-      <c r="K59" s="92"/>
-      <c r="L59" s="93"/>
-      <c r="M59" s="93"/>
-      <c r="N59" s="93"/>
-      <c r="O59" s="94"/>
-      <c r="P59" s="91"/>
+      <c r="C59" s="91"/>
+      <c r="D59" s="92"/>
+      <c r="E59" s="92"/>
+      <c r="F59" s="92"/>
+      <c r="G59" s="91"/>
+      <c r="H59" s="92"/>
+      <c r="I59" s="92"/>
+      <c r="J59" s="93"/>
+      <c r="K59" s="91"/>
+      <c r="L59" s="92"/>
+      <c r="M59" s="92"/>
+      <c r="N59" s="92"/>
+      <c r="O59" s="93"/>
+      <c r="P59" s="90"/>
     </row>
     <row r="61">
       <c r="B61" s="53" t="s">
         <v>67</v>
       </c>
-      <c r="C61" s="98" t="s">
+      <c r="C61" s="97" t="s">
         <v>56</v>
       </c>
-      <c r="D61" s="99"/>
-      <c r="E61" s="99"/>
-      <c r="F61" s="100"/>
-      <c r="G61" s="99" t="s">
+      <c r="D61" s="98"/>
+      <c r="E61" s="98"/>
+      <c r="F61" s="99"/>
+      <c r="G61" s="98" t="s">
         <v>57</v>
       </c>
-      <c r="H61" s="99"/>
-      <c r="I61" s="99"/>
-      <c r="J61" s="100"/>
-      <c r="K61" s="98" t="s">
+      <c r="H61" s="98"/>
+      <c r="I61" s="98"/>
+      <c r="J61" s="99"/>
+      <c r="K61" s="97" t="s">
         <v>58</v>
       </c>
-      <c r="L61" s="99"/>
-      <c r="M61" s="99"/>
-      <c r="N61" s="99"/>
-      <c r="O61" s="100"/>
+      <c r="L61" s="98"/>
+      <c r="M61" s="98"/>
+      <c r="N61" s="98"/>
+      <c r="O61" s="99"/>
       <c r="P61" s="30"/>
     </row>
     <row r="62" ht="24" customHeight="1">
@@ -3965,47 +3959,47 @@
       </c>
     </row>
     <row r="68" ht="30" customHeight="1">
-      <c r="B68" s="90" t="s">
+      <c r="B68" s="89" t="s">
         <v>61</v>
       </c>
-      <c r="C68" s="92"/>
-      <c r="D68" s="93"/>
-      <c r="E68" s="93"/>
-      <c r="F68" s="93"/>
-      <c r="G68" s="92"/>
-      <c r="H68" s="93"/>
-      <c r="I68" s="93"/>
-      <c r="J68" s="94"/>
-      <c r="K68" s="92"/>
-      <c r="L68" s="93"/>
-      <c r="M68" s="93"/>
-      <c r="N68" s="93"/>
-      <c r="O68" s="94"/>
-      <c r="P68" s="91"/>
+      <c r="C68" s="91"/>
+      <c r="D68" s="92"/>
+      <c r="E68" s="92"/>
+      <c r="F68" s="92"/>
+      <c r="G68" s="91"/>
+      <c r="H68" s="92"/>
+      <c r="I68" s="92"/>
+      <c r="J68" s="93"/>
+      <c r="K68" s="91"/>
+      <c r="L68" s="92"/>
+      <c r="M68" s="92"/>
+      <c r="N68" s="92"/>
+      <c r="O68" s="93"/>
+      <c r="P68" s="90"/>
     </row>
     <row r="70">
       <c r="B70" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="C70" s="98" t="s">
+      <c r="C70" s="97" t="s">
         <v>56</v>
       </c>
-      <c r="D70" s="99"/>
-      <c r="E70" s="99"/>
-      <c r="F70" s="100"/>
-      <c r="G70" s="99" t="s">
+      <c r="D70" s="98"/>
+      <c r="E70" s="98"/>
+      <c r="F70" s="99"/>
+      <c r="G70" s="98" t="s">
         <v>57</v>
       </c>
-      <c r="H70" s="99"/>
-      <c r="I70" s="99"/>
-      <c r="J70" s="100"/>
-      <c r="K70" s="98" t="s">
+      <c r="H70" s="98"/>
+      <c r="I70" s="98"/>
+      <c r="J70" s="99"/>
+      <c r="K70" s="97" t="s">
         <v>58</v>
       </c>
-      <c r="L70" s="99"/>
-      <c r="M70" s="99"/>
-      <c r="N70" s="99"/>
-      <c r="O70" s="100"/>
+      <c r="L70" s="98"/>
+      <c r="M70" s="98"/>
+      <c r="N70" s="98"/>
+      <c r="O70" s="99"/>
       <c r="P70" s="30"/>
     </row>
     <row r="71" ht="24" customHeight="1">
@@ -4289,47 +4283,47 @@
       </c>
     </row>
     <row r="77" ht="30" customHeight="1">
-      <c r="B77" s="90" t="s">
+      <c r="B77" s="89" t="s">
         <v>61</v>
       </c>
-      <c r="C77" s="92"/>
-      <c r="D77" s="93"/>
-      <c r="E77" s="93"/>
-      <c r="F77" s="93"/>
-      <c r="G77" s="92"/>
-      <c r="H77" s="93"/>
-      <c r="I77" s="93"/>
-      <c r="J77" s="94"/>
-      <c r="K77" s="92"/>
-      <c r="L77" s="93"/>
-      <c r="M77" s="93"/>
-      <c r="N77" s="93"/>
-      <c r="O77" s="94"/>
-      <c r="P77" s="91"/>
+      <c r="C77" s="91"/>
+      <c r="D77" s="92"/>
+      <c r="E77" s="92"/>
+      <c r="F77" s="92"/>
+      <c r="G77" s="91"/>
+      <c r="H77" s="92"/>
+      <c r="I77" s="92"/>
+      <c r="J77" s="93"/>
+      <c r="K77" s="91"/>
+      <c r="L77" s="92"/>
+      <c r="M77" s="92"/>
+      <c r="N77" s="92"/>
+      <c r="O77" s="93"/>
+      <c r="P77" s="90"/>
     </row>
     <row r="79">
       <c r="B79" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="C79" s="98" t="s">
+      <c r="C79" s="97" t="s">
         <v>70</v>
       </c>
-      <c r="D79" s="99"/>
-      <c r="E79" s="99"/>
-      <c r="F79" s="100"/>
-      <c r="G79" s="99" t="s">
+      <c r="D79" s="98"/>
+      <c r="E79" s="98"/>
+      <c r="F79" s="99"/>
+      <c r="G79" s="98" t="s">
         <v>71</v>
       </c>
-      <c r="H79" s="99"/>
-      <c r="I79" s="99"/>
-      <c r="J79" s="99"/>
-      <c r="K79" s="100"/>
-      <c r="L79" s="98" t="s">
+      <c r="H79" s="98"/>
+      <c r="I79" s="98"/>
+      <c r="J79" s="98"/>
+      <c r="K79" s="99"/>
+      <c r="L79" s="97" t="s">
         <v>72</v>
       </c>
-      <c r="M79" s="99"/>
-      <c r="N79" s="99"/>
-      <c r="O79" s="100"/>
+      <c r="M79" s="98"/>
+      <c r="N79" s="98"/>
+      <c r="O79" s="99"/>
       <c r="P79" s="30"/>
     </row>
     <row r="80" ht="24" customHeight="1">
@@ -4613,47 +4607,47 @@
       </c>
     </row>
     <row r="86" ht="30" customHeight="1">
-      <c r="B86" s="90" t="s">
+      <c r="B86" s="89" t="s">
         <v>61</v>
       </c>
-      <c r="C86" s="92"/>
-      <c r="D86" s="93"/>
-      <c r="E86" s="93"/>
-      <c r="F86" s="93"/>
-      <c r="G86" s="92"/>
-      <c r="H86" s="93"/>
-      <c r="I86" s="93"/>
-      <c r="J86" s="93"/>
-      <c r="K86" s="94"/>
-      <c r="L86" s="92"/>
-      <c r="M86" s="93"/>
-      <c r="N86" s="93"/>
-      <c r="O86" s="94"/>
-      <c r="P86" s="91"/>
+      <c r="C86" s="91"/>
+      <c r="D86" s="92"/>
+      <c r="E86" s="92"/>
+      <c r="F86" s="92"/>
+      <c r="G86" s="91"/>
+      <c r="H86" s="92"/>
+      <c r="I86" s="92"/>
+      <c r="J86" s="92"/>
+      <c r="K86" s="93"/>
+      <c r="L86" s="91"/>
+      <c r="M86" s="92"/>
+      <c r="N86" s="92"/>
+      <c r="O86" s="93"/>
+      <c r="P86" s="90"/>
     </row>
     <row r="88">
       <c r="B88" s="53" t="s">
         <v>73</v>
       </c>
-      <c r="C88" s="98" t="s">
+      <c r="C88" s="97" t="s">
         <v>70</v>
       </c>
-      <c r="D88" s="99"/>
-      <c r="E88" s="99"/>
-      <c r="F88" s="100"/>
-      <c r="G88" s="99" t="s">
+      <c r="D88" s="98"/>
+      <c r="E88" s="98"/>
+      <c r="F88" s="99"/>
+      <c r="G88" s="98" t="s">
         <v>71</v>
       </c>
-      <c r="H88" s="99"/>
-      <c r="I88" s="99"/>
-      <c r="J88" s="99"/>
-      <c r="K88" s="100"/>
-      <c r="L88" s="98" t="s">
+      <c r="H88" s="98"/>
+      <c r="I88" s="98"/>
+      <c r="J88" s="98"/>
+      <c r="K88" s="99"/>
+      <c r="L88" s="97" t="s">
         <v>72</v>
       </c>
-      <c r="M88" s="99"/>
-      <c r="N88" s="99"/>
-      <c r="O88" s="100"/>
+      <c r="M88" s="98"/>
+      <c r="N88" s="98"/>
+      <c r="O88" s="99"/>
       <c r="P88" s="30"/>
     </row>
     <row r="89" ht="24" customHeight="1">
@@ -4937,47 +4931,47 @@
       </c>
     </row>
     <row r="95" ht="30" customHeight="1">
-      <c r="B95" s="90" t="s">
+      <c r="B95" s="89" t="s">
         <v>61</v>
       </c>
-      <c r="C95" s="92"/>
-      <c r="D95" s="93"/>
-      <c r="E95" s="93"/>
-      <c r="F95" s="93"/>
-      <c r="G95" s="92"/>
-      <c r="H95" s="93"/>
-      <c r="I95" s="93"/>
-      <c r="J95" s="93"/>
-      <c r="K95" s="94"/>
-      <c r="L95" s="92"/>
-      <c r="M95" s="93"/>
-      <c r="N95" s="93"/>
-      <c r="O95" s="94"/>
-      <c r="P95" s="91"/>
+      <c r="C95" s="91"/>
+      <c r="D95" s="92"/>
+      <c r="E95" s="92"/>
+      <c r="F95" s="92"/>
+      <c r="G95" s="91"/>
+      <c r="H95" s="92"/>
+      <c r="I95" s="92"/>
+      <c r="J95" s="92"/>
+      <c r="K95" s="93"/>
+      <c r="L95" s="91"/>
+      <c r="M95" s="92"/>
+      <c r="N95" s="92"/>
+      <c r="O95" s="93"/>
+      <c r="P95" s="90"/>
     </row>
     <row r="97">
       <c r="B97" s="53" t="s">
         <v>74</v>
       </c>
-      <c r="C97" s="98" t="s">
+      <c r="C97" s="97" t="s">
         <v>70</v>
       </c>
-      <c r="D97" s="99"/>
-      <c r="E97" s="99"/>
-      <c r="F97" s="100"/>
-      <c r="G97" s="99" t="s">
+      <c r="D97" s="98"/>
+      <c r="E97" s="98"/>
+      <c r="F97" s="99"/>
+      <c r="G97" s="98" t="s">
         <v>71</v>
       </c>
-      <c r="H97" s="99"/>
-      <c r="I97" s="99"/>
-      <c r="J97" s="99"/>
-      <c r="K97" s="100"/>
-      <c r="L97" s="98" t="s">
+      <c r="H97" s="98"/>
+      <c r="I97" s="98"/>
+      <c r="J97" s="98"/>
+      <c r="K97" s="99"/>
+      <c r="L97" s="97" t="s">
         <v>72</v>
       </c>
-      <c r="M97" s="99"/>
-      <c r="N97" s="99"/>
-      <c r="O97" s="100"/>
+      <c r="M97" s="98"/>
+      <c r="N97" s="98"/>
+      <c r="O97" s="99"/>
       <c r="P97" s="30"/>
     </row>
     <row r="98" ht="24" customHeight="1">
@@ -5261,47 +5255,47 @@
       </c>
     </row>
     <row r="104" ht="30" customHeight="1">
-      <c r="B104" s="90" t="s">
+      <c r="B104" s="89" t="s">
         <v>61</v>
       </c>
-      <c r="C104" s="92"/>
-      <c r="D104" s="93"/>
-      <c r="E104" s="93"/>
-      <c r="F104" s="93"/>
-      <c r="G104" s="92"/>
-      <c r="H104" s="93"/>
-      <c r="I104" s="93"/>
-      <c r="J104" s="93"/>
-      <c r="K104" s="94"/>
-      <c r="L104" s="92"/>
-      <c r="M104" s="93"/>
-      <c r="N104" s="93"/>
-      <c r="O104" s="94"/>
-      <c r="P104" s="91"/>
+      <c r="C104" s="91"/>
+      <c r="D104" s="92"/>
+      <c r="E104" s="92"/>
+      <c r="F104" s="92"/>
+      <c r="G104" s="91"/>
+      <c r="H104" s="92"/>
+      <c r="I104" s="92"/>
+      <c r="J104" s="92"/>
+      <c r="K104" s="93"/>
+      <c r="L104" s="91"/>
+      <c r="M104" s="92"/>
+      <c r="N104" s="92"/>
+      <c r="O104" s="93"/>
+      <c r="P104" s="90"/>
     </row>
     <row r="106">
       <c r="B106" s="53" t="s">
         <v>75</v>
       </c>
-      <c r="C106" s="98" t="s">
+      <c r="C106" s="97" t="s">
         <v>70</v>
       </c>
-      <c r="D106" s="99"/>
-      <c r="E106" s="99"/>
-      <c r="F106" s="100"/>
-      <c r="G106" s="99" t="s">
+      <c r="D106" s="98"/>
+      <c r="E106" s="98"/>
+      <c r="F106" s="99"/>
+      <c r="G106" s="98" t="s">
         <v>71</v>
       </c>
-      <c r="H106" s="99"/>
-      <c r="I106" s="99"/>
-      <c r="J106" s="99"/>
-      <c r="K106" s="100"/>
-      <c r="L106" s="98" t="s">
+      <c r="H106" s="98"/>
+      <c r="I106" s="98"/>
+      <c r="J106" s="98"/>
+      <c r="K106" s="99"/>
+      <c r="L106" s="97" t="s">
         <v>72</v>
       </c>
-      <c r="M106" s="99"/>
-      <c r="N106" s="99"/>
-      <c r="O106" s="100"/>
+      <c r="M106" s="98"/>
+      <c r="N106" s="98"/>
+      <c r="O106" s="99"/>
       <c r="P106" s="30"/>
     </row>
     <row r="107" ht="24" customHeight="1">
@@ -5585,47 +5579,47 @@
       </c>
     </row>
     <row r="113" ht="30" customHeight="1">
-      <c r="B113" s="90" t="s">
+      <c r="B113" s="89" t="s">
         <v>61</v>
       </c>
-      <c r="C113" s="92"/>
-      <c r="D113" s="93"/>
-      <c r="E113" s="93"/>
-      <c r="F113" s="93"/>
-      <c r="G113" s="92"/>
-      <c r="H113" s="93"/>
-      <c r="I113" s="93"/>
-      <c r="J113" s="93"/>
-      <c r="K113" s="94"/>
-      <c r="L113" s="92"/>
-      <c r="M113" s="93"/>
-      <c r="N113" s="93"/>
-      <c r="O113" s="94"/>
-      <c r="P113" s="91"/>
+      <c r="C113" s="91"/>
+      <c r="D113" s="92"/>
+      <c r="E113" s="92"/>
+      <c r="F113" s="92"/>
+      <c r="G113" s="91"/>
+      <c r="H113" s="92"/>
+      <c r="I113" s="92"/>
+      <c r="J113" s="92"/>
+      <c r="K113" s="93"/>
+      <c r="L113" s="91"/>
+      <c r="M113" s="92"/>
+      <c r="N113" s="92"/>
+      <c r="O113" s="93"/>
+      <c r="P113" s="90"/>
     </row>
     <row r="115">
       <c r="B115" s="53" t="s">
         <v>76</v>
       </c>
-      <c r="C115" s="98" t="s">
+      <c r="C115" s="97" t="s">
         <v>70</v>
       </c>
-      <c r="D115" s="99"/>
-      <c r="E115" s="99"/>
-      <c r="F115" s="100"/>
-      <c r="G115" s="99" t="s">
+      <c r="D115" s="98"/>
+      <c r="E115" s="98"/>
+      <c r="F115" s="99"/>
+      <c r="G115" s="98" t="s">
         <v>71</v>
       </c>
-      <c r="H115" s="99"/>
-      <c r="I115" s="99"/>
-      <c r="J115" s="99"/>
-      <c r="K115" s="100"/>
-      <c r="L115" s="98" t="s">
+      <c r="H115" s="98"/>
+      <c r="I115" s="98"/>
+      <c r="J115" s="98"/>
+      <c r="K115" s="99"/>
+      <c r="L115" s="97" t="s">
         <v>72</v>
       </c>
-      <c r="M115" s="99"/>
-      <c r="N115" s="99"/>
-      <c r="O115" s="100"/>
+      <c r="M115" s="98"/>
+      <c r="N115" s="98"/>
+      <c r="O115" s="99"/>
       <c r="P115" s="30"/>
     </row>
     <row r="116" ht="24" customHeight="1">
@@ -5909,47 +5903,47 @@
       </c>
     </row>
     <row r="122" ht="30" customHeight="1">
-      <c r="B122" s="90" t="s">
+      <c r="B122" s="89" t="s">
         <v>61</v>
       </c>
-      <c r="C122" s="92"/>
-      <c r="D122" s="93"/>
-      <c r="E122" s="93"/>
-      <c r="F122" s="93"/>
-      <c r="G122" s="92"/>
-      <c r="H122" s="93"/>
-      <c r="I122" s="93"/>
-      <c r="J122" s="93"/>
-      <c r="K122" s="94"/>
-      <c r="L122" s="92"/>
-      <c r="M122" s="93"/>
-      <c r="N122" s="93"/>
-      <c r="O122" s="94"/>
-      <c r="P122" s="91"/>
+      <c r="C122" s="91"/>
+      <c r="D122" s="92"/>
+      <c r="E122" s="92"/>
+      <c r="F122" s="92"/>
+      <c r="G122" s="91"/>
+      <c r="H122" s="92"/>
+      <c r="I122" s="92"/>
+      <c r="J122" s="92"/>
+      <c r="K122" s="93"/>
+      <c r="L122" s="91"/>
+      <c r="M122" s="92"/>
+      <c r="N122" s="92"/>
+      <c r="O122" s="93"/>
+      <c r="P122" s="90"/>
     </row>
     <row r="124">
       <c r="B124" s="53" t="s">
         <v>77</v>
       </c>
-      <c r="C124" s="98" t="s">
+      <c r="C124" s="97" t="s">
         <v>70</v>
       </c>
-      <c r="D124" s="99"/>
-      <c r="E124" s="99"/>
-      <c r="F124" s="100"/>
-      <c r="G124" s="99" t="s">
+      <c r="D124" s="98"/>
+      <c r="E124" s="98"/>
+      <c r="F124" s="99"/>
+      <c r="G124" s="98" t="s">
         <v>71</v>
       </c>
-      <c r="H124" s="99"/>
-      <c r="I124" s="99"/>
-      <c r="J124" s="99"/>
-      <c r="K124" s="100"/>
-      <c r="L124" s="98" t="s">
+      <c r="H124" s="98"/>
+      <c r="I124" s="98"/>
+      <c r="J124" s="98"/>
+      <c r="K124" s="99"/>
+      <c r="L124" s="97" t="s">
         <v>72</v>
       </c>
-      <c r="M124" s="99"/>
-      <c r="N124" s="99"/>
-      <c r="O124" s="100"/>
+      <c r="M124" s="98"/>
+      <c r="N124" s="98"/>
+      <c r="O124" s="99"/>
       <c r="P124" s="30"/>
     </row>
     <row r="125" ht="24" customHeight="1">
@@ -6233,47 +6227,47 @@
       </c>
     </row>
     <row r="131" ht="30" customHeight="1">
-      <c r="B131" s="90" t="s">
+      <c r="B131" s="89" t="s">
         <v>61</v>
       </c>
-      <c r="C131" s="92"/>
-      <c r="D131" s="93"/>
-      <c r="E131" s="93"/>
-      <c r="F131" s="93"/>
-      <c r="G131" s="92"/>
-      <c r="H131" s="93"/>
-      <c r="I131" s="93"/>
-      <c r="J131" s="93"/>
-      <c r="K131" s="94"/>
-      <c r="L131" s="92"/>
-      <c r="M131" s="93"/>
-      <c r="N131" s="93"/>
-      <c r="O131" s="94"/>
-      <c r="P131" s="91"/>
+      <c r="C131" s="91"/>
+      <c r="D131" s="92"/>
+      <c r="E131" s="92"/>
+      <c r="F131" s="92"/>
+      <c r="G131" s="91"/>
+      <c r="H131" s="92"/>
+      <c r="I131" s="92"/>
+      <c r="J131" s="92"/>
+      <c r="K131" s="93"/>
+      <c r="L131" s="91"/>
+      <c r="M131" s="92"/>
+      <c r="N131" s="92"/>
+      <c r="O131" s="93"/>
+      <c r="P131" s="90"/>
     </row>
     <row r="133">
       <c r="B133" s="53" t="s">
         <v>78</v>
       </c>
-      <c r="C133" s="98" t="s">
+      <c r="C133" s="97" t="s">
         <v>70</v>
       </c>
-      <c r="D133" s="99"/>
-      <c r="E133" s="99"/>
-      <c r="F133" s="100"/>
-      <c r="G133" s="99" t="s">
+      <c r="D133" s="98"/>
+      <c r="E133" s="98"/>
+      <c r="F133" s="99"/>
+      <c r="G133" s="98" t="s">
         <v>71</v>
       </c>
-      <c r="H133" s="99"/>
-      <c r="I133" s="99"/>
-      <c r="J133" s="99"/>
-      <c r="K133" s="100"/>
-      <c r="L133" s="98" t="s">
+      <c r="H133" s="98"/>
+      <c r="I133" s="98"/>
+      <c r="J133" s="98"/>
+      <c r="K133" s="99"/>
+      <c r="L133" s="97" t="s">
         <v>72</v>
       </c>
-      <c r="M133" s="99"/>
-      <c r="N133" s="99"/>
-      <c r="O133" s="100"/>
+      <c r="M133" s="98"/>
+      <c r="N133" s="98"/>
+      <c r="O133" s="99"/>
       <c r="P133" s="30"/>
     </row>
     <row r="134" ht="24" customHeight="1">
@@ -6557,47 +6551,47 @@
       </c>
     </row>
     <row r="140" ht="30" customHeight="1">
-      <c r="B140" s="90" t="s">
+      <c r="B140" s="89" t="s">
         <v>61</v>
       </c>
-      <c r="C140" s="92"/>
-      <c r="D140" s="93"/>
-      <c r="E140" s="93"/>
-      <c r="F140" s="93"/>
-      <c r="G140" s="92"/>
-      <c r="H140" s="93"/>
-      <c r="I140" s="93"/>
-      <c r="J140" s="93"/>
-      <c r="K140" s="94"/>
-      <c r="L140" s="92"/>
-      <c r="M140" s="93"/>
-      <c r="N140" s="93"/>
-      <c r="O140" s="94"/>
-      <c r="P140" s="91"/>
+      <c r="C140" s="91"/>
+      <c r="D140" s="92"/>
+      <c r="E140" s="92"/>
+      <c r="F140" s="92"/>
+      <c r="G140" s="91"/>
+      <c r="H140" s="92"/>
+      <c r="I140" s="92"/>
+      <c r="J140" s="92"/>
+      <c r="K140" s="93"/>
+      <c r="L140" s="91"/>
+      <c r="M140" s="92"/>
+      <c r="N140" s="92"/>
+      <c r="O140" s="93"/>
+      <c r="P140" s="90"/>
     </row>
     <row r="142">
       <c r="B142" s="53" t="s">
         <v>79</v>
       </c>
-      <c r="C142" s="98" t="s">
+      <c r="C142" s="97" t="s">
         <v>70</v>
       </c>
-      <c r="D142" s="99"/>
-      <c r="E142" s="99"/>
-      <c r="F142" s="100"/>
-      <c r="G142" s="99" t="s">
+      <c r="D142" s="98"/>
+      <c r="E142" s="98"/>
+      <c r="F142" s="99"/>
+      <c r="G142" s="98" t="s">
         <v>71</v>
       </c>
-      <c r="H142" s="99"/>
-      <c r="I142" s="99"/>
-      <c r="J142" s="99"/>
-      <c r="K142" s="100"/>
-      <c r="L142" s="98" t="s">
+      <c r="H142" s="98"/>
+      <c r="I142" s="98"/>
+      <c r="J142" s="98"/>
+      <c r="K142" s="99"/>
+      <c r="L142" s="97" t="s">
         <v>72</v>
       </c>
-      <c r="M142" s="99"/>
-      <c r="N142" s="99"/>
-      <c r="O142" s="100"/>
+      <c r="M142" s="98"/>
+      <c r="N142" s="98"/>
+      <c r="O142" s="99"/>
       <c r="P142" s="30"/>
     </row>
     <row r="143" ht="24" customHeight="1">
@@ -6881,23 +6875,23 @@
       </c>
     </row>
     <row r="149" ht="30" customHeight="1">
-      <c r="B149" s="90" t="s">
+      <c r="B149" s="89" t="s">
         <v>61</v>
       </c>
-      <c r="C149" s="92"/>
-      <c r="D149" s="93"/>
-      <c r="E149" s="93"/>
-      <c r="F149" s="93"/>
-      <c r="G149" s="92"/>
-      <c r="H149" s="93"/>
-      <c r="I149" s="93"/>
-      <c r="J149" s="93"/>
-      <c r="K149" s="94"/>
-      <c r="L149" s="92"/>
-      <c r="M149" s="93"/>
-      <c r="N149" s="93"/>
-      <c r="O149" s="94"/>
-      <c r="P149" s="91"/>
+      <c r="C149" s="91"/>
+      <c r="D149" s="92"/>
+      <c r="E149" s="92"/>
+      <c r="F149" s="92"/>
+      <c r="G149" s="91"/>
+      <c r="H149" s="92"/>
+      <c r="I149" s="92"/>
+      <c r="J149" s="92"/>
+      <c r="K149" s="93"/>
+      <c r="L149" s="91"/>
+      <c r="M149" s="92"/>
+      <c r="N149" s="92"/>
+      <c r="O149" s="93"/>
+      <c r="P149" s="90"/>
     </row>
     <row r="152" ht="24" customHeight="1">
       <c r="P152" s="60"/>
@@ -7096,24 +7090,24 @@
       <c r="D7" s="7"/>
       <c r="E7" s="21"/>
       <c r="F7" s="26"/>
-      <c r="G7" s="101" t="s">
+      <c r="G7" s="100" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="101"/>
-      <c r="I7" s="101"/>
-      <c r="J7" s="101"/>
-      <c r="K7" s="101"/>
-      <c r="L7" s="102"/>
+      <c r="H7" s="100"/>
+      <c r="I7" s="100"/>
+      <c r="J7" s="100"/>
+      <c r="K7" s="100"/>
+      <c r="L7" s="101"/>
       <c r="M7" s="31"/>
-      <c r="N7" s="101" t="s">
+      <c r="N7" s="100" t="s">
         <v>14</v>
       </c>
-      <c r="O7" s="101"/>
-      <c r="P7" s="101"/>
-      <c r="Q7" s="101"/>
-      <c r="R7" s="101"/>
-      <c r="S7" s="101"/>
-      <c r="T7" s="102"/>
+      <c r="O7" s="100"/>
+      <c r="P7" s="100"/>
+      <c r="Q7" s="100"/>
+      <c r="R7" s="100"/>
+      <c r="S7" s="100"/>
+      <c r="T7" s="101"/>
     </row>
     <row r="8" ht="24" customHeight="1">
       <c r="A8" s="25"/>
@@ -7357,24 +7351,24 @@
       <c r="D13" s="7"/>
       <c r="E13" s="21"/>
       <c r="F13" s="26"/>
-      <c r="G13" s="98" t="s">
+      <c r="G13" s="97" t="s">
         <v>21</v>
       </c>
-      <c r="H13" s="99"/>
-      <c r="I13" s="99"/>
-      <c r="J13" s="99"/>
-      <c r="K13" s="99"/>
-      <c r="L13" s="100"/>
+      <c r="H13" s="98"/>
+      <c r="I13" s="98"/>
+      <c r="J13" s="98"/>
+      <c r="K13" s="98"/>
+      <c r="L13" s="99"/>
       <c r="M13" s="31"/>
-      <c r="N13" s="98" t="s">
+      <c r="N13" s="97" t="s">
         <v>14</v>
       </c>
-      <c r="O13" s="99"/>
-      <c r="P13" s="99"/>
-      <c r="Q13" s="99"/>
-      <c r="R13" s="99"/>
-      <c r="S13" s="99"/>
-      <c r="T13" s="100"/>
+      <c r="O13" s="98"/>
+      <c r="P13" s="98"/>
+      <c r="Q13" s="98"/>
+      <c r="R13" s="98"/>
+      <c r="S13" s="98"/>
+      <c r="T13" s="99"/>
     </row>
     <row r="14" ht="24" customHeight="1">
       <c r="B14" s="39" t="s">
@@ -7614,24 +7608,24 @@
       <c r="D19" s="7"/>
       <c r="E19" s="21"/>
       <c r="F19" s="26"/>
-      <c r="G19" s="98" t="s">
+      <c r="G19" s="97" t="s">
         <v>21</v>
       </c>
-      <c r="H19" s="99"/>
-      <c r="I19" s="99"/>
-      <c r="J19" s="99"/>
-      <c r="K19" s="99"/>
-      <c r="L19" s="100"/>
+      <c r="H19" s="98"/>
+      <c r="I19" s="98"/>
+      <c r="J19" s="98"/>
+      <c r="K19" s="98"/>
+      <c r="L19" s="99"/>
       <c r="M19" s="31"/>
-      <c r="N19" s="98" t="s">
+      <c r="N19" s="97" t="s">
         <v>14</v>
       </c>
-      <c r="O19" s="99"/>
-      <c r="P19" s="99"/>
-      <c r="Q19" s="99"/>
-      <c r="R19" s="99"/>
-      <c r="S19" s="99"/>
-      <c r="T19" s="100"/>
+      <c r="O19" s="98"/>
+      <c r="P19" s="98"/>
+      <c r="Q19" s="98"/>
+      <c r="R19" s="98"/>
+      <c r="S19" s="98"/>
+      <c r="T19" s="99"/>
     </row>
     <row r="20" ht="24" customHeight="1">
       <c r="B20" s="39" t="s">
@@ -7901,25 +7895,25 @@
       <c r="B25" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D25" s="103" t="s">
+      <c r="D25" s="102" t="s">
         <v>43</v>
       </c>
-      <c r="E25" s="103"/>
-      <c r="F25" s="103"/>
-      <c r="G25" s="103"/>
-      <c r="H25" s="103"/>
-      <c r="I25" s="103"/>
-      <c r="J25" s="103"/>
-      <c r="K25" s="103"/>
-      <c r="L25" s="103"/>
-      <c r="M25" s="103"/>
-      <c r="N25" s="103"/>
-      <c r="O25" s="103"/>
-      <c r="P25" s="103"/>
-      <c r="Q25" s="103"/>
-      <c r="R25" s="103"/>
-      <c r="S25" s="103"/>
-      <c r="T25" s="103"/>
+      <c r="E25" s="102"/>
+      <c r="F25" s="102"/>
+      <c r="G25" s="102"/>
+      <c r="H25" s="102"/>
+      <c r="I25" s="102"/>
+      <c r="J25" s="102"/>
+      <c r="K25" s="102"/>
+      <c r="L25" s="102"/>
+      <c r="M25" s="102"/>
+      <c r="N25" s="102"/>
+      <c r="O25" s="102"/>
+      <c r="P25" s="102"/>
+      <c r="Q25" s="102"/>
+      <c r="R25" s="102"/>
+      <c r="S25" s="102"/>
+      <c r="T25" s="102"/>
     </row>
     <row r="26" ht="8.1" customHeight="1">
       <c r="B26" s="2"/>
@@ -7945,25 +7939,25 @@
       <c r="B27" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D27" s="103" t="s">
+      <c r="D27" s="102" t="s">
         <v>45</v>
       </c>
-      <c r="E27" s="103"/>
-      <c r="F27" s="103"/>
-      <c r="G27" s="103"/>
-      <c r="H27" s="103"/>
-      <c r="I27" s="103"/>
-      <c r="J27" s="103"/>
-      <c r="K27" s="103"/>
-      <c r="L27" s="103"/>
-      <c r="M27" s="103"/>
-      <c r="N27" s="103"/>
-      <c r="O27" s="103"/>
-      <c r="P27" s="103"/>
-      <c r="Q27" s="103"/>
-      <c r="R27" s="103"/>
-      <c r="S27" s="103"/>
-      <c r="T27" s="103"/>
+      <c r="E27" s="102"/>
+      <c r="F27" s="102"/>
+      <c r="G27" s="102"/>
+      <c r="H27" s="102"/>
+      <c r="I27" s="102"/>
+      <c r="J27" s="102"/>
+      <c r="K27" s="102"/>
+      <c r="L27" s="102"/>
+      <c r="M27" s="102"/>
+      <c r="N27" s="102"/>
+      <c r="O27" s="102"/>
+      <c r="P27" s="102"/>
+      <c r="Q27" s="102"/>
+      <c r="R27" s="102"/>
+      <c r="S27" s="102"/>
+      <c r="T27" s="102"/>
     </row>
     <row r="28" ht="8.1" customHeight="1">
       <c r="B28" s="2"/>
@@ -7989,25 +7983,25 @@
       <c r="B29" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D29" s="103" t="s">
+      <c r="D29" s="102" t="s">
         <v>46</v>
       </c>
-      <c r="E29" s="103"/>
-      <c r="F29" s="103"/>
-      <c r="G29" s="103"/>
-      <c r="H29" s="103"/>
-      <c r="I29" s="103"/>
-      <c r="J29" s="103"/>
-      <c r="K29" s="103"/>
-      <c r="L29" s="103"/>
-      <c r="M29" s="103"/>
-      <c r="N29" s="103"/>
-      <c r="O29" s="103"/>
-      <c r="P29" s="103"/>
-      <c r="Q29" s="103"/>
-      <c r="R29" s="103"/>
-      <c r="S29" s="103"/>
-      <c r="T29" s="103"/>
+      <c r="E29" s="102"/>
+      <c r="F29" s="102"/>
+      <c r="G29" s="102"/>
+      <c r="H29" s="102"/>
+      <c r="I29" s="102"/>
+      <c r="J29" s="102"/>
+      <c r="K29" s="102"/>
+      <c r="L29" s="102"/>
+      <c r="M29" s="102"/>
+      <c r="N29" s="102"/>
+      <c r="O29" s="102"/>
+      <c r="P29" s="102"/>
+      <c r="Q29" s="102"/>
+      <c r="R29" s="102"/>
+      <c r="S29" s="102"/>
+      <c r="T29" s="102"/>
     </row>
     <row r="30" ht="8.1" customHeight="1">
       <c r="B30" s="2"/>
@@ -8033,25 +8027,25 @@
       <c r="B31" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D31" s="103" t="s">
+      <c r="D31" s="102" t="s">
         <v>48</v>
       </c>
-      <c r="E31" s="103"/>
-      <c r="F31" s="103"/>
-      <c r="G31" s="103"/>
-      <c r="H31" s="103"/>
-      <c r="I31" s="103"/>
-      <c r="J31" s="103"/>
-      <c r="K31" s="103"/>
-      <c r="L31" s="103"/>
-      <c r="M31" s="103"/>
-      <c r="N31" s="103"/>
-      <c r="O31" s="103"/>
-      <c r="P31" s="103"/>
-      <c r="Q31" s="103"/>
-      <c r="R31" s="103"/>
-      <c r="S31" s="103"/>
-      <c r="T31" s="103"/>
+      <c r="E31" s="102"/>
+      <c r="F31" s="102"/>
+      <c r="G31" s="102"/>
+      <c r="H31" s="102"/>
+      <c r="I31" s="102"/>
+      <c r="J31" s="102"/>
+      <c r="K31" s="102"/>
+      <c r="L31" s="102"/>
+      <c r="M31" s="102"/>
+      <c r="N31" s="102"/>
+      <c r="O31" s="102"/>
+      <c r="P31" s="102"/>
+      <c r="Q31" s="102"/>
+      <c r="R31" s="102"/>
+      <c r="S31" s="102"/>
+      <c r="T31" s="102"/>
     </row>
     <row r="32" ht="8.1" customHeight="1">
       <c r="B32" s="2"/>
@@ -8077,25 +8071,25 @@
       <c r="B33" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D33" s="103" t="s">
+      <c r="D33" s="102" t="s">
         <v>50</v>
       </c>
-      <c r="E33" s="103"/>
-      <c r="F33" s="103"/>
-      <c r="G33" s="103"/>
-      <c r="H33" s="103"/>
-      <c r="I33" s="103"/>
-      <c r="J33" s="103"/>
-      <c r="K33" s="103"/>
-      <c r="L33" s="103"/>
-      <c r="M33" s="103"/>
-      <c r="N33" s="103"/>
-      <c r="O33" s="103"/>
-      <c r="P33" s="103"/>
-      <c r="Q33" s="103"/>
-      <c r="R33" s="103"/>
-      <c r="S33" s="103"/>
-      <c r="T33" s="103"/>
+      <c r="E33" s="102"/>
+      <c r="F33" s="102"/>
+      <c r="G33" s="102"/>
+      <c r="H33" s="102"/>
+      <c r="I33" s="102"/>
+      <c r="J33" s="102"/>
+      <c r="K33" s="102"/>
+      <c r="L33" s="102"/>
+      <c r="M33" s="102"/>
+      <c r="N33" s="102"/>
+      <c r="O33" s="102"/>
+      <c r="P33" s="102"/>
+      <c r="Q33" s="102"/>
+      <c r="R33" s="102"/>
+      <c r="S33" s="102"/>
+      <c r="T33" s="102"/>
     </row>
     <row r="34" ht="8.1" customHeight="1">
       <c r="B34" s="2"/>
@@ -8121,25 +8115,25 @@
       <c r="B35" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="D35" s="97" t="s">
+      <c r="D35" s="96" t="s">
         <v>52</v>
       </c>
-      <c r="E35" s="97"/>
-      <c r="F35" s="97"/>
-      <c r="G35" s="97"/>
-      <c r="H35" s="97"/>
-      <c r="I35" s="97"/>
-      <c r="J35" s="97"/>
-      <c r="K35" s="97"/>
-      <c r="L35" s="97"/>
-      <c r="M35" s="97"/>
-      <c r="N35" s="97"/>
-      <c r="O35" s="97"/>
-      <c r="P35" s="97"/>
-      <c r="Q35" s="97"/>
-      <c r="R35" s="97"/>
-      <c r="S35" s="97"/>
-      <c r="T35" s="97"/>
+      <c r="E35" s="96"/>
+      <c r="F35" s="96"/>
+      <c r="G35" s="96"/>
+      <c r="H35" s="96"/>
+      <c r="I35" s="96"/>
+      <c r="J35" s="96"/>
+      <c r="K35" s="96"/>
+      <c r="L35" s="96"/>
+      <c r="M35" s="96"/>
+      <c r="N35" s="96"/>
+      <c r="O35" s="96"/>
+      <c r="P35" s="96"/>
+      <c r="Q35" s="96"/>
+      <c r="R35" s="96"/>
+      <c r="S35" s="96"/>
+      <c r="T35" s="96"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -8282,24 +8276,24 @@
       <c r="D7" s="7"/>
       <c r="E7" s="21"/>
       <c r="F7" s="26"/>
-      <c r="G7" s="101" t="s">
+      <c r="G7" s="100" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="101"/>
-      <c r="I7" s="101"/>
-      <c r="J7" s="101"/>
-      <c r="K7" s="101"/>
-      <c r="L7" s="102"/>
+      <c r="H7" s="100"/>
+      <c r="I7" s="100"/>
+      <c r="J7" s="100"/>
+      <c r="K7" s="100"/>
+      <c r="L7" s="101"/>
       <c r="M7" s="31"/>
-      <c r="N7" s="101" t="s">
+      <c r="N7" s="100" t="s">
         <v>14</v>
       </c>
-      <c r="O7" s="101"/>
-      <c r="P7" s="101"/>
-      <c r="Q7" s="101"/>
-      <c r="R7" s="101"/>
-      <c r="S7" s="101"/>
-      <c r="T7" s="102"/>
+      <c r="O7" s="100"/>
+      <c r="P7" s="100"/>
+      <c r="Q7" s="100"/>
+      <c r="R7" s="100"/>
+      <c r="S7" s="100"/>
+      <c r="T7" s="101"/>
     </row>
     <row r="8" ht="24" customHeight="1">
       <c r="A8" s="25"/>
@@ -8541,24 +8535,24 @@
       <c r="D13" s="7"/>
       <c r="E13" s="21"/>
       <c r="F13" s="26"/>
-      <c r="G13" s="98" t="s">
+      <c r="G13" s="97" t="s">
         <v>21</v>
       </c>
-      <c r="H13" s="99"/>
-      <c r="I13" s="99"/>
-      <c r="J13" s="99"/>
-      <c r="K13" s="99"/>
-      <c r="L13" s="100"/>
+      <c r="H13" s="98"/>
+      <c r="I13" s="98"/>
+      <c r="J13" s="98"/>
+      <c r="K13" s="98"/>
+      <c r="L13" s="99"/>
       <c r="M13" s="31"/>
-      <c r="N13" s="98" t="s">
+      <c r="N13" s="97" t="s">
         <v>14</v>
       </c>
-      <c r="O13" s="99"/>
-      <c r="P13" s="99"/>
-      <c r="Q13" s="99"/>
-      <c r="R13" s="99"/>
-      <c r="S13" s="99"/>
-      <c r="T13" s="100"/>
+      <c r="O13" s="98"/>
+      <c r="P13" s="98"/>
+      <c r="Q13" s="98"/>
+      <c r="R13" s="98"/>
+      <c r="S13" s="98"/>
+      <c r="T13" s="99"/>
     </row>
     <row r="14" ht="24" customHeight="1">
       <c r="B14" s="39" t="s">
@@ -8796,24 +8790,24 @@
       <c r="D19" s="7"/>
       <c r="E19" s="21"/>
       <c r="F19" s="26"/>
-      <c r="G19" s="98" t="s">
+      <c r="G19" s="97" t="s">
         <v>21</v>
       </c>
-      <c r="H19" s="99"/>
-      <c r="I19" s="99"/>
-      <c r="J19" s="99"/>
-      <c r="K19" s="99"/>
-      <c r="L19" s="100"/>
+      <c r="H19" s="98"/>
+      <c r="I19" s="98"/>
+      <c r="J19" s="98"/>
+      <c r="K19" s="98"/>
+      <c r="L19" s="99"/>
       <c r="M19" s="31"/>
-      <c r="N19" s="98" t="s">
+      <c r="N19" s="97" t="s">
         <v>14</v>
       </c>
-      <c r="O19" s="99"/>
-      <c r="P19" s="99"/>
-      <c r="Q19" s="99"/>
-      <c r="R19" s="99"/>
-      <c r="S19" s="99"/>
-      <c r="T19" s="100"/>
+      <c r="O19" s="98"/>
+      <c r="P19" s="98"/>
+      <c r="Q19" s="98"/>
+      <c r="R19" s="98"/>
+      <c r="S19" s="98"/>
+      <c r="T19" s="99"/>
     </row>
     <row r="20" ht="24" customHeight="1">
       <c r="B20" s="39" t="s">
@@ -9051,24 +9045,24 @@
       <c r="D25" s="7"/>
       <c r="E25" s="21"/>
       <c r="F25" s="26"/>
-      <c r="G25" s="98" t="s">
+      <c r="G25" s="97" t="s">
         <v>21</v>
       </c>
-      <c r="H25" s="99"/>
-      <c r="I25" s="99"/>
-      <c r="J25" s="99"/>
-      <c r="K25" s="99"/>
-      <c r="L25" s="100"/>
+      <c r="H25" s="98"/>
+      <c r="I25" s="98"/>
+      <c r="J25" s="98"/>
+      <c r="K25" s="98"/>
+      <c r="L25" s="99"/>
       <c r="M25" s="31"/>
-      <c r="N25" s="98" t="s">
+      <c r="N25" s="97" t="s">
         <v>14</v>
       </c>
-      <c r="O25" s="99"/>
-      <c r="P25" s="99"/>
-      <c r="Q25" s="99"/>
-      <c r="R25" s="99"/>
-      <c r="S25" s="99"/>
-      <c r="T25" s="100"/>
+      <c r="O25" s="98"/>
+      <c r="P25" s="98"/>
+      <c r="Q25" s="98"/>
+      <c r="R25" s="98"/>
+      <c r="S25" s="98"/>
+      <c r="T25" s="99"/>
     </row>
     <row r="26" ht="24" customHeight="1">
       <c r="B26" s="39" t="s">
@@ -9306,26 +9300,26 @@
       <c r="B31" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C31" s="95" t="s">
+      <c r="C31" s="94" t="s">
         <v>43</v>
       </c>
-      <c r="D31" s="95"/>
-      <c r="E31" s="95"/>
-      <c r="F31" s="95"/>
-      <c r="G31" s="95"/>
-      <c r="H31" s="95"/>
-      <c r="I31" s="95"/>
-      <c r="J31" s="95"/>
-      <c r="K31" s="95"/>
-      <c r="L31" s="95"/>
-      <c r="M31" s="95"/>
-      <c r="N31" s="95"/>
-      <c r="O31" s="95"/>
-      <c r="P31" s="95"/>
-      <c r="Q31" s="95"/>
-      <c r="R31" s="95"/>
-      <c r="S31" s="95"/>
-      <c r="T31" s="95"/>
+      <c r="D31" s="94"/>
+      <c r="E31" s="94"/>
+      <c r="F31" s="94"/>
+      <c r="G31" s="94"/>
+      <c r="H31" s="94"/>
+      <c r="I31" s="94"/>
+      <c r="J31" s="94"/>
+      <c r="K31" s="94"/>
+      <c r="L31" s="94"/>
+      <c r="M31" s="94"/>
+      <c r="N31" s="94"/>
+      <c r="O31" s="94"/>
+      <c r="P31" s="94"/>
+      <c r="Q31" s="94"/>
+      <c r="R31" s="94"/>
+      <c r="S31" s="94"/>
+      <c r="T31" s="94"/>
     </row>
     <row r="32" ht="8.1" customHeight="1">
       <c r="B32" s="2"/>
@@ -9352,26 +9346,26 @@
       <c r="B33" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C33" s="95" t="s">
+      <c r="C33" s="94" t="s">
         <v>45</v>
       </c>
-      <c r="D33" s="95"/>
-      <c r="E33" s="95"/>
-      <c r="F33" s="95"/>
-      <c r="G33" s="95"/>
-      <c r="H33" s="95"/>
-      <c r="I33" s="95"/>
-      <c r="J33" s="95"/>
-      <c r="K33" s="95"/>
-      <c r="L33" s="95"/>
-      <c r="M33" s="95"/>
-      <c r="N33" s="95"/>
-      <c r="O33" s="95"/>
-      <c r="P33" s="95"/>
-      <c r="Q33" s="95"/>
-      <c r="R33" s="95"/>
-      <c r="S33" s="95"/>
-      <c r="T33" s="95"/>
+      <c r="D33" s="94"/>
+      <c r="E33" s="94"/>
+      <c r="F33" s="94"/>
+      <c r="G33" s="94"/>
+      <c r="H33" s="94"/>
+      <c r="I33" s="94"/>
+      <c r="J33" s="94"/>
+      <c r="K33" s="94"/>
+      <c r="L33" s="94"/>
+      <c r="M33" s="94"/>
+      <c r="N33" s="94"/>
+      <c r="O33" s="94"/>
+      <c r="P33" s="94"/>
+      <c r="Q33" s="94"/>
+      <c r="R33" s="94"/>
+      <c r="S33" s="94"/>
+      <c r="T33" s="94"/>
     </row>
     <row r="34" ht="8.1" customHeight="1">
       <c r="B34" s="2"/>
@@ -9398,26 +9392,26 @@
       <c r="B35" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C35" s="95" t="s">
+      <c r="C35" s="94" t="s">
         <v>46</v>
       </c>
-      <c r="D35" s="95"/>
-      <c r="E35" s="95"/>
-      <c r="F35" s="95"/>
-      <c r="G35" s="95"/>
-      <c r="H35" s="95"/>
-      <c r="I35" s="95"/>
-      <c r="J35" s="95"/>
-      <c r="K35" s="95"/>
-      <c r="L35" s="95"/>
-      <c r="M35" s="95"/>
-      <c r="N35" s="95"/>
-      <c r="O35" s="95"/>
-      <c r="P35" s="95"/>
-      <c r="Q35" s="95"/>
-      <c r="R35" s="95"/>
-      <c r="S35" s="95"/>
-      <c r="T35" s="95"/>
+      <c r="D35" s="94"/>
+      <c r="E35" s="94"/>
+      <c r="F35" s="94"/>
+      <c r="G35" s="94"/>
+      <c r="H35" s="94"/>
+      <c r="I35" s="94"/>
+      <c r="J35" s="94"/>
+      <c r="K35" s="94"/>
+      <c r="L35" s="94"/>
+      <c r="M35" s="94"/>
+      <c r="N35" s="94"/>
+      <c r="O35" s="94"/>
+      <c r="P35" s="94"/>
+      <c r="Q35" s="94"/>
+      <c r="R35" s="94"/>
+      <c r="S35" s="94"/>
+      <c r="T35" s="94"/>
     </row>
     <row r="36" ht="8.1" customHeight="1">
       <c r="B36" s="2"/>
@@ -9444,26 +9438,26 @@
       <c r="B37" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C37" s="95" t="s">
+      <c r="C37" s="94" t="s">
         <v>48</v>
       </c>
-      <c r="D37" s="95"/>
-      <c r="E37" s="95"/>
-      <c r="F37" s="95"/>
-      <c r="G37" s="95"/>
-      <c r="H37" s="95"/>
-      <c r="I37" s="95"/>
-      <c r="J37" s="95"/>
-      <c r="K37" s="95"/>
-      <c r="L37" s="95"/>
-      <c r="M37" s="95"/>
-      <c r="N37" s="95"/>
-      <c r="O37" s="95"/>
-      <c r="P37" s="95"/>
-      <c r="Q37" s="95"/>
-      <c r="R37" s="95"/>
-      <c r="S37" s="95"/>
-      <c r="T37" s="95"/>
+      <c r="D37" s="94"/>
+      <c r="E37" s="94"/>
+      <c r="F37" s="94"/>
+      <c r="G37" s="94"/>
+      <c r="H37" s="94"/>
+      <c r="I37" s="94"/>
+      <c r="J37" s="94"/>
+      <c r="K37" s="94"/>
+      <c r="L37" s="94"/>
+      <c r="M37" s="94"/>
+      <c r="N37" s="94"/>
+      <c r="O37" s="94"/>
+      <c r="P37" s="94"/>
+      <c r="Q37" s="94"/>
+      <c r="R37" s="94"/>
+      <c r="S37" s="94"/>
+      <c r="T37" s="94"/>
     </row>
     <row r="38" ht="8.1" customHeight="1">
       <c r="B38" s="2"/>
@@ -9490,26 +9484,26 @@
       <c r="B39" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C39" s="95" t="s">
+      <c r="C39" s="94" t="s">
         <v>50</v>
       </c>
-      <c r="D39" s="95"/>
-      <c r="E39" s="95"/>
-      <c r="F39" s="95"/>
-      <c r="G39" s="95"/>
-      <c r="H39" s="95"/>
-      <c r="I39" s="95"/>
-      <c r="J39" s="95"/>
-      <c r="K39" s="95"/>
-      <c r="L39" s="95"/>
-      <c r="M39" s="95"/>
-      <c r="N39" s="95"/>
-      <c r="O39" s="95"/>
-      <c r="P39" s="95"/>
-      <c r="Q39" s="95"/>
-      <c r="R39" s="95"/>
-      <c r="S39" s="95"/>
-      <c r="T39" s="95"/>
+      <c r="D39" s="94"/>
+      <c r="E39" s="94"/>
+      <c r="F39" s="94"/>
+      <c r="G39" s="94"/>
+      <c r="H39" s="94"/>
+      <c r="I39" s="94"/>
+      <c r="J39" s="94"/>
+      <c r="K39" s="94"/>
+      <c r="L39" s="94"/>
+      <c r="M39" s="94"/>
+      <c r="N39" s="94"/>
+      <c r="O39" s="94"/>
+      <c r="P39" s="94"/>
+      <c r="Q39" s="94"/>
+      <c r="R39" s="94"/>
+      <c r="S39" s="94"/>
+      <c r="T39" s="94"/>
     </row>
     <row r="40" ht="8.1" customHeight="1">
       <c r="B40" s="2"/>
@@ -9536,26 +9530,26 @@
       <c r="B41" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="C41" s="96" t="s">
+      <c r="C41" s="95" t="s">
         <v>52</v>
       </c>
-      <c r="D41" s="96"/>
-      <c r="E41" s="96"/>
-      <c r="F41" s="96"/>
-      <c r="G41" s="96"/>
-      <c r="H41" s="96"/>
-      <c r="I41" s="96"/>
-      <c r="J41" s="96"/>
-      <c r="K41" s="96"/>
-      <c r="L41" s="96"/>
-      <c r="M41" s="96"/>
-      <c r="N41" s="96"/>
-      <c r="O41" s="96"/>
-      <c r="P41" s="96"/>
-      <c r="Q41" s="96"/>
-      <c r="R41" s="96"/>
-      <c r="S41" s="96"/>
-      <c r="T41" s="96"/>
+      <c r="D41" s="95"/>
+      <c r="E41" s="95"/>
+      <c r="F41" s="95"/>
+      <c r="G41" s="95"/>
+      <c r="H41" s="95"/>
+      <c r="I41" s="95"/>
+      <c r="J41" s="95"/>
+      <c r="K41" s="95"/>
+      <c r="L41" s="95"/>
+      <c r="M41" s="95"/>
+      <c r="N41" s="95"/>
+      <c r="O41" s="95"/>
+      <c r="P41" s="95"/>
+      <c r="Q41" s="95"/>
+      <c r="R41" s="95"/>
+      <c r="S41" s="95"/>
+      <c r="T41" s="95"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -9650,35 +9644,35 @@
       </c>
     </row>
     <row r="5" ht="18" customHeight="1" s="3" customFormat="1">
-      <c r="C5" s="95" t="s">
+      <c r="C5" s="94" t="s">
         <v>85</v>
       </c>
-      <c r="D5" s="95"/>
-      <c r="E5" s="95" t="s">
+      <c r="D5" s="94"/>
+      <c r="E5" s="94" t="s">
         <v>86</v>
       </c>
-      <c r="F5" s="95"/>
-      <c r="G5" s="95"/>
-      <c r="H5" s="95" t="s">
+      <c r="F5" s="94"/>
+      <c r="G5" s="94"/>
+      <c r="H5" s="94" t="s">
         <v>87</v>
       </c>
-      <c r="I5" s="95"/>
-      <c r="J5" s="95" t="s">
+      <c r="I5" s="94"/>
+      <c r="J5" s="94" t="s">
         <v>88</v>
       </c>
-      <c r="K5" s="95"/>
-      <c r="L5" s="95" t="s">
+      <c r="K5" s="94"/>
+      <c r="L5" s="94" t="s">
         <v>89</v>
       </c>
-      <c r="M5" s="95"/>
+      <c r="M5" s="94"/>
       <c r="N5" s="76" t="s">
         <v>16</v>
       </c>
-      <c r="O5" s="95"/>
-      <c r="P5" s="95"/>
-      <c r="Q5" s="95"/>
-      <c r="R5" s="95"/>
-      <c r="S5" s="95"/>
+      <c r="O5" s="94"/>
+      <c r="P5" s="94"/>
+      <c r="Q5" s="94"/>
+      <c r="R5" s="94"/>
+      <c r="S5" s="94"/>
       <c r="T5" s="3" t="s">
         <v>19</v>
       </c>
@@ -9706,23 +9700,23 @@
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
       <c r="G7" s="21"/>
-      <c r="H7" s="98" t="s">
+      <c r="H7" s="97" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="99"/>
-      <c r="J7" s="99"/>
-      <c r="K7" s="99"/>
-      <c r="L7" s="99"/>
-      <c r="M7" s="100"/>
-      <c r="N7" s="98" t="s">
+      <c r="I7" s="98"/>
+      <c r="J7" s="98"/>
+      <c r="K7" s="98"/>
+      <c r="L7" s="98"/>
+      <c r="M7" s="99"/>
+      <c r="N7" s="97" t="s">
         <v>88</v>
       </c>
-      <c r="O7" s="99"/>
-      <c r="P7" s="99"/>
-      <c r="Q7" s="99"/>
-      <c r="R7" s="99"/>
-      <c r="S7" s="99"/>
-      <c r="T7" s="100"/>
+      <c r="O7" s="98"/>
+      <c r="P7" s="98"/>
+      <c r="Q7" s="98"/>
+      <c r="R7" s="98"/>
+      <c r="S7" s="98"/>
+      <c r="T7" s="99"/>
     </row>
     <row r="8" ht="24" customHeight="1">
       <c r="A8" s="80" t="s">
@@ -9795,52 +9789,52 @@
       <c r="D9" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="E9" s="83">
-        <v>0</v>
-      </c>
-      <c r="F9" s="84">
-        <v>0</v>
-      </c>
-      <c r="G9" s="85">
+      <c r="E9" s="82">
+        <v>0</v>
+      </c>
+      <c r="F9" s="83">
+        <v>0</v>
+      </c>
+      <c r="G9" s="84">
         <v>127142.85714285715</v>
       </c>
-      <c r="H9" s="86">
-        <v>0</v>
-      </c>
-      <c r="I9" s="87">
+      <c r="H9" s="85">
+        <v>0</v>
+      </c>
+      <c r="I9" s="86">
         <v>9.22845406130006</v>
       </c>
-      <c r="J9" s="83">
-        <v>0</v>
-      </c>
-      <c r="K9" s="83">
+      <c r="J9" s="82">
+        <v>0</v>
+      </c>
+      <c r="K9" s="82">
         <v>10171.428571428571</v>
       </c>
-      <c r="L9" s="88">
+      <c r="L9" s="87">
         <v>12.499999999999966</v>
       </c>
-      <c r="M9" s="85">
+      <c r="M9" s="84">
         <v>13777.264999999998</v>
       </c>
-      <c r="N9" s="89">
+      <c r="N9" s="88">
         <v>0.5</v>
       </c>
-      <c r="O9" s="86">
-        <v>0</v>
-      </c>
-      <c r="P9" s="87">
+      <c r="O9" s="85">
+        <v>0</v>
+      </c>
+      <c r="P9" s="86">
         <v>38.0019837889515</v>
       </c>
-      <c r="Q9" s="83">
-        <v>0</v>
-      </c>
-      <c r="R9" s="83">
+      <c r="Q9" s="82">
+        <v>0</v>
+      </c>
+      <c r="R9" s="82">
         <v>5085.7142857142853</v>
       </c>
-      <c r="S9" s="88">
+      <c r="S9" s="87">
         <v>24.999999999999975</v>
       </c>
-      <c r="T9" s="85">
+      <c r="T9" s="84">
         <v>3345.69</v>
       </c>
     </row>
@@ -9855,52 +9849,52 @@
       <c r="D10" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="E10" s="83">
-        <v>0</v>
-      </c>
-      <c r="F10" s="84">
-        <v>0</v>
-      </c>
-      <c r="G10" s="85">
+      <c r="E10" s="82">
+        <v>0</v>
+      </c>
+      <c r="F10" s="83">
+        <v>0</v>
+      </c>
+      <c r="G10" s="84">
         <v>125000</v>
       </c>
-      <c r="H10" s="86">
-        <v>0</v>
-      </c>
-      <c r="I10" s="87">
+      <c r="H10" s="85">
+        <v>0</v>
+      </c>
+      <c r="I10" s="86">
         <v>9.072918318693878</v>
       </c>
-      <c r="J10" s="83">
-        <v>0</v>
-      </c>
-      <c r="K10" s="83">
+      <c r="J10" s="82">
+        <v>0</v>
+      </c>
+      <c r="K10" s="82">
         <v>10000</v>
       </c>
-      <c r="L10" s="88">
+      <c r="L10" s="87">
         <v>12.5</v>
       </c>
-      <c r="M10" s="85">
+      <c r="M10" s="84">
         <v>13777.264999999996</v>
       </c>
-      <c r="N10" s="89">
+      <c r="N10" s="88">
         <v>0.5</v>
       </c>
-      <c r="O10" s="86">
-        <v>0</v>
-      </c>
-      <c r="P10" s="87">
+      <c r="O10" s="85">
+        <v>0</v>
+      </c>
+      <c r="P10" s="86">
         <v>37.361500916104</v>
       </c>
-      <c r="Q10" s="83">
-        <v>0</v>
-      </c>
-      <c r="R10" s="83">
+      <c r="Q10" s="82">
+        <v>0</v>
+      </c>
+      <c r="R10" s="82">
         <v>5000</v>
       </c>
-      <c r="S10" s="88">
+      <c r="S10" s="87">
         <v>25</v>
       </c>
-      <c r="T10" s="85">
+      <c r="T10" s="84">
         <v>3345.69</v>
       </c>
     </row>
@@ -9915,52 +9909,52 @@
       <c r="D11" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="E11" s="83">
-        <v>0</v>
-      </c>
-      <c r="F11" s="84">
-        <v>0</v>
-      </c>
-      <c r="G11" s="85">
+      <c r="E11" s="82">
+        <v>0</v>
+      </c>
+      <c r="F11" s="83">
+        <v>0</v>
+      </c>
+      <c r="G11" s="84">
         <v>177500</v>
       </c>
-      <c r="H11" s="86">
-        <v>0</v>
-      </c>
-      <c r="I11" s="87">
+      <c r="H11" s="85">
+        <v>0</v>
+      </c>
+      <c r="I11" s="86">
         <v>12.883544012545308</v>
       </c>
-      <c r="J11" s="83">
-        <v>0</v>
-      </c>
-      <c r="K11" s="83">
+      <c r="J11" s="82">
+        <v>0</v>
+      </c>
+      <c r="K11" s="82">
         <v>14200.000000000002</v>
       </c>
-      <c r="L11" s="88">
+      <c r="L11" s="87">
         <v>12.5</v>
       </c>
-      <c r="M11" s="85">
+      <c r="M11" s="84">
         <v>13777.265000000007</v>
       </c>
-      <c r="N11" s="89">
+      <c r="N11" s="88">
         <v>0.5</v>
       </c>
-      <c r="O11" s="86">
-        <v>0</v>
-      </c>
-      <c r="P11" s="87">
+      <c r="O11" s="85">
+        <v>0</v>
+      </c>
+      <c r="P11" s="86">
         <v>53.053331300867683</v>
       </c>
-      <c r="Q11" s="83">
-        <v>0</v>
-      </c>
-      <c r="R11" s="83">
+      <c r="Q11" s="82">
+        <v>0</v>
+      </c>
+      <c r="R11" s="82">
         <v>7100.0000000000009</v>
       </c>
-      <c r="S11" s="88">
+      <c r="S11" s="87">
         <v>25</v>
       </c>
-      <c r="T11" s="85">
+      <c r="T11" s="84">
         <v>3345.6899999999987</v>
       </c>
     </row>
@@ -9975,52 +9969,52 @@
       <c r="D12" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="E12" s="83">
-        <v>0</v>
-      </c>
-      <c r="F12" s="84">
-        <v>0</v>
-      </c>
-      <c r="G12" s="85">
+      <c r="E12" s="82">
+        <v>0</v>
+      </c>
+      <c r="F12" s="83">
+        <v>0</v>
+      </c>
+      <c r="G12" s="84">
         <v>177500</v>
       </c>
-      <c r="H12" s="86">
-        <v>0</v>
-      </c>
-      <c r="I12" s="87">
+      <c r="H12" s="85">
+        <v>0</v>
+      </c>
+      <c r="I12" s="86">
         <v>12.883544012545308</v>
       </c>
-      <c r="J12" s="83">
-        <v>0</v>
-      </c>
-      <c r="K12" s="83">
+      <c r="J12" s="82">
+        <v>0</v>
+      </c>
+      <c r="K12" s="82">
         <v>14200.000000000002</v>
       </c>
-      <c r="L12" s="88">
+      <c r="L12" s="87">
         <v>12.5</v>
       </c>
-      <c r="M12" s="85">
+      <c r="M12" s="84">
         <v>13777.265000000007</v>
       </c>
-      <c r="N12" s="89">
+      <c r="N12" s="88">
         <v>0.5</v>
       </c>
-      <c r="O12" s="86">
-        <v>0</v>
-      </c>
-      <c r="P12" s="87">
+      <c r="O12" s="85">
+        <v>0</v>
+      </c>
+      <c r="P12" s="86">
         <v>53.053331300867683</v>
       </c>
-      <c r="Q12" s="83">
-        <v>0</v>
-      </c>
-      <c r="R12" s="83">
+      <c r="Q12" s="82">
+        <v>0</v>
+      </c>
+      <c r="R12" s="82">
         <v>7100.0000000000009</v>
       </c>
-      <c r="S12" s="88">
+      <c r="S12" s="87">
         <v>25</v>
       </c>
-      <c r="T12" s="85">
+      <c r="T12" s="84">
         <v>3345.6899999999987</v>
       </c>
     </row>
@@ -10087,23 +10081,23 @@
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
       <c r="G15" s="21"/>
-      <c r="H15" s="98" t="s">
+      <c r="H15" s="97" t="s">
         <v>21</v>
       </c>
-      <c r="I15" s="99"/>
-      <c r="J15" s="99"/>
-      <c r="K15" s="99"/>
-      <c r="L15" s="99"/>
-      <c r="M15" s="100"/>
-      <c r="N15" s="98" t="s">
+      <c r="I15" s="98"/>
+      <c r="J15" s="98"/>
+      <c r="K15" s="98"/>
+      <c r="L15" s="98"/>
+      <c r="M15" s="99"/>
+      <c r="N15" s="97" t="s">
         <v>88</v>
       </c>
-      <c r="O15" s="99"/>
-      <c r="P15" s="99"/>
-      <c r="Q15" s="99"/>
-      <c r="R15" s="99"/>
-      <c r="S15" s="99"/>
-      <c r="T15" s="100"/>
+      <c r="O15" s="98"/>
+      <c r="P15" s="98"/>
+      <c r="Q15" s="98"/>
+      <c r="R15" s="98"/>
+      <c r="S15" s="98"/>
+      <c r="T15" s="99"/>
     </row>
     <row r="16" ht="24" customHeight="1">
       <c r="A16" s="80" t="s">
@@ -10176,52 +10170,52 @@
       <c r="D17" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="E17" s="83">
-        <v>0</v>
-      </c>
-      <c r="F17" s="84">
-        <v>0</v>
-      </c>
-      <c r="G17" s="85">
+      <c r="E17" s="82">
+        <v>0</v>
+      </c>
+      <c r="F17" s="83">
+        <v>0</v>
+      </c>
+      <c r="G17" s="84">
         <v>125857.14285714286</v>
       </c>
-      <c r="H17" s="86">
-        <v>0</v>
-      </c>
-      <c r="I17" s="87">
+      <c r="H17" s="85">
+        <v>0</v>
+      </c>
+      <c r="I17" s="86">
         <v>9.13513261573635</v>
       </c>
-      <c r="J17" s="83">
-        <v>0</v>
-      </c>
-      <c r="K17" s="83">
+      <c r="J17" s="82">
+        <v>0</v>
+      </c>
+      <c r="K17" s="82">
         <v>10068.571428571429</v>
       </c>
-      <c r="L17" s="88">
+      <c r="L17" s="87">
         <v>12.500000000000036</v>
       </c>
-      <c r="M17" s="85">
+      <c r="M17" s="84">
         <v>13777.265</v>
       </c>
-      <c r="N17" s="89">
+      <c r="N17" s="88">
         <v>0.5</v>
       </c>
-      <c r="O17" s="86">
-        <v>0</v>
-      </c>
-      <c r="P17" s="87">
+      <c r="O17" s="85">
+        <v>0</v>
+      </c>
+      <c r="P17" s="86">
         <v>37.617694065243</v>
       </c>
-      <c r="Q17" s="83">
-        <v>0</v>
-      </c>
-      <c r="R17" s="83">
+      <c r="Q17" s="82">
+        <v>0</v>
+      </c>
+      <c r="R17" s="82">
         <v>5034.2857142857147</v>
       </c>
-      <c r="S17" s="88">
+      <c r="S17" s="87">
         <v>25.000000000000018</v>
       </c>
-      <c r="T17" s="85">
+      <c r="T17" s="84">
         <v>3345.69</v>
       </c>
     </row>
@@ -10236,52 +10230,52 @@
       <c r="D18" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="E18" s="83">
-        <v>0</v>
-      </c>
-      <c r="F18" s="84">
-        <v>0</v>
-      </c>
-      <c r="G18" s="85">
+      <c r="E18" s="82">
+        <v>0</v>
+      </c>
+      <c r="F18" s="83">
+        <v>0</v>
+      </c>
+      <c r="G18" s="84">
         <v>125000</v>
       </c>
-      <c r="H18" s="86">
-        <v>0</v>
-      </c>
-      <c r="I18" s="87">
+      <c r="H18" s="85">
+        <v>0</v>
+      </c>
+      <c r="I18" s="86">
         <v>9.072918318693878</v>
       </c>
-      <c r="J18" s="83">
-        <v>0</v>
-      </c>
-      <c r="K18" s="83">
+      <c r="J18" s="82">
+        <v>0</v>
+      </c>
+      <c r="K18" s="82">
         <v>10000</v>
       </c>
-      <c r="L18" s="88">
+      <c r="L18" s="87">
         <v>12.5</v>
       </c>
-      <c r="M18" s="85">
+      <c r="M18" s="84">
         <v>13777.264999999996</v>
       </c>
-      <c r="N18" s="89">
+      <c r="N18" s="88">
         <v>0.5</v>
       </c>
-      <c r="O18" s="86">
-        <v>0</v>
-      </c>
-      <c r="P18" s="87">
+      <c r="O18" s="85">
+        <v>0</v>
+      </c>
+      <c r="P18" s="86">
         <v>37.361500916104</v>
       </c>
-      <c r="Q18" s="83">
-        <v>0</v>
-      </c>
-      <c r="R18" s="83">
+      <c r="Q18" s="82">
+        <v>0</v>
+      </c>
+      <c r="R18" s="82">
         <v>5000</v>
       </c>
-      <c r="S18" s="88">
+      <c r="S18" s="87">
         <v>25</v>
       </c>
-      <c r="T18" s="85">
+      <c r="T18" s="84">
         <v>3345.69</v>
       </c>
     </row>
@@ -10296,52 +10290,52 @@
       <c r="D19" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="E19" s="83">
-        <v>0</v>
-      </c>
-      <c r="F19" s="84">
-        <v>0</v>
-      </c>
-      <c r="G19" s="85">
+      <c r="E19" s="82">
+        <v>0</v>
+      </c>
+      <c r="F19" s="83">
+        <v>0</v>
+      </c>
+      <c r="G19" s="84">
         <v>71000</v>
       </c>
-      <c r="H19" s="86">
-        <v>0</v>
-      </c>
-      <c r="I19" s="87">
+      <c r="H19" s="85">
+        <v>0</v>
+      </c>
+      <c r="I19" s="86">
         <v>5.1534176050181246</v>
       </c>
-      <c r="J19" s="83">
-        <v>0</v>
-      </c>
-      <c r="K19" s="83">
+      <c r="J19" s="82">
+        <v>0</v>
+      </c>
+      <c r="K19" s="82">
         <v>5680.0000000000018</v>
       </c>
-      <c r="L19" s="88">
+      <c r="L19" s="87">
         <v>12.5</v>
       </c>
-      <c r="M19" s="85">
+      <c r="M19" s="84">
         <v>13777.265000000007</v>
       </c>
-      <c r="N19" s="89">
+      <c r="N19" s="88">
         <v>0.5</v>
       </c>
-      <c r="O19" s="86">
-        <v>0</v>
-      </c>
-      <c r="P19" s="87">
+      <c r="O19" s="85">
+        <v>0</v>
+      </c>
+      <c r="P19" s="86">
         <v>21.22133252034708</v>
       </c>
-      <c r="Q19" s="83">
-        <v>0</v>
-      </c>
-      <c r="R19" s="83">
+      <c r="Q19" s="82">
+        <v>0</v>
+      </c>
+      <c r="R19" s="82">
         <v>2840.0000000000009</v>
       </c>
-      <c r="S19" s="88">
+      <c r="S19" s="87">
         <v>25</v>
       </c>
-      <c r="T19" s="85">
+      <c r="T19" s="84">
         <v>3345.6899999999955</v>
       </c>
     </row>
@@ -10356,52 +10350,52 @@
       <c r="D20" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="E20" s="83">
-        <v>0</v>
-      </c>
-      <c r="F20" s="84">
-        <v>0</v>
-      </c>
-      <c r="G20" s="85">
+      <c r="E20" s="82">
+        <v>0</v>
+      </c>
+      <c r="F20" s="83">
+        <v>0</v>
+      </c>
+      <c r="G20" s="84">
         <v>71000</v>
       </c>
-      <c r="H20" s="86">
-        <v>0</v>
-      </c>
-      <c r="I20" s="87">
+      <c r="H20" s="85">
+        <v>0</v>
+      </c>
+      <c r="I20" s="86">
         <v>5.1534176050181246</v>
       </c>
-      <c r="J20" s="83">
-        <v>0</v>
-      </c>
-      <c r="K20" s="83">
+      <c r="J20" s="82">
+        <v>0</v>
+      </c>
+      <c r="K20" s="82">
         <v>5680.0000000000018</v>
       </c>
-      <c r="L20" s="88">
+      <c r="L20" s="87">
         <v>12.5</v>
       </c>
-      <c r="M20" s="85">
+      <c r="M20" s="84">
         <v>13777.265000000007</v>
       </c>
-      <c r="N20" s="89">
+      <c r="N20" s="88">
         <v>0.5</v>
       </c>
-      <c r="O20" s="86">
-        <v>0</v>
-      </c>
-      <c r="P20" s="87">
+      <c r="O20" s="85">
+        <v>0</v>
+      </c>
+      <c r="P20" s="86">
         <v>21.22133252034708</v>
       </c>
-      <c r="Q20" s="83">
-        <v>0</v>
-      </c>
-      <c r="R20" s="83">
+      <c r="Q20" s="82">
+        <v>0</v>
+      </c>
+      <c r="R20" s="82">
         <v>2840.0000000000009</v>
       </c>
-      <c r="S20" s="88">
+      <c r="S20" s="87">
         <v>25</v>
       </c>
-      <c r="T20" s="85">
+      <c r="T20" s="84">
         <v>3345.6899999999955</v>
       </c>
     </row>
@@ -10468,23 +10462,23 @@
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
       <c r="G23" s="21"/>
-      <c r="H23" s="98" t="s">
+      <c r="H23" s="97" t="s">
         <v>21</v>
       </c>
-      <c r="I23" s="99"/>
-      <c r="J23" s="99"/>
-      <c r="K23" s="99"/>
-      <c r="L23" s="99"/>
-      <c r="M23" s="100"/>
-      <c r="N23" s="98" t="s">
+      <c r="I23" s="98"/>
+      <c r="J23" s="98"/>
+      <c r="K23" s="98"/>
+      <c r="L23" s="98"/>
+      <c r="M23" s="99"/>
+      <c r="N23" s="97" t="s">
         <v>88</v>
       </c>
-      <c r="O23" s="99"/>
-      <c r="P23" s="99"/>
-      <c r="Q23" s="99"/>
-      <c r="R23" s="99"/>
-      <c r="S23" s="99"/>
-      <c r="T23" s="100"/>
+      <c r="O23" s="98"/>
+      <c r="P23" s="98"/>
+      <c r="Q23" s="98"/>
+      <c r="R23" s="98"/>
+      <c r="S23" s="98"/>
+      <c r="T23" s="99"/>
     </row>
     <row r="24" ht="24" customHeight="1">
       <c r="A24" s="80" t="s">
@@ -10557,52 +10551,52 @@
       <c r="D25" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="E25" s="83">
-        <v>0</v>
-      </c>
-      <c r="F25" s="84" t="s">
-        <v>38</v>
-      </c>
-      <c r="G25" s="85">
+      <c r="E25" s="82">
+        <v>0</v>
+      </c>
+      <c r="F25" s="83">
+        <v>0</v>
+      </c>
+      <c r="G25" s="84">
         <v>253000</v>
       </c>
-      <c r="H25" s="86">
-        <v>0</v>
-      </c>
-      <c r="I25" s="87">
+      <c r="H25" s="85">
+        <v>0</v>
+      </c>
+      <c r="I25" s="86">
         <v>18.363586677036409</v>
       </c>
-      <c r="J25" s="83">
-        <v>0</v>
-      </c>
-      <c r="K25" s="83">
+      <c r="J25" s="82">
+        <v>0</v>
+      </c>
+      <c r="K25" s="82">
         <v>20240</v>
       </c>
-      <c r="L25" s="88">
+      <c r="L25" s="87">
         <v>12.499999999999998</v>
       </c>
-      <c r="M25" s="85">
+      <c r="M25" s="84">
         <v>13777.265000000007</v>
       </c>
-      <c r="N25" s="89">
+      <c r="N25" s="88">
         <v>0.5</v>
       </c>
-      <c r="O25" s="86">
-        <v>0</v>
-      </c>
-      <c r="P25" s="87">
+      <c r="O25" s="85">
+        <v>0</v>
+      </c>
+      <c r="P25" s="86">
         <v>75.619677854194492</v>
       </c>
-      <c r="Q25" s="83">
-        <v>0</v>
-      </c>
-      <c r="R25" s="83">
+      <c r="Q25" s="82">
+        <v>0</v>
+      </c>
+      <c r="R25" s="82">
         <v>10120</v>
       </c>
-      <c r="S25" s="88">
+      <c r="S25" s="87">
         <v>24.999999999999996</v>
       </c>
-      <c r="T25" s="85">
+      <c r="T25" s="84">
         <v>3345.69</v>
       </c>
     </row>
@@ -10617,52 +10611,52 @@
       <c r="D26" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="E26" s="83">
-        <v>0</v>
-      </c>
-      <c r="F26" s="84" t="s">
-        <v>38</v>
-      </c>
-      <c r="G26" s="85">
+      <c r="E26" s="82">
+        <v>0</v>
+      </c>
+      <c r="F26" s="83">
+        <v>0</v>
+      </c>
+      <c r="G26" s="84">
         <v>250000</v>
       </c>
-      <c r="H26" s="86">
-        <v>0</v>
-      </c>
-      <c r="I26" s="87">
+      <c r="H26" s="85">
+        <v>0</v>
+      </c>
+      <c r="I26" s="86">
         <v>18.145836637387756</v>
       </c>
-      <c r="J26" s="83">
-        <v>0</v>
-      </c>
-      <c r="K26" s="83">
+      <c r="J26" s="82">
+        <v>0</v>
+      </c>
+      <c r="K26" s="82">
         <v>20000</v>
       </c>
-      <c r="L26" s="88">
+      <c r="L26" s="87">
         <v>12.5</v>
       </c>
-      <c r="M26" s="85">
+      <c r="M26" s="84">
         <v>13777.264999999967</v>
       </c>
-      <c r="N26" s="89">
+      <c r="N26" s="88">
         <v>0.5</v>
       </c>
-      <c r="O26" s="86">
-        <v>0</v>
-      </c>
-      <c r="P26" s="87">
+      <c r="O26" s="85">
+        <v>0</v>
+      </c>
+      <c r="P26" s="86">
         <v>74.723001832208</v>
       </c>
-      <c r="Q26" s="83">
-        <v>0</v>
-      </c>
-      <c r="R26" s="83">
+      <c r="Q26" s="82">
+        <v>0</v>
+      </c>
+      <c r="R26" s="82">
         <v>10000</v>
       </c>
-      <c r="S26" s="88">
+      <c r="S26" s="87">
         <v>25</v>
       </c>
-      <c r="T26" s="85">
+      <c r="T26" s="84">
         <v>3345.69</v>
       </c>
     </row>
@@ -10677,52 +10671,52 @@
       <c r="D27" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="E27" s="83">
-        <v>0</v>
-      </c>
-      <c r="F27" s="84" t="s">
-        <v>38</v>
-      </c>
-      <c r="G27" s="85">
+      <c r="E27" s="82">
+        <v>0</v>
+      </c>
+      <c r="F27" s="83">
+        <v>0</v>
+      </c>
+      <c r="G27" s="84">
         <v>248500</v>
       </c>
-      <c r="H27" s="86">
-        <v>0</v>
-      </c>
-      <c r="I27" s="87">
+      <c r="H27" s="85">
+        <v>0</v>
+      </c>
+      <c r="I27" s="86">
         <v>18.036961617563431</v>
       </c>
-      <c r="J27" s="83">
-        <v>0</v>
-      </c>
-      <c r="K27" s="83">
+      <c r="J27" s="82">
+        <v>0</v>
+      </c>
+      <c r="K27" s="82">
         <v>19880.000000000004</v>
       </c>
-      <c r="L27" s="88">
+      <c r="L27" s="87">
         <v>12.5</v>
       </c>
-      <c r="M27" s="85">
+      <c r="M27" s="84">
         <v>13777.265000000021</v>
       </c>
-      <c r="N27" s="89">
+      <c r="N27" s="88">
         <v>0.5</v>
       </c>
-      <c r="O27" s="86">
-        <v>0</v>
-      </c>
-      <c r="P27" s="87">
+      <c r="O27" s="85">
+        <v>0</v>
+      </c>
+      <c r="P27" s="86">
         <v>74.274663821214759</v>
       </c>
-      <c r="Q27" s="83">
-        <v>0</v>
-      </c>
-      <c r="R27" s="83">
+      <c r="Q27" s="82">
+        <v>0</v>
+      </c>
+      <c r="R27" s="82">
         <v>9940.0000000000018</v>
       </c>
-      <c r="S27" s="88">
+      <c r="S27" s="87">
         <v>25</v>
       </c>
-      <c r="T27" s="85">
+      <c r="T27" s="84">
         <v>3345.6899999999978</v>
       </c>
     </row>
@@ -10737,52 +10731,52 @@
       <c r="D28" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="E28" s="83">
-        <v>0</v>
-      </c>
-      <c r="F28" s="84" t="s">
-        <v>38</v>
-      </c>
-      <c r="G28" s="85">
+      <c r="E28" s="82">
+        <v>0</v>
+      </c>
+      <c r="F28" s="83">
+        <v>0</v>
+      </c>
+      <c r="G28" s="84">
         <v>248500</v>
       </c>
-      <c r="H28" s="86">
-        <v>0</v>
-      </c>
-      <c r="I28" s="87">
+      <c r="H28" s="85">
+        <v>0</v>
+      </c>
+      <c r="I28" s="86">
         <v>18.036961617563431</v>
       </c>
-      <c r="J28" s="83">
-        <v>0</v>
-      </c>
-      <c r="K28" s="83">
+      <c r="J28" s="82">
+        <v>0</v>
+      </c>
+      <c r="K28" s="82">
         <v>19880.000000000004</v>
       </c>
-      <c r="L28" s="88">
+      <c r="L28" s="87">
         <v>12.5</v>
       </c>
-      <c r="M28" s="85">
+      <c r="M28" s="84">
         <v>13777.265000000021</v>
       </c>
-      <c r="N28" s="89">
+      <c r="N28" s="88">
         <v>0.5</v>
       </c>
-      <c r="O28" s="86">
-        <v>0</v>
-      </c>
-      <c r="P28" s="87">
+      <c r="O28" s="85">
+        <v>0</v>
+      </c>
+      <c r="P28" s="86">
         <v>74.274663821214759</v>
       </c>
-      <c r="Q28" s="83">
-        <v>0</v>
-      </c>
-      <c r="R28" s="83">
+      <c r="Q28" s="82">
+        <v>0</v>
+      </c>
+      <c r="R28" s="82">
         <v>9940.0000000000018</v>
       </c>
-      <c r="S28" s="88">
+      <c r="S28" s="87">
         <v>25</v>
       </c>
-      <c r="T28" s="85">
+      <c r="T28" s="84">
         <v>3345.6899999999978</v>
       </c>
     </row>
@@ -10841,196 +10835,62 @@
         <v>3345.69</v>
       </c>
     </row>
-    <row r="31" ht="48" customHeight="1">
+    <row r="30" ht="8.1" customHeight="1">
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="F30" s="81"/>
+      <c r="G30" s="81"/>
+      <c r="H30" s="81"/>
+      <c r="I30" s="81"/>
+      <c r="J30" s="81"/>
+      <c r="K30" s="81"/>
+      <c r="L30" s="81"/>
+      <c r="M30" s="81"/>
+      <c r="N30" s="81"/>
+      <c r="O30" s="81"/>
+      <c r="P30" s="81"/>
+      <c r="Q30" s="81"/>
+      <c r="R30" s="81"/>
+      <c r="S30" s="81"/>
+      <c r="T30" s="81"/>
+    </row>
+    <row r="31" ht="147" customHeight="1">
       <c r="C31" s="55" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="D31" s="55"/>
-      <c r="E31" s="81"/>
-      <c r="F31" s="104" t="s">
+      <c r="F31" s="95" t="s">
         <v>101</v>
       </c>
-      <c r="G31" s="104"/>
-      <c r="H31" s="104"/>
-      <c r="I31" s="104"/>
-      <c r="J31" s="104"/>
-      <c r="K31" s="104"/>
-      <c r="L31" s="104"/>
-      <c r="M31" s="104"/>
-      <c r="N31" s="104"/>
-      <c r="O31" s="104"/>
-      <c r="P31" s="104"/>
-      <c r="Q31" s="104"/>
-      <c r="R31" s="104"/>
-      <c r="S31" s="104"/>
-      <c r="T31" s="104"/>
-    </row>
-    <row r="32" ht="8.1" customHeight="1">
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="F32" s="76"/>
-      <c r="G32" s="76"/>
-      <c r="H32" s="76"/>
-      <c r="I32" s="76"/>
-      <c r="J32" s="76"/>
-      <c r="K32" s="76"/>
-      <c r="L32" s="76"/>
-      <c r="M32" s="76"/>
-      <c r="N32" s="76"/>
-      <c r="O32" s="76"/>
-      <c r="P32" s="76"/>
-      <c r="Q32" s="76"/>
-      <c r="R32" s="76"/>
-      <c r="S32" s="76"/>
-      <c r="T32" s="76"/>
-    </row>
-    <row r="33" ht="48" customHeight="1" s="81" customFormat="1">
-      <c r="C33" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="D33" s="55"/>
-      <c r="F33" s="104" t="s">
+      <c r="G31" s="95"/>
+      <c r="H31" s="95"/>
+      <c r="I31" s="95"/>
+      <c r="J31" s="95"/>
+      <c r="K31" s="95"/>
+      <c r="L31" s="95"/>
+      <c r="M31" s="95"/>
+      <c r="N31" s="95"/>
+      <c r="O31" s="95"/>
+      <c r="P31" s="95"/>
+      <c r="Q31" s="95"/>
+      <c r="R31" s="95"/>
+      <c r="S31" s="95"/>
+      <c r="T31" s="95"/>
+    </row>
+    <row r="33">
+      <c r="F33" s="80" t="s">
         <v>54</v>
       </c>
-      <c r="G33" s="104"/>
-      <c r="H33" s="104"/>
-      <c r="I33" s="104"/>
-      <c r="J33" s="104"/>
-      <c r="K33" s="104"/>
-      <c r="L33" s="104"/>
-      <c r="M33" s="104"/>
-      <c r="N33" s="104"/>
-      <c r="O33" s="104"/>
-      <c r="P33" s="104"/>
-      <c r="Q33" s="104"/>
-      <c r="R33" s="104"/>
-      <c r="S33" s="104"/>
-      <c r="T33" s="104"/>
-    </row>
-    <row r="34" ht="8.1" customHeight="1">
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="F34" s="82"/>
-      <c r="G34" s="82"/>
-      <c r="H34" s="82"/>
-      <c r="I34" s="82"/>
-      <c r="J34" s="82"/>
-      <c r="K34" s="82"/>
-      <c r="L34" s="82"/>
-      <c r="M34" s="82"/>
-      <c r="N34" s="82"/>
-      <c r="O34" s="82"/>
-      <c r="P34" s="82"/>
-      <c r="Q34" s="82"/>
-      <c r="R34" s="82"/>
-      <c r="S34" s="82"/>
-      <c r="T34" s="82"/>
-    </row>
-    <row r="35" ht="48" customHeight="1">
-      <c r="C35" s="55" t="s">
-        <v>47</v>
-      </c>
-      <c r="D35" s="55"/>
-      <c r="E35" s="81"/>
-      <c r="F35" s="104" t="s">
+    </row>
+    <row r="35">
+      <c r="F35" s="80" t="s">
         <v>102</v>
       </c>
-      <c r="G35" s="104"/>
-      <c r="H35" s="104"/>
-      <c r="I35" s="104"/>
-      <c r="J35" s="104"/>
-      <c r="K35" s="104"/>
-      <c r="L35" s="104"/>
-      <c r="M35" s="104"/>
-      <c r="N35" s="104"/>
-      <c r="O35" s="104"/>
-      <c r="P35" s="104"/>
-      <c r="Q35" s="104"/>
-      <c r="R35" s="104"/>
-      <c r="S35" s="104"/>
-      <c r="T35" s="104"/>
-    </row>
-    <row r="36" ht="8.1" customHeight="1">
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="F36" s="82"/>
-      <c r="G36" s="82"/>
-      <c r="H36" s="82"/>
-      <c r="I36" s="82"/>
-      <c r="J36" s="82"/>
-      <c r="K36" s="82"/>
-      <c r="L36" s="82"/>
-      <c r="M36" s="82"/>
-      <c r="N36" s="82"/>
-      <c r="O36" s="82"/>
-      <c r="P36" s="82"/>
-      <c r="Q36" s="82"/>
-      <c r="R36" s="82"/>
-      <c r="S36" s="82"/>
-      <c r="T36" s="82"/>
-    </row>
-    <row r="37" ht="48.95" customHeight="1" s="81" customFormat="1">
-      <c r="C37" s="55" t="s">
-        <v>49</v>
-      </c>
-      <c r="D37" s="55"/>
-      <c r="F37" s="104"/>
-      <c r="G37" s="104"/>
-      <c r="H37" s="104"/>
-      <c r="I37" s="104"/>
-      <c r="J37" s="104"/>
-      <c r="K37" s="104"/>
-      <c r="L37" s="104"/>
-      <c r="M37" s="104"/>
-      <c r="N37" s="104"/>
-      <c r="O37" s="104"/>
-      <c r="P37" s="104"/>
-      <c r="Q37" s="104"/>
-      <c r="R37" s="104"/>
-      <c r="S37" s="104"/>
-      <c r="T37" s="104"/>
-    </row>
-    <row r="38" ht="8.1" customHeight="1">
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="F38" s="82"/>
-      <c r="G38" s="82"/>
-      <c r="H38" s="82"/>
-      <c r="I38" s="82"/>
-      <c r="J38" s="82"/>
-      <c r="K38" s="82"/>
-      <c r="L38" s="82"/>
-      <c r="M38" s="82"/>
-      <c r="N38" s="82"/>
-      <c r="O38" s="82"/>
-      <c r="P38" s="82"/>
-      <c r="Q38" s="82"/>
-      <c r="R38" s="82"/>
-      <c r="S38" s="82"/>
-      <c r="T38" s="82"/>
-    </row>
-    <row r="39" ht="147" customHeight="1">
-      <c r="C39" s="55" t="s">
-        <v>51</v>
-      </c>
-      <c r="D39" s="55"/>
-      <c r="F39" s="96" t="s">
+    </row>
+    <row r="39">
+      <c r="F39" s="80" t="s">
         <v>103</v>
       </c>
-      <c r="G39" s="96"/>
-      <c r="H39" s="96"/>
-      <c r="I39" s="96"/>
-      <c r="J39" s="96"/>
-      <c r="K39" s="96"/>
-      <c r="L39" s="96"/>
-      <c r="M39" s="96"/>
-      <c r="N39" s="96"/>
-      <c r="O39" s="96"/>
-      <c r="P39" s="96"/>
-      <c r="Q39" s="96"/>
-      <c r="R39" s="96"/>
-      <c r="S39" s="96"/>
-      <c r="T39" s="96"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -11038,16 +10898,12 @@
     <mergeCell ref="H5:I5"/>
     <mergeCell ref="J5:K5"/>
     <mergeCell ref="L5:M5"/>
-    <mergeCell ref="F33:T33"/>
-    <mergeCell ref="F35:T35"/>
-    <mergeCell ref="F37:T37"/>
-    <mergeCell ref="F39:T39"/>
+    <mergeCell ref="F31:T31"/>
     <mergeCell ref="O5:P5"/>
     <mergeCell ref="Q5:S5"/>
     <mergeCell ref="E5:G5"/>
     <mergeCell ref="H7:M7"/>
     <mergeCell ref="N7:T7"/>
-    <mergeCell ref="F31:T31"/>
     <mergeCell ref="H15:M15"/>
     <mergeCell ref="N15:T15"/>
     <mergeCell ref="H23:M23"/>

--- a/Source/Tam/MaestroTests/SupportTests/Services.Broadcast.IntegrationTests/Files/Campaign export/CampaignExport_ReservedPlanWithConstraints.xlsx
+++ b/Source/Tam/MaestroTests/SupportTests/Services.Broadcast.IntegrationTests/Files/Campaign export/CampaignExport_ReservedPlanWithConstraints.xlsx
@@ -286,7 +286,7 @@
     <t>Broadcast Proposal Campaign with all types of plans</t>
   </si>
   <si>
-    <t>Created 02/27/20</t>
+    <t>Created 02/28/20</t>
   </si>
   <si>
     <t>Stub Agency</t>
@@ -1609,7 +1609,7 @@
       <c r="K2" s="5"/>
       <c r="P2" s="6" t="str">
         <f>'PROPOSAL'!T2</f>
-        <v>Created 02/27/20</v>
+        <v>Created 02/28/20</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1"/>

--- a/Source/Tam/MaestroTests/SupportTests/Services.Broadcast.IntegrationTests/Files/Campaign export/CampaignExport_ReservedPlanWithConstraints.xlsx
+++ b/Source/Tam/MaestroTests/SupportTests/Services.Broadcast.IntegrationTests/Files/Campaign export/CampaignExport_ReservedPlanWithConstraints.xlsx
@@ -286,7 +286,7 @@
     <t>Broadcast Proposal Campaign with all types of plans</t>
   </si>
   <si>
-    <t>Created 02/28/20</t>
+    <t>Created 02/29/20</t>
   </si>
   <si>
     <t>Stub Agency</t>
@@ -1609,7 +1609,7 @@
       <c r="K2" s="5"/>
       <c r="P2" s="6" t="str">
         <f>'PROPOSAL'!T2</f>
-        <v>Created 02/28/20</v>
+        <v>Created 02/29/20</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1"/>

--- a/Source/Tam/MaestroTests/SupportTests/Services.Broadcast.IntegrationTests/Files/Campaign export/CampaignExport_ReservedPlanWithConstraints.xlsx
+++ b/Source/Tam/MaestroTests/SupportTests/Services.Broadcast.IntegrationTests/Files/Campaign export/CampaignExport_ReservedPlanWithConstraints.xlsx
@@ -286,7 +286,7 @@
     <t>Broadcast Proposal Campaign with all types of plans</t>
   </si>
   <si>
-    <t>Created 02/29/20</t>
+    <t>Created 03/02/20</t>
   </si>
   <si>
     <t>Stub Agency</t>
@@ -1609,7 +1609,7 @@
       <c r="K2" s="5"/>
       <c r="P2" s="6" t="str">
         <f>'PROPOSAL'!T2</f>
-        <v>Created 02/29/20</v>
+        <v>Created 03/02/20</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1"/>

--- a/Source/Tam/MaestroTests/SupportTests/Services.Broadcast.IntegrationTests/Files/Campaign export/CampaignExport_ReservedPlanWithConstraints.xlsx
+++ b/Source/Tam/MaestroTests/SupportTests/Services.Broadcast.IntegrationTests/Files/Campaign export/CampaignExport_ReservedPlanWithConstraints.xlsx
@@ -286,7 +286,7 @@
     <t>Broadcast Proposal Campaign with all types of plans</t>
   </si>
   <si>
-    <t>Created 03/02/20</t>
+    <t>Created 03/03/20</t>
   </si>
   <si>
     <t>Stub Agency</t>
@@ -1609,7 +1609,7 @@
       <c r="K2" s="5"/>
       <c r="P2" s="6" t="str">
         <f>'PROPOSAL'!T2</f>
-        <v>Created 03/02/20</v>
+        <v>Created 03/03/20</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1"/>

--- a/Source/Tam/MaestroTests/SupportTests/Services.Broadcast.IntegrationTests/Files/Campaign export/CampaignExport_ReservedPlanWithConstraints.xlsx
+++ b/Source/Tam/MaestroTests/SupportTests/Services.Broadcast.IntegrationTests/Files/Campaign export/CampaignExport_ReservedPlanWithConstraints.xlsx
@@ -286,7 +286,7 @@
     <t>Broadcast Proposal Campaign with all types of plans</t>
   </si>
   <si>
-    <t>Created 03/03/20</t>
+    <t>Created 03/05/20</t>
   </si>
   <si>
     <t>Stub Agency</t>
@@ -1609,7 +1609,7 @@
       <c r="K2" s="5"/>
       <c r="P2" s="6" t="str">
         <f>'PROPOSAL'!T2</f>
-        <v>Created 03/03/20</v>
+        <v>Created 03/05/20</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1"/>

--- a/Source/Tam/MaestroTests/SupportTests/Services.Broadcast.IntegrationTests/Files/Campaign export/CampaignExport_ReservedPlanWithConstraints.xlsx
+++ b/Source/Tam/MaestroTests/SupportTests/Services.Broadcast.IntegrationTests/Files/Campaign export/CampaignExport_ReservedPlanWithConstraints.xlsx
@@ -286,7 +286,7 @@
     <t>Broadcast Proposal Campaign with all types of plans</t>
   </si>
   <si>
-    <t>Created 03/05/20</t>
+    <t>Created 03/10/20</t>
   </si>
   <si>
     <t>Stub Agency</t>
@@ -1609,7 +1609,7 @@
       <c r="K2" s="5"/>
       <c r="P2" s="6" t="str">
         <f>'PROPOSAL'!T2</f>
-        <v>Created 03/05/20</v>
+        <v>Created 03/10/20</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1"/>

--- a/Source/Tam/MaestroTests/SupportTests/Services.Broadcast.IntegrationTests/Files/Campaign export/CampaignExport_ReservedPlanWithConstraints.xlsx
+++ b/Source/Tam/MaestroTests/SupportTests/Services.Broadcast.IntegrationTests/Files/Campaign export/CampaignExport_ReservedPlanWithConstraints.xlsx
@@ -286,7 +286,7 @@
     <t>Broadcast Proposal Campaign with all types of plans</t>
   </si>
   <si>
-    <t>Created 03/10/20</t>
+    <t>Created 03/12/20</t>
   </si>
   <si>
     <t>Stub Agency</t>
@@ -1609,7 +1609,7 @@
       <c r="K2" s="5"/>
       <c r="P2" s="6" t="str">
         <f>'PROPOSAL'!T2</f>
-        <v>Created 03/10/20</v>
+        <v>Created 03/12/20</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1"/>
@@ -9865,13 +9865,13 @@
         <v>0</v>
       </c>
       <c r="I11" s="87">
-        <v>12.883544012545308</v>
+        <v>12.883544012545309</v>
       </c>
       <c r="J11" s="83">
         <v>0</v>
       </c>
       <c r="K11" s="83">
-        <v>14200.000000000002</v>
+        <v>14200.000000000004</v>
       </c>
       <c r="L11" s="88">
         <v>12.5</v>
@@ -9886,13 +9886,13 @@
         <v>0</v>
       </c>
       <c r="P11" s="87">
-        <v>53.053331300867683</v>
+        <v>53.05333130086769</v>
       </c>
       <c r="Q11" s="83">
         <v>0</v>
       </c>
       <c r="R11" s="83">
-        <v>7100.0000000000009</v>
+        <v>7100.0000000000018</v>
       </c>
       <c r="S11" s="88">
         <v>25</v>
@@ -9925,13 +9925,13 @@
         <v>0</v>
       </c>
       <c r="I12" s="87">
-        <v>12.883544012545308</v>
+        <v>12.883544012545309</v>
       </c>
       <c r="J12" s="83">
         <v>0</v>
       </c>
       <c r="K12" s="83">
-        <v>14200.000000000002</v>
+        <v>14200.000000000004</v>
       </c>
       <c r="L12" s="88">
         <v>12.5</v>
@@ -9946,13 +9946,13 @@
         <v>0</v>
       </c>
       <c r="P12" s="87">
-        <v>53.053331300867683</v>
+        <v>53.05333130086769</v>
       </c>
       <c r="Q12" s="83">
         <v>0</v>
       </c>
       <c r="R12" s="83">
-        <v>7100.0000000000009</v>
+        <v>7100.0000000000018</v>
       </c>
       <c r="S12" s="88">
         <v>25</v>
@@ -9986,7 +9986,7 @@
         <v>38</v>
       </c>
       <c r="K13" s="51">
-        <v>48571.428571428572</v>
+        <v>48571.42857142858</v>
       </c>
       <c r="L13" s="47">
         <v>12.499999999999993</v>
@@ -10007,7 +10007,7 @@
         <v>38</v>
       </c>
       <c r="R13" s="51">
-        <v>24285.714285714286</v>
+        <v>24285.71428571429</v>
       </c>
       <c r="S13" s="47">
         <v>24.999999999999986</v>
@@ -10627,13 +10627,13 @@
         <v>0</v>
       </c>
       <c r="I27" s="87">
-        <v>18.036961617563431</v>
+        <v>18.036961617563435</v>
       </c>
       <c r="J27" s="83">
         <v>0</v>
       </c>
       <c r="K27" s="83">
-        <v>19880.000000000004</v>
+        <v>19880.000000000007</v>
       </c>
       <c r="L27" s="88">
         <v>12.5</v>
@@ -10648,13 +10648,13 @@
         <v>0</v>
       </c>
       <c r="P27" s="87">
-        <v>74.274663821214759</v>
+        <v>74.274663821214773</v>
       </c>
       <c r="Q27" s="83">
         <v>0</v>
       </c>
       <c r="R27" s="83">
-        <v>9940.0000000000018</v>
+        <v>9940.0000000000036</v>
       </c>
       <c r="S27" s="88">
         <v>25</v>
@@ -10687,13 +10687,13 @@
         <v>0</v>
       </c>
       <c r="I28" s="87">
-        <v>18.036961617563431</v>
+        <v>18.036961617563435</v>
       </c>
       <c r="J28" s="83">
         <v>0</v>
       </c>
       <c r="K28" s="83">
-        <v>19880.000000000004</v>
+        <v>19880.000000000007</v>
       </c>
       <c r="L28" s="88">
         <v>12.5</v>
@@ -10708,13 +10708,13 @@
         <v>0</v>
       </c>
       <c r="P28" s="87">
-        <v>74.274663821214759</v>
+        <v>74.274663821214773</v>
       </c>
       <c r="Q28" s="83">
         <v>0</v>
       </c>
       <c r="R28" s="83">
-        <v>9940.0000000000018</v>
+        <v>9940.0000000000036</v>
       </c>
       <c r="S28" s="88">
         <v>25</v>
@@ -10748,7 +10748,7 @@
         <v>38</v>
       </c>
       <c r="K29" s="51">
-        <v>80000</v>
+        <v>80000.000000000015</v>
       </c>
       <c r="L29" s="47">
         <v>12.499999999999998</v>
@@ -10763,13 +10763,13 @@
         <v>38</v>
       </c>
       <c r="P29" s="79">
-        <v>298.892007328832</v>
+        <v>298.89200732883205</v>
       </c>
       <c r="Q29" s="51" t="s">
         <v>38</v>
       </c>
       <c r="R29" s="51">
-        <v>40000</v>
+        <v>40000.000000000007</v>
       </c>
       <c r="S29" s="47">
         <v>24.999999999999996</v>

--- a/Source/Tam/MaestroTests/SupportTests/Services.Broadcast.IntegrationTests/Files/Campaign export/CampaignExport_ReservedPlanWithConstraints.xlsx
+++ b/Source/Tam/MaestroTests/SupportTests/Services.Broadcast.IntegrationTests/Files/Campaign export/CampaignExport_ReservedPlanWithConstraints.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\sroibu\Source\Repos\Broadcast\Source\Tam\Maestro\UI\BroadcastComposerWeb\App_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{C4E787E8-1200-41A4-A260-D43CD30914D5}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{6E91EEE2-103A-4DE2-B420-4E5455B83C81}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="33600" yWindow="465" windowWidth="23250" windowHeight="13170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" activeTab="0"/>
   </bookViews>
@@ -199,7 +199,7 @@
     <t>EF - M-SU 03:00pm - 06:00pm, EM - M-SU 06:00am - 09:00am, MDN - M-F,SU 11:00am - 01:00pm, MDN - M-SU 11:00am - 01:00pm, PA - M-F,SU 06:00pm - 08:00pm</t>
   </si>
   <si>
-    <t>1Q '20 MDN :90s</t>
+    <t>1Q '20 EF :90s</t>
   </si>
   <si>
     <t>January</t>
@@ -220,6 +220,18 @@
     <t>Hiatus Days</t>
   </si>
   <si>
+    <t>1Q '20 EF Total</t>
+  </si>
+  <si>
+    <t>1Q '20 EM :90s</t>
+  </si>
+  <si>
+    <t>1Q '20 EM Total</t>
+  </si>
+  <si>
+    <t>1Q '20 MDN :90s</t>
+  </si>
+  <si>
     <t>1Q '20 MDN Total</t>
   </si>
   <si>
@@ -229,19 +241,7 @@
     <t>1Q '20 PA Total</t>
   </si>
   <si>
-    <t>1Q '20 EF :90s</t>
-  </si>
-  <si>
-    <t>1Q '20 EF Total</t>
-  </si>
-  <si>
-    <t>1Q '20 EM :90s</t>
-  </si>
-  <si>
-    <t>1Q '20 EM Total</t>
-  </si>
-  <si>
-    <t>2Q '20 MDN :90s</t>
+    <t>2Q '20 EF :90s</t>
   </si>
   <si>
     <t>April</t>
@@ -253,6 +253,18 @@
     <t>June</t>
   </si>
   <si>
+    <t>2Q '20 EF Total</t>
+  </si>
+  <si>
+    <t>2Q '20 EM :90s</t>
+  </si>
+  <si>
+    <t>2Q '20 EM Total</t>
+  </si>
+  <si>
+    <t>2Q '20 MDN :90s</t>
+  </si>
+  <si>
     <t>2Q '20 MDN Total</t>
   </si>
   <si>
@@ -260,18 +272,6 @@
   </si>
   <si>
     <t>2Q '20 PA Total</t>
-  </si>
-  <si>
-    <t>2Q '20 EF :90s</t>
-  </si>
-  <si>
-    <t>2Q '20 EF Total</t>
-  </si>
-  <si>
-    <t>2Q '20 EM :90s</t>
-  </si>
-  <si>
-    <t>2Q '20 EM Total</t>
   </si>
   <si>
     <t>:15 equiv., :30</t>
@@ -286,7 +286,7 @@
     <t>Broadcast Proposal Campaign with all types of plans</t>
   </si>
   <si>
-    <t>Created 03/12/20</t>
+    <t>Created 06/17/20</t>
   </si>
   <si>
     <t>Stub Agency</t>
@@ -313,7 +313,7 @@
     <t>Odd</t>
   </si>
   <si>
-    <t>MDN</t>
+    <t>EF</t>
   </si>
   <si>
     <t>90</t>
@@ -322,13 +322,13 @@
     <t>Even</t>
   </si>
   <si>
-    <t>PA</t>
+    <t>EM</t>
   </si>
   <si>
-    <t>EF</t>
+    <t>MDN</t>
   </si>
   <si>
-    <t>EM</t>
+    <t>PA</t>
   </si>
   <si>
     <t>Totals</t>
@@ -702,7 +702,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="106">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
@@ -1013,6 +1013,9 @@
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1609,7 +1612,7 @@
       <c r="K2" s="5"/>
       <c r="P2" s="6" t="str">
         <f>'PROPOSAL'!T2</f>
-        <v>Created 03/12/20</v>
+        <v>Created 06/17/20</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1"/>
@@ -1653,7 +1656,7 @@
       <c r="P6" s="60"/>
     </row>
     <row r="7">
-      <c r="B7" s="53" t="s">
+      <c r="B7" s="105" t="s">
         <v>55</v>
       </c>
       <c r="C7" s="98" t="s">
@@ -1727,46 +1730,46 @@
         <v>59</v>
       </c>
       <c r="C9" s="63">
-        <v>0.0096153846153846177</v>
+        <v>0</v>
       </c>
       <c r="D9" s="64">
-        <v>0.0096153846153846177</v>
+        <v>0</v>
       </c>
       <c r="E9" s="64">
-        <v>0.0096153846153846177</v>
+        <v>0</v>
       </c>
       <c r="F9" s="65">
-        <v>0.0096153846153846177</v>
+        <v>0</v>
       </c>
       <c r="G9" s="63">
-        <v>0.0096153846153846177</v>
+        <v>0</v>
       </c>
       <c r="H9" s="64">
-        <v>0.0096153846153846177</v>
+        <v>0</v>
       </c>
       <c r="I9" s="64">
-        <v>0.0096153846153846177</v>
+        <v>0</v>
       </c>
       <c r="J9" s="65">
-        <v>0.0096153846153846177</v>
+        <v>0</v>
       </c>
       <c r="K9" s="63">
-        <v>0.010043956043956047</v>
+        <v>0.01429</v>
       </c>
       <c r="L9" s="64">
-        <v>0.010043956043956047</v>
+        <v>0.014285</v>
       </c>
       <c r="M9" s="64">
-        <v>0.010043956043956047</v>
+        <v>0.014285</v>
       </c>
       <c r="N9" s="64">
-        <v>0.010043956043956047</v>
+        <v>0.014285</v>
       </c>
       <c r="O9" s="65">
-        <v>0.010043956043956047</v>
+        <v>0.014285</v>
       </c>
       <c r="P9" s="69">
-        <v>0.1271428571428572</v>
+        <v>0.071430000000000007</v>
       </c>
     </row>
     <row r="10" ht="24" customHeight="1">
@@ -1821,46 +1824,46 @@
         <v>28</v>
       </c>
       <c r="C11" s="66">
-        <v>384.61538461538464</v>
+        <v>0</v>
       </c>
       <c r="D11" s="36">
-        <v>384.61538461538464</v>
+        <v>0</v>
       </c>
       <c r="E11" s="36">
-        <v>384.61538461538464</v>
+        <v>0</v>
       </c>
       <c r="F11" s="58">
-        <v>384.61538461538464</v>
+        <v>0</v>
       </c>
       <c r="G11" s="66">
-        <v>384.61538461538464</v>
+        <v>0</v>
       </c>
       <c r="H11" s="36">
-        <v>384.61538461538464</v>
+        <v>0</v>
       </c>
       <c r="I11" s="36">
-        <v>384.61538461538464</v>
+        <v>0</v>
       </c>
       <c r="J11" s="58">
-        <v>384.61538461538464</v>
+        <v>0</v>
       </c>
       <c r="K11" s="66">
-        <v>401.75824175824181</v>
+        <v>571.6</v>
       </c>
       <c r="L11" s="36">
-        <v>401.75824175824181</v>
+        <v>571.4</v>
       </c>
       <c r="M11" s="36">
-        <v>401.75824175824181</v>
+        <v>571.4</v>
       </c>
       <c r="N11" s="36">
-        <v>401.75824175824181</v>
+        <v>571.4</v>
       </c>
       <c r="O11" s="58">
-        <v>401.75824175824181</v>
+        <v>571.4</v>
       </c>
       <c r="P11" s="58">
-        <v>5085.7142857142862</v>
+        <v>2857.2000000000003</v>
       </c>
     </row>
     <row r="12" ht="24" customHeight="1">
@@ -1868,46 +1871,46 @@
         <v>30</v>
       </c>
       <c r="C12" s="73">
-        <v>24.999999999999936</v>
+        <v>0</v>
       </c>
       <c r="D12" s="38">
-        <v>24.999999999999936</v>
+        <v>0</v>
       </c>
       <c r="E12" s="38">
-        <v>24.999999999999936</v>
+        <v>0</v>
       </c>
       <c r="F12" s="74">
-        <v>24.999999999999936</v>
+        <v>0</v>
       </c>
       <c r="G12" s="73">
-        <v>24.999999999999936</v>
+        <v>0</v>
       </c>
       <c r="H12" s="38">
-        <v>24.999999999999936</v>
+        <v>0</v>
       </c>
       <c r="I12" s="38">
-        <v>24.999999999999936</v>
+        <v>0</v>
       </c>
       <c r="J12" s="74">
-        <v>24.999999999999936</v>
+        <v>0</v>
       </c>
       <c r="K12" s="73">
-        <v>24.999999999999943</v>
+        <v>25</v>
       </c>
       <c r="L12" s="38">
-        <v>24.999999999999943</v>
+        <v>25</v>
       </c>
       <c r="M12" s="38">
-        <v>24.999999999999943</v>
+        <v>25</v>
       </c>
       <c r="N12" s="38">
-        <v>24.999999999999943</v>
+        <v>25</v>
       </c>
       <c r="O12" s="74">
-        <v>24.999999999999943</v>
+        <v>25</v>
       </c>
       <c r="P12" s="74">
-        <v>24.99999999999994</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" ht="24" customHeight="1">
@@ -1915,46 +1918,46 @@
         <v>60</v>
       </c>
       <c r="C13" s="70">
-        <v>9615.3846153846</v>
+        <v>0</v>
       </c>
       <c r="D13" s="71">
-        <v>9615.3846153846</v>
+        <v>0</v>
       </c>
       <c r="E13" s="71">
-        <v>9615.3846153846</v>
+        <v>0</v>
       </c>
       <c r="F13" s="72">
-        <v>9615.3846153846</v>
+        <v>0</v>
       </c>
       <c r="G13" s="70">
-        <v>9615.3846153846</v>
+        <v>0</v>
       </c>
       <c r="H13" s="71">
-        <v>9615.3846153846</v>
+        <v>0</v>
       </c>
       <c r="I13" s="71">
-        <v>9615.3846153846</v>
+        <v>0</v>
       </c>
       <c r="J13" s="72">
-        <v>9615.3846153846</v>
+        <v>0</v>
       </c>
       <c r="K13" s="70">
-        <v>10043.956043956028</v>
+        <v>14290</v>
       </c>
       <c r="L13" s="71">
-        <v>10043.956043956028</v>
+        <v>14285</v>
       </c>
       <c r="M13" s="71">
-        <v>10043.956043956028</v>
+        <v>14285</v>
       </c>
       <c r="N13" s="71">
-        <v>10043.956043956028</v>
+        <v>14285</v>
       </c>
       <c r="O13" s="72">
-        <v>10043.956043956028</v>
+        <v>14285</v>
       </c>
       <c r="P13" s="72">
-        <v>127142.85714285696</v>
+        <v>71430</v>
       </c>
     </row>
     <row r="14" ht="30" customHeight="1">
@@ -1977,7 +1980,7 @@
       <c r="P14" s="91"/>
     </row>
     <row r="16">
-      <c r="B16" s="53" t="s">
+      <c r="B16" s="105" t="s">
         <v>62</v>
       </c>
       <c r="C16" s="98" t="s">
@@ -2051,46 +2054,46 @@
         <v>59</v>
       </c>
       <c r="C18" s="63">
-        <v>0.0096153846153846177</v>
+        <v>0</v>
       </c>
       <c r="D18" s="64">
-        <v>0.0096153846153846177</v>
+        <v>0</v>
       </c>
       <c r="E18" s="64">
-        <v>0.0096153846153846177</v>
+        <v>0</v>
       </c>
       <c r="F18" s="65">
-        <v>0.0096153846153846177</v>
+        <v>0</v>
       </c>
       <c r="G18" s="63">
-        <v>0.0096153846153846177</v>
+        <v>0</v>
       </c>
       <c r="H18" s="64">
-        <v>0.0096153846153846177</v>
+        <v>0</v>
       </c>
       <c r="I18" s="64">
-        <v>0.0096153846153846177</v>
+        <v>0</v>
       </c>
       <c r="J18" s="65">
-        <v>0.0096153846153846177</v>
+        <v>0</v>
       </c>
       <c r="K18" s="63">
-        <v>0.010043956043956047</v>
+        <v>0.01429</v>
       </c>
       <c r="L18" s="64">
-        <v>0.010043956043956047</v>
+        <v>0.014285</v>
       </c>
       <c r="M18" s="64">
-        <v>0.010043956043956047</v>
+        <v>0.014285</v>
       </c>
       <c r="N18" s="64">
-        <v>0.010043956043956047</v>
+        <v>0.014285</v>
       </c>
       <c r="O18" s="65">
-        <v>0.010043956043956047</v>
+        <v>0.014285</v>
       </c>
       <c r="P18" s="69">
-        <v>0.1271428571428572</v>
+        <v>0.071430000000000007</v>
       </c>
     </row>
     <row r="19" ht="24" customHeight="1">
@@ -2145,46 +2148,46 @@
         <v>28</v>
       </c>
       <c r="C20" s="66">
-        <v>384.61538461538464</v>
+        <v>0</v>
       </c>
       <c r="D20" s="36">
-        <v>384.61538461538464</v>
+        <v>0</v>
       </c>
       <c r="E20" s="36">
-        <v>384.61538461538464</v>
+        <v>0</v>
       </c>
       <c r="F20" s="58">
-        <v>384.61538461538464</v>
+        <v>0</v>
       </c>
       <c r="G20" s="66">
-        <v>384.61538461538464</v>
+        <v>0</v>
       </c>
       <c r="H20" s="36">
-        <v>384.61538461538464</v>
+        <v>0</v>
       </c>
       <c r="I20" s="36">
-        <v>384.61538461538464</v>
+        <v>0</v>
       </c>
       <c r="J20" s="58">
-        <v>384.61538461538464</v>
+        <v>0</v>
       </c>
       <c r="K20" s="66">
-        <v>401.75824175824181</v>
+        <v>571.6</v>
       </c>
       <c r="L20" s="36">
-        <v>401.75824175824181</v>
+        <v>571.4</v>
       </c>
       <c r="M20" s="36">
-        <v>401.75824175824181</v>
+        <v>571.4</v>
       </c>
       <c r="N20" s="36">
-        <v>401.75824175824181</v>
+        <v>571.4</v>
       </c>
       <c r="O20" s="58">
-        <v>401.75824175824181</v>
+        <v>571.4</v>
       </c>
       <c r="P20" s="58">
-        <v>5085.7142857142862</v>
+        <v>2857.2000000000003</v>
       </c>
     </row>
     <row r="21" ht="24" customHeight="1">
@@ -2192,46 +2195,46 @@
         <v>30</v>
       </c>
       <c r="C21" s="73">
-        <v>24.999999999999936</v>
+        <v>0</v>
       </c>
       <c r="D21" s="38">
-        <v>24.999999999999936</v>
+        <v>0</v>
       </c>
       <c r="E21" s="38">
-        <v>24.999999999999936</v>
+        <v>0</v>
       </c>
       <c r="F21" s="74">
-        <v>24.999999999999936</v>
+        <v>0</v>
       </c>
       <c r="G21" s="73">
-        <v>24.999999999999936</v>
+        <v>0</v>
       </c>
       <c r="H21" s="38">
-        <v>24.999999999999936</v>
+        <v>0</v>
       </c>
       <c r="I21" s="38">
-        <v>24.999999999999936</v>
+        <v>0</v>
       </c>
       <c r="J21" s="74">
-        <v>24.999999999999936</v>
+        <v>0</v>
       </c>
       <c r="K21" s="73">
-        <v>24.999999999999943</v>
+        <v>25</v>
       </c>
       <c r="L21" s="38">
-        <v>24.999999999999943</v>
+        <v>25</v>
       </c>
       <c r="M21" s="38">
-        <v>24.999999999999943</v>
+        <v>25</v>
       </c>
       <c r="N21" s="38">
-        <v>24.999999999999943</v>
+        <v>25</v>
       </c>
       <c r="O21" s="74">
-        <v>24.999999999999943</v>
+        <v>25</v>
       </c>
       <c r="P21" s="74">
-        <v>24.99999999999994</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" ht="24" customHeight="1">
@@ -2239,46 +2242,46 @@
         <v>60</v>
       </c>
       <c r="C22" s="70">
-        <v>9615.3846153846</v>
+        <v>0</v>
       </c>
       <c r="D22" s="71">
-        <v>9615.3846153846</v>
+        <v>0</v>
       </c>
       <c r="E22" s="71">
-        <v>9615.3846153846</v>
+        <v>0</v>
       </c>
       <c r="F22" s="72">
-        <v>9615.3846153846</v>
+        <v>0</v>
       </c>
       <c r="G22" s="70">
-        <v>9615.3846153846</v>
+        <v>0</v>
       </c>
       <c r="H22" s="71">
-        <v>9615.3846153846</v>
+        <v>0</v>
       </c>
       <c r="I22" s="71">
-        <v>9615.3846153846</v>
+        <v>0</v>
       </c>
       <c r="J22" s="72">
-        <v>9615.3846153846</v>
+        <v>0</v>
       </c>
       <c r="K22" s="70">
-        <v>10043.956043956028</v>
+        <v>14290</v>
       </c>
       <c r="L22" s="71">
-        <v>10043.956043956028</v>
+        <v>14285</v>
       </c>
       <c r="M22" s="71">
-        <v>10043.956043956028</v>
+        <v>14285</v>
       </c>
       <c r="N22" s="71">
-        <v>10043.956043956028</v>
+        <v>14285</v>
       </c>
       <c r="O22" s="72">
-        <v>10043.956043956028</v>
+        <v>14285</v>
       </c>
       <c r="P22" s="72">
-        <v>127142.85714285696</v>
+        <v>71430</v>
       </c>
     </row>
     <row r="23" ht="30" customHeight="1">
@@ -2301,7 +2304,7 @@
       <c r="P23" s="91"/>
     </row>
     <row r="25">
-      <c r="B25" s="53" t="s">
+      <c r="B25" s="105" t="s">
         <v>63</v>
       </c>
       <c r="C25" s="98" t="s">
@@ -2375,46 +2378,46 @@
         <v>59</v>
       </c>
       <c r="C27" s="63">
-        <v>0.0096153846153846177</v>
+        <v>0</v>
       </c>
       <c r="D27" s="64">
-        <v>0.0096153846153846177</v>
+        <v>0</v>
       </c>
       <c r="E27" s="64">
-        <v>0.0096153846153846177</v>
+        <v>0</v>
       </c>
       <c r="F27" s="65">
-        <v>0.0096153846153846177</v>
+        <v>0</v>
       </c>
       <c r="G27" s="63">
-        <v>0.0096153846153846177</v>
+        <v>0</v>
       </c>
       <c r="H27" s="64">
-        <v>0.0096153846153846177</v>
+        <v>0</v>
       </c>
       <c r="I27" s="64">
-        <v>0.0096153846153846177</v>
+        <v>0</v>
       </c>
       <c r="J27" s="65">
-        <v>0.0096153846153846177</v>
+        <v>0</v>
       </c>
       <c r="K27" s="63">
-        <v>0.0096153846153846177</v>
+        <v>0.01429</v>
       </c>
       <c r="L27" s="64">
-        <v>0.0096153846153846177</v>
+        <v>0.014285</v>
       </c>
       <c r="M27" s="64">
-        <v>0.0096153846153846177</v>
+        <v>0.014285</v>
       </c>
       <c r="N27" s="64">
-        <v>0.0096153846153846177</v>
+        <v>0.014285</v>
       </c>
       <c r="O27" s="65">
-        <v>0.0096153846153846177</v>
+        <v>0.014285</v>
       </c>
       <c r="P27" s="69">
-        <v>0.12500000000000006</v>
+        <v>0.071430000000000007</v>
       </c>
     </row>
     <row r="28" ht="24" customHeight="1">
@@ -2469,46 +2472,46 @@
         <v>28</v>
       </c>
       <c r="C29" s="66">
-        <v>384.61538461538464</v>
+        <v>0</v>
       </c>
       <c r="D29" s="36">
-        <v>384.61538461538464</v>
+        <v>0</v>
       </c>
       <c r="E29" s="36">
-        <v>384.61538461538464</v>
+        <v>0</v>
       </c>
       <c r="F29" s="58">
-        <v>384.61538461538464</v>
+        <v>0</v>
       </c>
       <c r="G29" s="66">
-        <v>384.61538461538464</v>
+        <v>0</v>
       </c>
       <c r="H29" s="36">
-        <v>384.61538461538464</v>
+        <v>0</v>
       </c>
       <c r="I29" s="36">
-        <v>384.61538461538464</v>
+        <v>0</v>
       </c>
       <c r="J29" s="58">
-        <v>384.61538461538464</v>
+        <v>0</v>
       </c>
       <c r="K29" s="66">
-        <v>384.61538461538464</v>
+        <v>571.6</v>
       </c>
       <c r="L29" s="36">
-        <v>384.61538461538464</v>
+        <v>571.4</v>
       </c>
       <c r="M29" s="36">
-        <v>384.61538461538464</v>
+        <v>571.4</v>
       </c>
       <c r="N29" s="36">
-        <v>384.61538461538464</v>
+        <v>571.4</v>
       </c>
       <c r="O29" s="58">
-        <v>384.61538461538464</v>
+        <v>571.4</v>
       </c>
       <c r="P29" s="58">
-        <v>5000.0000000000009</v>
+        <v>2857.2000000000003</v>
       </c>
     </row>
     <row r="30" ht="24" customHeight="1">
@@ -2516,46 +2519,46 @@
         <v>30</v>
       </c>
       <c r="C30" s="73">
-        <v>24.999999999999936</v>
+        <v>0</v>
       </c>
       <c r="D30" s="38">
-        <v>24.999999999999936</v>
+        <v>0</v>
       </c>
       <c r="E30" s="38">
-        <v>24.999999999999936</v>
+        <v>0</v>
       </c>
       <c r="F30" s="74">
-        <v>24.999999999999936</v>
+        <v>0</v>
       </c>
       <c r="G30" s="73">
-        <v>24.999999999999936</v>
+        <v>0</v>
       </c>
       <c r="H30" s="38">
-        <v>24.999999999999936</v>
+        <v>0</v>
       </c>
       <c r="I30" s="38">
-        <v>24.999999999999936</v>
+        <v>0</v>
       </c>
       <c r="J30" s="74">
-        <v>24.999999999999936</v>
+        <v>0</v>
       </c>
       <c r="K30" s="73">
-        <v>24.999999999999936</v>
+        <v>25</v>
       </c>
       <c r="L30" s="38">
-        <v>24.999999999999936</v>
+        <v>25</v>
       </c>
       <c r="M30" s="38">
-        <v>24.999999999999936</v>
+        <v>25</v>
       </c>
       <c r="N30" s="38">
-        <v>24.999999999999936</v>
+        <v>25</v>
       </c>
       <c r="O30" s="74">
-        <v>24.999999999999936</v>
+        <v>25</v>
       </c>
       <c r="P30" s="74">
-        <v>24.999999999999957</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" ht="24" customHeight="1">
@@ -2563,46 +2566,46 @@
         <v>60</v>
       </c>
       <c r="C31" s="70">
-        <v>9615.3846153846</v>
+        <v>0</v>
       </c>
       <c r="D31" s="71">
-        <v>9615.3846153846</v>
+        <v>0</v>
       </c>
       <c r="E31" s="71">
-        <v>9615.3846153846</v>
+        <v>0</v>
       </c>
       <c r="F31" s="72">
-        <v>9615.3846153846</v>
+        <v>0</v>
       </c>
       <c r="G31" s="70">
-        <v>9615.3846153846</v>
+        <v>0</v>
       </c>
       <c r="H31" s="71">
-        <v>9615.3846153846</v>
+        <v>0</v>
       </c>
       <c r="I31" s="71">
-        <v>9615.3846153846</v>
+        <v>0</v>
       </c>
       <c r="J31" s="72">
-        <v>9615.3846153846</v>
+        <v>0</v>
       </c>
       <c r="K31" s="70">
-        <v>9615.3846153846</v>
+        <v>14290</v>
       </c>
       <c r="L31" s="71">
-        <v>9615.3846153846</v>
+        <v>14285</v>
       </c>
       <c r="M31" s="71">
-        <v>9615.3846153846</v>
+        <v>14285</v>
       </c>
       <c r="N31" s="71">
-        <v>9615.3846153846</v>
+        <v>14285</v>
       </c>
       <c r="O31" s="72">
-        <v>9615.3846153846</v>
+        <v>14285</v>
       </c>
       <c r="P31" s="72">
-        <v>124999.9999999998</v>
+        <v>71430</v>
       </c>
     </row>
     <row r="32" ht="30" customHeight="1">
@@ -2625,7 +2628,7 @@
       <c r="P32" s="91"/>
     </row>
     <row r="34">
-      <c r="B34" s="53" t="s">
+      <c r="B34" s="105" t="s">
         <v>64</v>
       </c>
       <c r="C34" s="98" t="s">
@@ -2699,46 +2702,46 @@
         <v>59</v>
       </c>
       <c r="C36" s="63">
-        <v>0.0096153846153846177</v>
+        <v>0</v>
       </c>
       <c r="D36" s="64">
-        <v>0.0096153846153846177</v>
+        <v>0</v>
       </c>
       <c r="E36" s="64">
-        <v>0.0096153846153846177</v>
+        <v>0</v>
       </c>
       <c r="F36" s="65">
-        <v>0.0096153846153846177</v>
+        <v>0</v>
       </c>
       <c r="G36" s="63">
-        <v>0.0096153846153846177</v>
+        <v>0</v>
       </c>
       <c r="H36" s="64">
-        <v>0.0096153846153846177</v>
+        <v>0</v>
       </c>
       <c r="I36" s="64">
-        <v>0.0096153846153846177</v>
+        <v>0</v>
       </c>
       <c r="J36" s="65">
-        <v>0.0096153846153846177</v>
+        <v>0</v>
       </c>
       <c r="K36" s="63">
-        <v>0.0096153846153846177</v>
+        <v>0.01429</v>
       </c>
       <c r="L36" s="64">
-        <v>0.0096153846153846177</v>
+        <v>0.014285</v>
       </c>
       <c r="M36" s="64">
-        <v>0.0096153846153846177</v>
+        <v>0.014285</v>
       </c>
       <c r="N36" s="64">
-        <v>0.0096153846153846177</v>
+        <v>0.014285</v>
       </c>
       <c r="O36" s="65">
-        <v>0.0096153846153846177</v>
+        <v>0.014285</v>
       </c>
       <c r="P36" s="69">
-        <v>0.12500000000000006</v>
+        <v>0.071430000000000007</v>
       </c>
     </row>
     <row r="37" ht="24" customHeight="1">
@@ -2793,46 +2796,46 @@
         <v>28</v>
       </c>
       <c r="C38" s="66">
-        <v>384.61538461538464</v>
+        <v>0</v>
       </c>
       <c r="D38" s="36">
-        <v>384.61538461538464</v>
+        <v>0</v>
       </c>
       <c r="E38" s="36">
-        <v>384.61538461538464</v>
+        <v>0</v>
       </c>
       <c r="F38" s="58">
-        <v>384.61538461538464</v>
+        <v>0</v>
       </c>
       <c r="G38" s="66">
-        <v>384.61538461538464</v>
+        <v>0</v>
       </c>
       <c r="H38" s="36">
-        <v>384.61538461538464</v>
+        <v>0</v>
       </c>
       <c r="I38" s="36">
-        <v>384.61538461538464</v>
+        <v>0</v>
       </c>
       <c r="J38" s="58">
-        <v>384.61538461538464</v>
+        <v>0</v>
       </c>
       <c r="K38" s="66">
-        <v>384.61538461538464</v>
+        <v>571.6</v>
       </c>
       <c r="L38" s="36">
-        <v>384.61538461538464</v>
+        <v>571.4</v>
       </c>
       <c r="M38" s="36">
-        <v>384.61538461538464</v>
+        <v>571.4</v>
       </c>
       <c r="N38" s="36">
-        <v>384.61538461538464</v>
+        <v>571.4</v>
       </c>
       <c r="O38" s="58">
-        <v>384.61538461538464</v>
+        <v>571.4</v>
       </c>
       <c r="P38" s="58">
-        <v>5000.0000000000009</v>
+        <v>2857.2000000000003</v>
       </c>
     </row>
     <row r="39" ht="24" customHeight="1">
@@ -2840,46 +2843,46 @@
         <v>30</v>
       </c>
       <c r="C39" s="73">
-        <v>24.999999999999936</v>
+        <v>0</v>
       </c>
       <c r="D39" s="38">
-        <v>24.999999999999936</v>
+        <v>0</v>
       </c>
       <c r="E39" s="38">
-        <v>24.999999999999936</v>
+        <v>0</v>
       </c>
       <c r="F39" s="74">
-        <v>24.999999999999936</v>
+        <v>0</v>
       </c>
       <c r="G39" s="73">
-        <v>24.999999999999936</v>
+        <v>0</v>
       </c>
       <c r="H39" s="38">
-        <v>24.999999999999936</v>
+        <v>0</v>
       </c>
       <c r="I39" s="38">
-        <v>24.999999999999936</v>
+        <v>0</v>
       </c>
       <c r="J39" s="74">
-        <v>24.999999999999936</v>
+        <v>0</v>
       </c>
       <c r="K39" s="73">
-        <v>24.999999999999936</v>
+        <v>25</v>
       </c>
       <c r="L39" s="38">
-        <v>24.999999999999936</v>
+        <v>25</v>
       </c>
       <c r="M39" s="38">
-        <v>24.999999999999936</v>
+        <v>25</v>
       </c>
       <c r="N39" s="38">
-        <v>24.999999999999936</v>
+        <v>25</v>
       </c>
       <c r="O39" s="74">
-        <v>24.999999999999936</v>
+        <v>25</v>
       </c>
       <c r="P39" s="74">
-        <v>24.999999999999957</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40" ht="24" customHeight="1">
@@ -2887,46 +2890,46 @@
         <v>60</v>
       </c>
       <c r="C40" s="70">
-        <v>9615.3846153846</v>
+        <v>0</v>
       </c>
       <c r="D40" s="71">
-        <v>9615.3846153846</v>
+        <v>0</v>
       </c>
       <c r="E40" s="71">
-        <v>9615.3846153846</v>
+        <v>0</v>
       </c>
       <c r="F40" s="72">
-        <v>9615.3846153846</v>
+        <v>0</v>
       </c>
       <c r="G40" s="70">
-        <v>9615.3846153846</v>
+        <v>0</v>
       </c>
       <c r="H40" s="71">
-        <v>9615.3846153846</v>
+        <v>0</v>
       </c>
       <c r="I40" s="71">
-        <v>9615.3846153846</v>
+        <v>0</v>
       </c>
       <c r="J40" s="72">
-        <v>9615.3846153846</v>
+        <v>0</v>
       </c>
       <c r="K40" s="70">
-        <v>9615.3846153846</v>
+        <v>14290</v>
       </c>
       <c r="L40" s="71">
-        <v>9615.3846153846</v>
+        <v>14285</v>
       </c>
       <c r="M40" s="71">
-        <v>9615.3846153846</v>
+        <v>14285</v>
       </c>
       <c r="N40" s="71">
-        <v>9615.3846153846</v>
+        <v>14285</v>
       </c>
       <c r="O40" s="72">
-        <v>9615.3846153846</v>
+        <v>14285</v>
       </c>
       <c r="P40" s="72">
-        <v>124999.9999999998</v>
+        <v>71430</v>
       </c>
     </row>
     <row r="41" ht="30" customHeight="1">
@@ -2949,7 +2952,7 @@
       <c r="P41" s="91"/>
     </row>
     <row r="43">
-      <c r="B43" s="53" t="s">
+      <c r="B43" s="105" t="s">
         <v>65</v>
       </c>
       <c r="C43" s="98" t="s">
@@ -3023,46 +3026,46 @@
         <v>59</v>
       </c>
       <c r="C45" s="63">
-        <v>0</v>
+        <v>0.0096875</v>
       </c>
       <c r="D45" s="64">
-        <v>0</v>
+        <v>0.0096125</v>
       </c>
       <c r="E45" s="64">
-        <v>0</v>
+        <v>0.0096125</v>
       </c>
       <c r="F45" s="65">
-        <v>0</v>
+        <v>0.0096125</v>
       </c>
       <c r="G45" s="63">
-        <v>0</v>
+        <v>0.0096125</v>
       </c>
       <c r="H45" s="64">
-        <v>0</v>
+        <v>0.0096125</v>
       </c>
       <c r="I45" s="64">
-        <v>0</v>
+        <v>0.0096125</v>
       </c>
       <c r="J45" s="65">
-        <v>0</v>
+        <v>0.0096125</v>
       </c>
       <c r="K45" s="63">
-        <v>0.035500000000000018</v>
+        <v>0.0524825</v>
       </c>
       <c r="L45" s="64">
-        <v>0.035500000000000018</v>
+        <v>0.0524675</v>
       </c>
       <c r="M45" s="64">
-        <v>0.035500000000000018</v>
+        <v>0.0524675</v>
       </c>
       <c r="N45" s="64">
-        <v>0.035500000000000018</v>
+        <v>0.0524675</v>
       </c>
       <c r="O45" s="65">
-        <v>0.035500000000000018</v>
+        <v>0.0524675</v>
       </c>
       <c r="P45" s="69">
-        <v>0.1775000000000001</v>
+        <v>0.3393275</v>
       </c>
     </row>
     <row r="46" ht="24" customHeight="1">
@@ -3117,46 +3120,46 @@
         <v>28</v>
       </c>
       <c r="C47" s="66">
-        <v>0</v>
+        <v>387.5</v>
       </c>
       <c r="D47" s="36">
-        <v>0</v>
+        <v>384.5</v>
       </c>
       <c r="E47" s="36">
-        <v>0</v>
+        <v>384.5</v>
       </c>
       <c r="F47" s="58">
-        <v>0</v>
+        <v>384.5</v>
       </c>
       <c r="G47" s="66">
-        <v>0</v>
+        <v>384.5</v>
       </c>
       <c r="H47" s="36">
-        <v>0</v>
+        <v>384.5</v>
       </c>
       <c r="I47" s="36">
-        <v>0</v>
+        <v>384.5</v>
       </c>
       <c r="J47" s="58">
-        <v>0</v>
+        <v>384.5</v>
       </c>
       <c r="K47" s="66">
-        <v>1420.0000000000005</v>
+        <v>2099.3</v>
       </c>
       <c r="L47" s="36">
-        <v>1420.0000000000005</v>
+        <v>2098.7</v>
       </c>
       <c r="M47" s="36">
-        <v>1420.0000000000005</v>
+        <v>2098.7</v>
       </c>
       <c r="N47" s="36">
-        <v>1420.0000000000005</v>
+        <v>2098.7</v>
       </c>
       <c r="O47" s="58">
-        <v>1420.0000000000005</v>
+        <v>2098.7</v>
       </c>
       <c r="P47" s="58">
-        <v>7100.0000000000018</v>
+        <v>13573.100000000002</v>
       </c>
     </row>
     <row r="48" ht="24" customHeight="1">
@@ -3164,28 +3167,28 @@
         <v>30</v>
       </c>
       <c r="C48" s="73">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="D48" s="38">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E48" s="38">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F48" s="74">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="G48" s="73">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="H48" s="38">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="I48" s="38">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="J48" s="74">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="K48" s="73">
         <v>25</v>
@@ -3211,46 +3214,46 @@
         <v>60</v>
       </c>
       <c r="C49" s="70">
-        <v>0</v>
+        <v>9687.5</v>
       </c>
       <c r="D49" s="71">
-        <v>0</v>
+        <v>9612.5</v>
       </c>
       <c r="E49" s="71">
-        <v>0</v>
+        <v>9612.5</v>
       </c>
       <c r="F49" s="72">
-        <v>0</v>
+        <v>9612.5</v>
       </c>
       <c r="G49" s="70">
-        <v>0</v>
+        <v>9612.5</v>
       </c>
       <c r="H49" s="71">
-        <v>0</v>
+        <v>9612.5</v>
       </c>
       <c r="I49" s="71">
-        <v>0</v>
+        <v>9612.5</v>
       </c>
       <c r="J49" s="72">
-        <v>0</v>
+        <v>9612.5</v>
       </c>
       <c r="K49" s="70">
-        <v>35500</v>
+        <v>52482.5</v>
       </c>
       <c r="L49" s="71">
-        <v>35500</v>
+        <v>52467.5</v>
       </c>
       <c r="M49" s="71">
-        <v>35500</v>
+        <v>52467.5</v>
       </c>
       <c r="N49" s="71">
-        <v>35500</v>
+        <v>52467.5</v>
       </c>
       <c r="O49" s="72">
-        <v>35500</v>
+        <v>52467.5</v>
       </c>
       <c r="P49" s="72">
-        <v>177500</v>
+        <v>339327.5</v>
       </c>
     </row>
     <row r="50" ht="30" customHeight="1">
@@ -3273,7 +3276,7 @@
       <c r="P50" s="91"/>
     </row>
     <row r="52">
-      <c r="B52" s="53" t="s">
+      <c r="B52" s="105" t="s">
         <v>66</v>
       </c>
       <c r="C52" s="98" t="s">
@@ -3347,46 +3350,46 @@
         <v>59</v>
       </c>
       <c r="C54" s="63">
-        <v>0</v>
+        <v>0.0096875</v>
       </c>
       <c r="D54" s="64">
-        <v>0</v>
+        <v>0.0096125</v>
       </c>
       <c r="E54" s="64">
-        <v>0</v>
+        <v>0.0096125</v>
       </c>
       <c r="F54" s="65">
-        <v>0</v>
+        <v>0.0096125</v>
       </c>
       <c r="G54" s="63">
-        <v>0</v>
+        <v>0.0096125</v>
       </c>
       <c r="H54" s="64">
-        <v>0</v>
+        <v>0.0096125</v>
       </c>
       <c r="I54" s="64">
-        <v>0</v>
+        <v>0.0096125</v>
       </c>
       <c r="J54" s="65">
-        <v>0</v>
+        <v>0.0096125</v>
       </c>
       <c r="K54" s="63">
-        <v>0.035500000000000018</v>
+        <v>0.0524825</v>
       </c>
       <c r="L54" s="64">
-        <v>0.035500000000000018</v>
+        <v>0.0524675</v>
       </c>
       <c r="M54" s="64">
-        <v>0.035500000000000018</v>
+        <v>0.0524675</v>
       </c>
       <c r="N54" s="64">
-        <v>0.035500000000000018</v>
+        <v>0.0524675</v>
       </c>
       <c r="O54" s="65">
-        <v>0.035500000000000018</v>
+        <v>0.0524675</v>
       </c>
       <c r="P54" s="69">
-        <v>0.1775000000000001</v>
+        <v>0.3393275</v>
       </c>
     </row>
     <row r="55" ht="24" customHeight="1">
@@ -3441,46 +3444,46 @@
         <v>28</v>
       </c>
       <c r="C56" s="66">
-        <v>0</v>
+        <v>387.5</v>
       </c>
       <c r="D56" s="36">
-        <v>0</v>
+        <v>384.5</v>
       </c>
       <c r="E56" s="36">
-        <v>0</v>
+        <v>384.5</v>
       </c>
       <c r="F56" s="58">
-        <v>0</v>
+        <v>384.5</v>
       </c>
       <c r="G56" s="66">
-        <v>0</v>
+        <v>384.5</v>
       </c>
       <c r="H56" s="36">
-        <v>0</v>
+        <v>384.5</v>
       </c>
       <c r="I56" s="36">
-        <v>0</v>
+        <v>384.5</v>
       </c>
       <c r="J56" s="58">
-        <v>0</v>
+        <v>384.5</v>
       </c>
       <c r="K56" s="66">
-        <v>1420.0000000000005</v>
+        <v>2099.3</v>
       </c>
       <c r="L56" s="36">
-        <v>1420.0000000000005</v>
+        <v>2098.7</v>
       </c>
       <c r="M56" s="36">
-        <v>1420.0000000000005</v>
+        <v>2098.7</v>
       </c>
       <c r="N56" s="36">
-        <v>1420.0000000000005</v>
+        <v>2098.7</v>
       </c>
       <c r="O56" s="58">
-        <v>1420.0000000000005</v>
+        <v>2098.7</v>
       </c>
       <c r="P56" s="58">
-        <v>7100.0000000000018</v>
+        <v>13573.100000000002</v>
       </c>
     </row>
     <row r="57" ht="24" customHeight="1">
@@ -3488,28 +3491,28 @@
         <v>30</v>
       </c>
       <c r="C57" s="73">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="D57" s="38">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E57" s="38">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F57" s="74">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="G57" s="73">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="H57" s="38">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="I57" s="38">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="J57" s="74">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="K57" s="73">
         <v>25</v>
@@ -3535,46 +3538,46 @@
         <v>60</v>
       </c>
       <c r="C58" s="70">
-        <v>0</v>
+        <v>9687.5</v>
       </c>
       <c r="D58" s="71">
-        <v>0</v>
+        <v>9612.5</v>
       </c>
       <c r="E58" s="71">
-        <v>0</v>
+        <v>9612.5</v>
       </c>
       <c r="F58" s="72">
-        <v>0</v>
+        <v>9612.5</v>
       </c>
       <c r="G58" s="70">
-        <v>0</v>
+        <v>9612.5</v>
       </c>
       <c r="H58" s="71">
-        <v>0</v>
+        <v>9612.5</v>
       </c>
       <c r="I58" s="71">
-        <v>0</v>
+        <v>9612.5</v>
       </c>
       <c r="J58" s="72">
-        <v>0</v>
+        <v>9612.5</v>
       </c>
       <c r="K58" s="70">
-        <v>35500</v>
+        <v>52482.5</v>
       </c>
       <c r="L58" s="71">
-        <v>35500</v>
+        <v>52467.5</v>
       </c>
       <c r="M58" s="71">
-        <v>35500</v>
+        <v>52467.5</v>
       </c>
       <c r="N58" s="71">
-        <v>35500</v>
+        <v>52467.5</v>
       </c>
       <c r="O58" s="72">
-        <v>35500</v>
+        <v>52467.5</v>
       </c>
       <c r="P58" s="72">
-        <v>177500</v>
+        <v>339327.5</v>
       </c>
     </row>
     <row r="59" ht="30" customHeight="1">
@@ -3597,7 +3600,7 @@
       <c r="P59" s="91"/>
     </row>
     <row r="61">
-      <c r="B61" s="53" t="s">
+      <c r="B61" s="105" t="s">
         <v>67</v>
       </c>
       <c r="C61" s="98" t="s">
@@ -3671,46 +3674,46 @@
         <v>59</v>
       </c>
       <c r="C63" s="63">
-        <v>0</v>
+        <v>0.0096875</v>
       </c>
       <c r="D63" s="64">
-        <v>0</v>
+        <v>0.0096125</v>
       </c>
       <c r="E63" s="64">
-        <v>0</v>
+        <v>0.0096125</v>
       </c>
       <c r="F63" s="65">
-        <v>0</v>
+        <v>0.0096125</v>
       </c>
       <c r="G63" s="63">
-        <v>0</v>
+        <v>0.0096125</v>
       </c>
       <c r="H63" s="64">
-        <v>0</v>
+        <v>0.0096125</v>
       </c>
       <c r="I63" s="64">
-        <v>0</v>
+        <v>0.0096125</v>
       </c>
       <c r="J63" s="65">
-        <v>0</v>
+        <v>0.0096125</v>
       </c>
       <c r="K63" s="63">
-        <v>0.035500000000000018</v>
+        <v>0.0096125</v>
       </c>
       <c r="L63" s="64">
-        <v>0.035500000000000018</v>
+        <v>0.0096125</v>
       </c>
       <c r="M63" s="64">
-        <v>0.035500000000000018</v>
+        <v>0.0096125</v>
       </c>
       <c r="N63" s="64">
-        <v>0.035500000000000018</v>
+        <v>0.0096125</v>
       </c>
       <c r="O63" s="65">
-        <v>0.035500000000000018</v>
+        <v>0.0096125</v>
       </c>
       <c r="P63" s="69">
-        <v>0.1775000000000001</v>
+        <v>0.12503749999999997</v>
       </c>
     </row>
     <row r="64" ht="24" customHeight="1">
@@ -3765,46 +3768,46 @@
         <v>28</v>
       </c>
       <c r="C65" s="66">
-        <v>0</v>
+        <v>387.5</v>
       </c>
       <c r="D65" s="36">
-        <v>0</v>
+        <v>384.5</v>
       </c>
       <c r="E65" s="36">
-        <v>0</v>
+        <v>384.5</v>
       </c>
       <c r="F65" s="58">
-        <v>0</v>
+        <v>384.5</v>
       </c>
       <c r="G65" s="66">
-        <v>0</v>
+        <v>384.5</v>
       </c>
       <c r="H65" s="36">
-        <v>0</v>
+        <v>384.5</v>
       </c>
       <c r="I65" s="36">
-        <v>0</v>
+        <v>384.5</v>
       </c>
       <c r="J65" s="58">
-        <v>0</v>
+        <v>384.5</v>
       </c>
       <c r="K65" s="66">
-        <v>1420.0000000000005</v>
+        <v>384.5</v>
       </c>
       <c r="L65" s="36">
-        <v>1420.0000000000005</v>
+        <v>384.5</v>
       </c>
       <c r="M65" s="36">
-        <v>1420.0000000000005</v>
+        <v>384.5</v>
       </c>
       <c r="N65" s="36">
-        <v>1420.0000000000005</v>
+        <v>384.5</v>
       </c>
       <c r="O65" s="58">
-        <v>1420.0000000000005</v>
+        <v>384.5</v>
       </c>
       <c r="P65" s="58">
-        <v>7100.0000000000018</v>
+        <v>5001.5</v>
       </c>
     </row>
     <row r="66" ht="24" customHeight="1">
@@ -3812,28 +3815,28 @@
         <v>30</v>
       </c>
       <c r="C66" s="73">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="D66" s="38">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E66" s="38">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F66" s="74">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="G66" s="73">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="H66" s="38">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="I66" s="38">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="J66" s="74">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="K66" s="73">
         <v>25</v>
@@ -3859,46 +3862,46 @@
         <v>60</v>
       </c>
       <c r="C67" s="70">
-        <v>0</v>
+        <v>9687.5</v>
       </c>
       <c r="D67" s="71">
-        <v>0</v>
+        <v>9612.5</v>
       </c>
       <c r="E67" s="71">
-        <v>0</v>
+        <v>9612.5</v>
       </c>
       <c r="F67" s="72">
-        <v>0</v>
+        <v>9612.5</v>
       </c>
       <c r="G67" s="70">
-        <v>0</v>
+        <v>9612.5</v>
       </c>
       <c r="H67" s="71">
-        <v>0</v>
+        <v>9612.5</v>
       </c>
       <c r="I67" s="71">
-        <v>0</v>
+        <v>9612.5</v>
       </c>
       <c r="J67" s="72">
-        <v>0</v>
+        <v>9612.5</v>
       </c>
       <c r="K67" s="70">
-        <v>35500</v>
+        <v>9612.5</v>
       </c>
       <c r="L67" s="71">
-        <v>35500</v>
+        <v>9612.5</v>
       </c>
       <c r="M67" s="71">
-        <v>35500</v>
+        <v>9612.5</v>
       </c>
       <c r="N67" s="71">
-        <v>35500</v>
+        <v>9612.5</v>
       </c>
       <c r="O67" s="72">
-        <v>35500</v>
+        <v>9612.5</v>
       </c>
       <c r="P67" s="72">
-        <v>177500</v>
+        <v>125037.5</v>
       </c>
     </row>
     <row r="68" ht="30" customHeight="1">
@@ -3921,7 +3924,7 @@
       <c r="P68" s="91"/>
     </row>
     <row r="70">
-      <c r="B70" s="53" t="s">
+      <c r="B70" s="105" t="s">
         <v>68</v>
       </c>
       <c r="C70" s="98" t="s">
@@ -3995,46 +3998,46 @@
         <v>59</v>
       </c>
       <c r="C72" s="63">
-        <v>0</v>
+        <v>0.0096875</v>
       </c>
       <c r="D72" s="64">
-        <v>0</v>
+        <v>0.0096125</v>
       </c>
       <c r="E72" s="64">
-        <v>0</v>
+        <v>0.0096125</v>
       </c>
       <c r="F72" s="65">
-        <v>0</v>
+        <v>0.0096125</v>
       </c>
       <c r="G72" s="63">
-        <v>0</v>
+        <v>0.0096125</v>
       </c>
       <c r="H72" s="64">
-        <v>0</v>
+        <v>0.0096125</v>
       </c>
       <c r="I72" s="64">
-        <v>0</v>
+        <v>0.0096125</v>
       </c>
       <c r="J72" s="65">
-        <v>0</v>
+        <v>0.0096125</v>
       </c>
       <c r="K72" s="63">
-        <v>0.035500000000000018</v>
+        <v>0.0096125</v>
       </c>
       <c r="L72" s="64">
-        <v>0.035500000000000018</v>
+        <v>0.0096125</v>
       </c>
       <c r="M72" s="64">
-        <v>0.035500000000000018</v>
+        <v>0.0096125</v>
       </c>
       <c r="N72" s="64">
-        <v>0.035500000000000018</v>
+        <v>0.0096125</v>
       </c>
       <c r="O72" s="65">
-        <v>0.035500000000000018</v>
+        <v>0.0096125</v>
       </c>
       <c r="P72" s="69">
-        <v>0.1775000000000001</v>
+        <v>0.12503749999999997</v>
       </c>
     </row>
     <row r="73" ht="24" customHeight="1">
@@ -4089,46 +4092,46 @@
         <v>28</v>
       </c>
       <c r="C74" s="66">
-        <v>0</v>
+        <v>387.5</v>
       </c>
       <c r="D74" s="36">
-        <v>0</v>
+        <v>384.5</v>
       </c>
       <c r="E74" s="36">
-        <v>0</v>
+        <v>384.5</v>
       </c>
       <c r="F74" s="58">
-        <v>0</v>
+        <v>384.5</v>
       </c>
       <c r="G74" s="66">
-        <v>0</v>
+        <v>384.5</v>
       </c>
       <c r="H74" s="36">
-        <v>0</v>
+        <v>384.5</v>
       </c>
       <c r="I74" s="36">
-        <v>0</v>
+        <v>384.5</v>
       </c>
       <c r="J74" s="58">
-        <v>0</v>
+        <v>384.5</v>
       </c>
       <c r="K74" s="66">
-        <v>1420.0000000000005</v>
+        <v>384.5</v>
       </c>
       <c r="L74" s="36">
-        <v>1420.0000000000005</v>
+        <v>384.5</v>
       </c>
       <c r="M74" s="36">
-        <v>1420.0000000000005</v>
+        <v>384.5</v>
       </c>
       <c r="N74" s="36">
-        <v>1420.0000000000005</v>
+        <v>384.5</v>
       </c>
       <c r="O74" s="58">
-        <v>1420.0000000000005</v>
+        <v>384.5</v>
       </c>
       <c r="P74" s="58">
-        <v>7100.0000000000018</v>
+        <v>5001.5</v>
       </c>
     </row>
     <row r="75" ht="24" customHeight="1">
@@ -4136,28 +4139,28 @@
         <v>30</v>
       </c>
       <c r="C75" s="73">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="D75" s="38">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E75" s="38">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F75" s="74">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="G75" s="73">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="H75" s="38">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="I75" s="38">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="J75" s="74">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="K75" s="73">
         <v>25</v>
@@ -4183,46 +4186,46 @@
         <v>60</v>
       </c>
       <c r="C76" s="70">
-        <v>0</v>
+        <v>9687.5</v>
       </c>
       <c r="D76" s="71">
-        <v>0</v>
+        <v>9612.5</v>
       </c>
       <c r="E76" s="71">
-        <v>0</v>
+        <v>9612.5</v>
       </c>
       <c r="F76" s="72">
-        <v>0</v>
+        <v>9612.5</v>
       </c>
       <c r="G76" s="70">
-        <v>0</v>
+        <v>9612.5</v>
       </c>
       <c r="H76" s="71">
-        <v>0</v>
+        <v>9612.5</v>
       </c>
       <c r="I76" s="71">
-        <v>0</v>
+        <v>9612.5</v>
       </c>
       <c r="J76" s="72">
-        <v>0</v>
+        <v>9612.5</v>
       </c>
       <c r="K76" s="70">
-        <v>35500</v>
+        <v>9612.5</v>
       </c>
       <c r="L76" s="71">
-        <v>35500</v>
+        <v>9612.5</v>
       </c>
       <c r="M76" s="71">
-        <v>35500</v>
+        <v>9612.5</v>
       </c>
       <c r="N76" s="71">
-        <v>35500</v>
+        <v>9612.5</v>
       </c>
       <c r="O76" s="72">
-        <v>35500</v>
+        <v>9612.5</v>
       </c>
       <c r="P76" s="72">
-        <v>177500</v>
+        <v>125037.5</v>
       </c>
     </row>
     <row r="77" ht="30" customHeight="1">
@@ -4245,7 +4248,7 @@
       <c r="P77" s="91"/>
     </row>
     <row r="79">
-      <c r="B79" s="53" t="s">
+      <c r="B79" s="105" t="s">
         <v>69</v>
       </c>
       <c r="C79" s="98" t="s">
@@ -4319,46 +4322,46 @@
         <v>59</v>
       </c>
       <c r="C81" s="63">
-        <v>0.010043956043956047</v>
+        <v>0.014285</v>
       </c>
       <c r="D81" s="64">
-        <v>0.010043956043956047</v>
+        <v>0.014285</v>
       </c>
       <c r="E81" s="64">
-        <v>0.0096153846153846177</v>
+        <v>0</v>
       </c>
       <c r="F81" s="65">
-        <v>0.0096153846153846177</v>
+        <v>0</v>
       </c>
       <c r="G81" s="63">
-        <v>0.0096153846153846177</v>
+        <v>0</v>
       </c>
       <c r="H81" s="64">
-        <v>0.0096153846153846177</v>
+        <v>0</v>
       </c>
       <c r="I81" s="64">
-        <v>0.0096153846153846177</v>
+        <v>0</v>
       </c>
       <c r="J81" s="64">
-        <v>0.0096153846153846177</v>
+        <v>0</v>
       </c>
       <c r="K81" s="65">
-        <v>0.0096153846153846177</v>
+        <v>0</v>
       </c>
       <c r="L81" s="63">
-        <v>0.0096153846153846177</v>
+        <v>0</v>
       </c>
       <c r="M81" s="64">
-        <v>0.0096153846153846177</v>
+        <v>0</v>
       </c>
       <c r="N81" s="64">
-        <v>0.0096153846153846177</v>
+        <v>0</v>
       </c>
       <c r="O81" s="65">
-        <v>0.0096153846153846177</v>
+        <v>0</v>
       </c>
       <c r="P81" s="69">
-        <v>0.12585714285714292</v>
+        <v>0.02857</v>
       </c>
     </row>
     <row r="82" ht="24" customHeight="1">
@@ -4413,46 +4416,46 @@
         <v>28</v>
       </c>
       <c r="C83" s="66">
-        <v>401.75824175824181</v>
+        <v>571.4</v>
       </c>
       <c r="D83" s="36">
-        <v>401.75824175824181</v>
+        <v>571.4</v>
       </c>
       <c r="E83" s="36">
-        <v>384.61538461538464</v>
+        <v>0</v>
       </c>
       <c r="F83" s="58">
-        <v>384.61538461538464</v>
+        <v>0</v>
       </c>
       <c r="G83" s="66">
-        <v>384.61538461538464</v>
+        <v>0</v>
       </c>
       <c r="H83" s="36">
-        <v>384.61538461538464</v>
+        <v>0</v>
       </c>
       <c r="I83" s="36">
-        <v>384.61538461538464</v>
+        <v>0</v>
       </c>
       <c r="J83" s="36">
-        <v>384.61538461538464</v>
+        <v>0</v>
       </c>
       <c r="K83" s="58">
-        <v>384.61538461538464</v>
+        <v>0</v>
       </c>
       <c r="L83" s="66">
-        <v>384.61538461538464</v>
+        <v>0</v>
       </c>
       <c r="M83" s="36">
-        <v>384.61538461538464</v>
+        <v>0</v>
       </c>
       <c r="N83" s="36">
-        <v>384.61538461538464</v>
+        <v>0</v>
       </c>
       <c r="O83" s="58">
-        <v>384.61538461538464</v>
+        <v>0</v>
       </c>
       <c r="P83" s="58">
-        <v>5034.2857142857156</v>
+        <v>1142.8</v>
       </c>
     </row>
     <row r="84" ht="24" customHeight="1">
@@ -4460,46 +4463,46 @@
         <v>30</v>
       </c>
       <c r="C84" s="73">
-        <v>24.999999999999943</v>
+        <v>25</v>
       </c>
       <c r="D84" s="38">
-        <v>24.999999999999943</v>
+        <v>25</v>
       </c>
       <c r="E84" s="38">
-        <v>24.999999999999936</v>
+        <v>0</v>
       </c>
       <c r="F84" s="74">
-        <v>24.999999999999936</v>
+        <v>0</v>
       </c>
       <c r="G84" s="73">
-        <v>24.999999999999936</v>
+        <v>0</v>
       </c>
       <c r="H84" s="38">
-        <v>24.999999999999936</v>
+        <v>0</v>
       </c>
       <c r="I84" s="38">
-        <v>24.999999999999936</v>
+        <v>0</v>
       </c>
       <c r="J84" s="38">
-        <v>24.999999999999936</v>
+        <v>0</v>
       </c>
       <c r="K84" s="74">
-        <v>24.999999999999936</v>
+        <v>0</v>
       </c>
       <c r="L84" s="73">
-        <v>24.999999999999936</v>
+        <v>0</v>
       </c>
       <c r="M84" s="38">
-        <v>24.999999999999936</v>
+        <v>0</v>
       </c>
       <c r="N84" s="38">
-        <v>24.999999999999936</v>
+        <v>0</v>
       </c>
       <c r="O84" s="74">
-        <v>24.999999999999936</v>
+        <v>0</v>
       </c>
       <c r="P84" s="74">
-        <v>24.999999999999932</v>
+        <v>25</v>
       </c>
     </row>
     <row r="85" ht="24" customHeight="1">
@@ -4507,46 +4510,46 @@
         <v>60</v>
       </c>
       <c r="C85" s="70">
-        <v>10043.956043956028</v>
+        <v>14285</v>
       </c>
       <c r="D85" s="71">
-        <v>10043.956043956028</v>
+        <v>14285</v>
       </c>
       <c r="E85" s="71">
-        <v>9615.3846153846</v>
+        <v>0</v>
       </c>
       <c r="F85" s="72">
-        <v>9615.3846153846</v>
+        <v>0</v>
       </c>
       <c r="G85" s="70">
-        <v>9615.3846153846</v>
+        <v>0</v>
       </c>
       <c r="H85" s="71">
-        <v>9615.3846153846</v>
+        <v>0</v>
       </c>
       <c r="I85" s="71">
-        <v>9615.3846153846</v>
+        <v>0</v>
       </c>
       <c r="J85" s="71">
-        <v>9615.3846153846</v>
+        <v>0</v>
       </c>
       <c r="K85" s="72">
-        <v>9615.3846153846</v>
+        <v>0</v>
       </c>
       <c r="L85" s="70">
-        <v>9615.3846153846</v>
+        <v>0</v>
       </c>
       <c r="M85" s="71">
-        <v>9615.3846153846</v>
+        <v>0</v>
       </c>
       <c r="N85" s="71">
-        <v>9615.3846153846</v>
+        <v>0</v>
       </c>
       <c r="O85" s="72">
-        <v>9615.3846153846</v>
+        <v>0</v>
       </c>
       <c r="P85" s="72">
-        <v>125857.14285714265</v>
+        <v>28570</v>
       </c>
     </row>
     <row r="86" ht="30" customHeight="1">
@@ -4569,7 +4572,7 @@
       <c r="P86" s="91"/>
     </row>
     <row r="88">
-      <c r="B88" s="53" t="s">
+      <c r="B88" s="105" t="s">
         <v>73</v>
       </c>
       <c r="C88" s="98" t="s">
@@ -4643,46 +4646,46 @@
         <v>59</v>
       </c>
       <c r="C90" s="63">
-        <v>0.010043956043956047</v>
+        <v>0.014285</v>
       </c>
       <c r="D90" s="64">
-        <v>0.010043956043956047</v>
+        <v>0.014285</v>
       </c>
       <c r="E90" s="64">
-        <v>0.0096153846153846177</v>
+        <v>0</v>
       </c>
       <c r="F90" s="65">
-        <v>0.0096153846153846177</v>
+        <v>0</v>
       </c>
       <c r="G90" s="63">
-        <v>0.0096153846153846177</v>
+        <v>0</v>
       </c>
       <c r="H90" s="64">
-        <v>0.0096153846153846177</v>
+        <v>0</v>
       </c>
       <c r="I90" s="64">
-        <v>0.0096153846153846177</v>
+        <v>0</v>
       </c>
       <c r="J90" s="64">
-        <v>0.0096153846153846177</v>
+        <v>0</v>
       </c>
       <c r="K90" s="65">
-        <v>0.0096153846153846177</v>
+        <v>0</v>
       </c>
       <c r="L90" s="63">
-        <v>0.0096153846153846177</v>
+        <v>0</v>
       </c>
       <c r="M90" s="64">
-        <v>0.0096153846153846177</v>
+        <v>0</v>
       </c>
       <c r="N90" s="64">
-        <v>0.0096153846153846177</v>
+        <v>0</v>
       </c>
       <c r="O90" s="65">
-        <v>0.0096153846153846177</v>
+        <v>0</v>
       </c>
       <c r="P90" s="69">
-        <v>0.12585714285714292</v>
+        <v>0.02857</v>
       </c>
     </row>
     <row r="91" ht="24" customHeight="1">
@@ -4737,46 +4740,46 @@
         <v>28</v>
       </c>
       <c r="C92" s="66">
-        <v>401.75824175824181</v>
+        <v>571.4</v>
       </c>
       <c r="D92" s="36">
-        <v>401.75824175824181</v>
+        <v>571.4</v>
       </c>
       <c r="E92" s="36">
-        <v>384.61538461538464</v>
+        <v>0</v>
       </c>
       <c r="F92" s="58">
-        <v>384.61538461538464</v>
+        <v>0</v>
       </c>
       <c r="G92" s="66">
-        <v>384.61538461538464</v>
+        <v>0</v>
       </c>
       <c r="H92" s="36">
-        <v>384.61538461538464</v>
+        <v>0</v>
       </c>
       <c r="I92" s="36">
-        <v>384.61538461538464</v>
+        <v>0</v>
       </c>
       <c r="J92" s="36">
-        <v>384.61538461538464</v>
+        <v>0</v>
       </c>
       <c r="K92" s="58">
-        <v>384.61538461538464</v>
+        <v>0</v>
       </c>
       <c r="L92" s="66">
-        <v>384.61538461538464</v>
+        <v>0</v>
       </c>
       <c r="M92" s="36">
-        <v>384.61538461538464</v>
+        <v>0</v>
       </c>
       <c r="N92" s="36">
-        <v>384.61538461538464</v>
+        <v>0</v>
       </c>
       <c r="O92" s="58">
-        <v>384.61538461538464</v>
+        <v>0</v>
       </c>
       <c r="P92" s="58">
-        <v>5034.2857142857156</v>
+        <v>1142.8</v>
       </c>
     </row>
     <row r="93" ht="24" customHeight="1">
@@ -4784,46 +4787,46 @@
         <v>30</v>
       </c>
       <c r="C93" s="73">
-        <v>24.999999999999943</v>
+        <v>25</v>
       </c>
       <c r="D93" s="38">
-        <v>24.999999999999943</v>
+        <v>25</v>
       </c>
       <c r="E93" s="38">
-        <v>24.999999999999936</v>
+        <v>0</v>
       </c>
       <c r="F93" s="74">
-        <v>24.999999999999936</v>
+        <v>0</v>
       </c>
       <c r="G93" s="73">
-        <v>24.999999999999936</v>
+        <v>0</v>
       </c>
       <c r="H93" s="38">
-        <v>24.999999999999936</v>
+        <v>0</v>
       </c>
       <c r="I93" s="38">
-        <v>24.999999999999936</v>
+        <v>0</v>
       </c>
       <c r="J93" s="38">
-        <v>24.999999999999936</v>
+        <v>0</v>
       </c>
       <c r="K93" s="74">
-        <v>24.999999999999936</v>
+        <v>0</v>
       </c>
       <c r="L93" s="73">
-        <v>24.999999999999936</v>
+        <v>0</v>
       </c>
       <c r="M93" s="38">
-        <v>24.999999999999936</v>
+        <v>0</v>
       </c>
       <c r="N93" s="38">
-        <v>24.999999999999936</v>
+        <v>0</v>
       </c>
       <c r="O93" s="74">
-        <v>24.999999999999936</v>
+        <v>0</v>
       </c>
       <c r="P93" s="74">
-        <v>24.999999999999932</v>
+        <v>25</v>
       </c>
     </row>
     <row r="94" ht="24" customHeight="1">
@@ -4831,46 +4834,46 @@
         <v>60</v>
       </c>
       <c r="C94" s="70">
-        <v>10043.956043956028</v>
+        <v>14285</v>
       </c>
       <c r="D94" s="71">
-        <v>10043.956043956028</v>
+        <v>14285</v>
       </c>
       <c r="E94" s="71">
-        <v>9615.3846153846</v>
+        <v>0</v>
       </c>
       <c r="F94" s="72">
-        <v>9615.3846153846</v>
+        <v>0</v>
       </c>
       <c r="G94" s="70">
-        <v>9615.3846153846</v>
+        <v>0</v>
       </c>
       <c r="H94" s="71">
-        <v>9615.3846153846</v>
+        <v>0</v>
       </c>
       <c r="I94" s="71">
-        <v>9615.3846153846</v>
+        <v>0</v>
       </c>
       <c r="J94" s="71">
-        <v>9615.3846153846</v>
+        <v>0</v>
       </c>
       <c r="K94" s="72">
-        <v>9615.3846153846</v>
+        <v>0</v>
       </c>
       <c r="L94" s="70">
-        <v>9615.3846153846</v>
+        <v>0</v>
       </c>
       <c r="M94" s="71">
-        <v>9615.3846153846</v>
+        <v>0</v>
       </c>
       <c r="N94" s="71">
-        <v>9615.3846153846</v>
+        <v>0</v>
       </c>
       <c r="O94" s="72">
-        <v>9615.3846153846</v>
+        <v>0</v>
       </c>
       <c r="P94" s="72">
-        <v>125857.14285714265</v>
+        <v>28570</v>
       </c>
     </row>
     <row r="95" ht="30" customHeight="1">
@@ -4893,7 +4896,7 @@
       <c r="P95" s="91"/>
     </row>
     <row r="97">
-      <c r="B97" s="53" t="s">
+      <c r="B97" s="105" t="s">
         <v>74</v>
       </c>
       <c r="C97" s="98" t="s">
@@ -4967,46 +4970,46 @@
         <v>59</v>
       </c>
       <c r="C99" s="63">
-        <v>0.0096153846153846177</v>
+        <v>0.014285</v>
       </c>
       <c r="D99" s="64">
-        <v>0.0096153846153846177</v>
+        <v>0.014285</v>
       </c>
       <c r="E99" s="64">
-        <v>0.0096153846153846177</v>
+        <v>0</v>
       </c>
       <c r="F99" s="65">
-        <v>0.0096153846153846177</v>
+        <v>0</v>
       </c>
       <c r="G99" s="63">
-        <v>0.0096153846153846177</v>
+        <v>0</v>
       </c>
       <c r="H99" s="64">
-        <v>0.0096153846153846177</v>
+        <v>0</v>
       </c>
       <c r="I99" s="64">
-        <v>0.0096153846153846177</v>
+        <v>0</v>
       </c>
       <c r="J99" s="64">
-        <v>0.0096153846153846177</v>
+        <v>0</v>
       </c>
       <c r="K99" s="65">
-        <v>0.0096153846153846177</v>
+        <v>0</v>
       </c>
       <c r="L99" s="63">
-        <v>0.0096153846153846177</v>
+        <v>0</v>
       </c>
       <c r="M99" s="64">
-        <v>0.0096153846153846177</v>
+        <v>0</v>
       </c>
       <c r="N99" s="64">
-        <v>0.0096153846153846177</v>
+        <v>0</v>
       </c>
       <c r="O99" s="65">
-        <v>0.0096153846153846177</v>
+        <v>0</v>
       </c>
       <c r="P99" s="69">
-        <v>0.12500000000000006</v>
+        <v>0.02857</v>
       </c>
     </row>
     <row r="100" ht="24" customHeight="1">
@@ -5061,46 +5064,46 @@
         <v>28</v>
       </c>
       <c r="C101" s="66">
-        <v>384.61538461538464</v>
+        <v>571.4</v>
       </c>
       <c r="D101" s="36">
-        <v>384.61538461538464</v>
+        <v>571.4</v>
       </c>
       <c r="E101" s="36">
-        <v>384.61538461538464</v>
+        <v>0</v>
       </c>
       <c r="F101" s="58">
-        <v>384.61538461538464</v>
+        <v>0</v>
       </c>
       <c r="G101" s="66">
-        <v>384.61538461538464</v>
+        <v>0</v>
       </c>
       <c r="H101" s="36">
-        <v>384.61538461538464</v>
+        <v>0</v>
       </c>
       <c r="I101" s="36">
-        <v>384.61538461538464</v>
+        <v>0</v>
       </c>
       <c r="J101" s="36">
-        <v>384.61538461538464</v>
+        <v>0</v>
       </c>
       <c r="K101" s="58">
-        <v>384.61538461538464</v>
+        <v>0</v>
       </c>
       <c r="L101" s="66">
-        <v>384.61538461538464</v>
+        <v>0</v>
       </c>
       <c r="M101" s="36">
-        <v>384.61538461538464</v>
+        <v>0</v>
       </c>
       <c r="N101" s="36">
-        <v>384.61538461538464</v>
+        <v>0</v>
       </c>
       <c r="O101" s="58">
-        <v>384.61538461538464</v>
+        <v>0</v>
       </c>
       <c r="P101" s="58">
-        <v>5000.0000000000009</v>
+        <v>1142.8</v>
       </c>
     </row>
     <row r="102" ht="24" customHeight="1">
@@ -5108,46 +5111,46 @@
         <v>30</v>
       </c>
       <c r="C102" s="73">
-        <v>24.999999999999936</v>
+        <v>25</v>
       </c>
       <c r="D102" s="38">
-        <v>24.999999999999936</v>
+        <v>25</v>
       </c>
       <c r="E102" s="38">
-        <v>24.999999999999936</v>
+        <v>0</v>
       </c>
       <c r="F102" s="74">
-        <v>24.999999999999936</v>
+        <v>0</v>
       </c>
       <c r="G102" s="73">
-        <v>24.999999999999936</v>
+        <v>0</v>
       </c>
       <c r="H102" s="38">
-        <v>24.999999999999936</v>
+        <v>0</v>
       </c>
       <c r="I102" s="38">
-        <v>24.999999999999936</v>
+        <v>0</v>
       </c>
       <c r="J102" s="38">
-        <v>24.999999999999936</v>
+        <v>0</v>
       </c>
       <c r="K102" s="74">
-        <v>24.999999999999936</v>
+        <v>0</v>
       </c>
       <c r="L102" s="73">
-        <v>24.999999999999936</v>
+        <v>0</v>
       </c>
       <c r="M102" s="38">
-        <v>24.999999999999936</v>
+        <v>0</v>
       </c>
       <c r="N102" s="38">
-        <v>24.999999999999936</v>
+        <v>0</v>
       </c>
       <c r="O102" s="74">
-        <v>24.999999999999936</v>
+        <v>0</v>
       </c>
       <c r="P102" s="74">
-        <v>24.999999999999957</v>
+        <v>25</v>
       </c>
     </row>
     <row r="103" ht="24" customHeight="1">
@@ -5155,46 +5158,46 @@
         <v>60</v>
       </c>
       <c r="C103" s="70">
-        <v>9615.3846153846</v>
+        <v>14285</v>
       </c>
       <c r="D103" s="71">
-        <v>9615.3846153846</v>
+        <v>14285</v>
       </c>
       <c r="E103" s="71">
-        <v>9615.3846153846</v>
+        <v>0</v>
       </c>
       <c r="F103" s="72">
-        <v>9615.3846153846</v>
+        <v>0</v>
       </c>
       <c r="G103" s="70">
-        <v>9615.3846153846</v>
+        <v>0</v>
       </c>
       <c r="H103" s="71">
-        <v>9615.3846153846</v>
+        <v>0</v>
       </c>
       <c r="I103" s="71">
-        <v>9615.3846153846</v>
+        <v>0</v>
       </c>
       <c r="J103" s="71">
-        <v>9615.3846153846</v>
+        <v>0</v>
       </c>
       <c r="K103" s="72">
-        <v>9615.3846153846</v>
+        <v>0</v>
       </c>
       <c r="L103" s="70">
-        <v>9615.3846153846</v>
+        <v>0</v>
       </c>
       <c r="M103" s="71">
-        <v>9615.3846153846</v>
+        <v>0</v>
       </c>
       <c r="N103" s="71">
-        <v>9615.3846153846</v>
+        <v>0</v>
       </c>
       <c r="O103" s="72">
-        <v>9615.3846153846</v>
+        <v>0</v>
       </c>
       <c r="P103" s="72">
-        <v>124999.9999999998</v>
+        <v>28570</v>
       </c>
     </row>
     <row r="104" ht="30" customHeight="1">
@@ -5217,7 +5220,7 @@
       <c r="P104" s="91"/>
     </row>
     <row r="106">
-      <c r="B106" s="53" t="s">
+      <c r="B106" s="105" t="s">
         <v>75</v>
       </c>
       <c r="C106" s="98" t="s">
@@ -5291,46 +5294,46 @@
         <v>59</v>
       </c>
       <c r="C108" s="63">
-        <v>0.0096153846153846177</v>
+        <v>0.014285</v>
       </c>
       <c r="D108" s="64">
-        <v>0.0096153846153846177</v>
+        <v>0.014285</v>
       </c>
       <c r="E108" s="64">
-        <v>0.0096153846153846177</v>
+        <v>0</v>
       </c>
       <c r="F108" s="65">
-        <v>0.0096153846153846177</v>
+        <v>0</v>
       </c>
       <c r="G108" s="63">
-        <v>0.0096153846153846177</v>
+        <v>0</v>
       </c>
       <c r="H108" s="64">
-        <v>0.0096153846153846177</v>
+        <v>0</v>
       </c>
       <c r="I108" s="64">
-        <v>0.0096153846153846177</v>
+        <v>0</v>
       </c>
       <c r="J108" s="64">
-        <v>0.0096153846153846177</v>
+        <v>0</v>
       </c>
       <c r="K108" s="65">
-        <v>0.0096153846153846177</v>
+        <v>0</v>
       </c>
       <c r="L108" s="63">
-        <v>0.0096153846153846177</v>
+        <v>0</v>
       </c>
       <c r="M108" s="64">
-        <v>0.0096153846153846177</v>
+        <v>0</v>
       </c>
       <c r="N108" s="64">
-        <v>0.0096153846153846177</v>
+        <v>0</v>
       </c>
       <c r="O108" s="65">
-        <v>0.0096153846153846177</v>
+        <v>0</v>
       </c>
       <c r="P108" s="69">
-        <v>0.12500000000000006</v>
+        <v>0.02857</v>
       </c>
     </row>
     <row r="109" ht="24" customHeight="1">
@@ -5385,46 +5388,46 @@
         <v>28</v>
       </c>
       <c r="C110" s="66">
-        <v>384.61538461538464</v>
+        <v>571.4</v>
       </c>
       <c r="D110" s="36">
-        <v>384.61538461538464</v>
+        <v>571.4</v>
       </c>
       <c r="E110" s="36">
-        <v>384.61538461538464</v>
+        <v>0</v>
       </c>
       <c r="F110" s="58">
-        <v>384.61538461538464</v>
+        <v>0</v>
       </c>
       <c r="G110" s="66">
-        <v>384.61538461538464</v>
+        <v>0</v>
       </c>
       <c r="H110" s="36">
-        <v>384.61538461538464</v>
+        <v>0</v>
       </c>
       <c r="I110" s="36">
-        <v>384.61538461538464</v>
+        <v>0</v>
       </c>
       <c r="J110" s="36">
-        <v>384.61538461538464</v>
+        <v>0</v>
       </c>
       <c r="K110" s="58">
-        <v>384.61538461538464</v>
+        <v>0</v>
       </c>
       <c r="L110" s="66">
-        <v>384.61538461538464</v>
+        <v>0</v>
       </c>
       <c r="M110" s="36">
-        <v>384.61538461538464</v>
+        <v>0</v>
       </c>
       <c r="N110" s="36">
-        <v>384.61538461538464</v>
+        <v>0</v>
       </c>
       <c r="O110" s="58">
-        <v>384.61538461538464</v>
+        <v>0</v>
       </c>
       <c r="P110" s="58">
-        <v>5000.0000000000009</v>
+        <v>1142.8</v>
       </c>
     </row>
     <row r="111" ht="24" customHeight="1">
@@ -5432,46 +5435,46 @@
         <v>30</v>
       </c>
       <c r="C111" s="73">
-        <v>24.999999999999936</v>
+        <v>25</v>
       </c>
       <c r="D111" s="38">
-        <v>24.999999999999936</v>
+        <v>25</v>
       </c>
       <c r="E111" s="38">
-        <v>24.999999999999936</v>
+        <v>0</v>
       </c>
       <c r="F111" s="74">
-        <v>24.999999999999936</v>
+        <v>0</v>
       </c>
       <c r="G111" s="73">
-        <v>24.999999999999936</v>
+        <v>0</v>
       </c>
       <c r="H111" s="38">
-        <v>24.999999999999936</v>
+        <v>0</v>
       </c>
       <c r="I111" s="38">
-        <v>24.999999999999936</v>
+        <v>0</v>
       </c>
       <c r="J111" s="38">
-        <v>24.999999999999936</v>
+        <v>0</v>
       </c>
       <c r="K111" s="74">
-        <v>24.999999999999936</v>
+        <v>0</v>
       </c>
       <c r="L111" s="73">
-        <v>24.999999999999936</v>
+        <v>0</v>
       </c>
       <c r="M111" s="38">
-        <v>24.999999999999936</v>
+        <v>0</v>
       </c>
       <c r="N111" s="38">
-        <v>24.999999999999936</v>
+        <v>0</v>
       </c>
       <c r="O111" s="74">
-        <v>24.999999999999936</v>
+        <v>0</v>
       </c>
       <c r="P111" s="74">
-        <v>24.999999999999957</v>
+        <v>25</v>
       </c>
     </row>
     <row r="112" ht="24" customHeight="1">
@@ -5479,46 +5482,46 @@
         <v>60</v>
       </c>
       <c r="C112" s="70">
-        <v>9615.3846153846</v>
+        <v>14285</v>
       </c>
       <c r="D112" s="71">
-        <v>9615.3846153846</v>
+        <v>14285</v>
       </c>
       <c r="E112" s="71">
-        <v>9615.3846153846</v>
+        <v>0</v>
       </c>
       <c r="F112" s="72">
-        <v>9615.3846153846</v>
+        <v>0</v>
       </c>
       <c r="G112" s="70">
-        <v>9615.3846153846</v>
+        <v>0</v>
       </c>
       <c r="H112" s="71">
-        <v>9615.3846153846</v>
+        <v>0</v>
       </c>
       <c r="I112" s="71">
-        <v>9615.3846153846</v>
+        <v>0</v>
       </c>
       <c r="J112" s="71">
-        <v>9615.3846153846</v>
+        <v>0</v>
       </c>
       <c r="K112" s="72">
-        <v>9615.3846153846</v>
+        <v>0</v>
       </c>
       <c r="L112" s="70">
-        <v>9615.3846153846</v>
+        <v>0</v>
       </c>
       <c r="M112" s="71">
-        <v>9615.3846153846</v>
+        <v>0</v>
       </c>
       <c r="N112" s="71">
-        <v>9615.3846153846</v>
+        <v>0</v>
       </c>
       <c r="O112" s="72">
-        <v>9615.3846153846</v>
+        <v>0</v>
       </c>
       <c r="P112" s="72">
-        <v>124999.9999999998</v>
+        <v>28570</v>
       </c>
     </row>
     <row r="113" ht="30" customHeight="1">
@@ -5541,7 +5544,7 @@
       <c r="P113" s="91"/>
     </row>
     <row r="115">
-      <c r="B115" s="53" t="s">
+      <c r="B115" s="105" t="s">
         <v>76</v>
       </c>
       <c r="C115" s="98" t="s">
@@ -5615,46 +5618,46 @@
         <v>59</v>
       </c>
       <c r="C117" s="63">
-        <v>0.035500000000000018</v>
+        <v>0.0524675</v>
       </c>
       <c r="D117" s="64">
-        <v>0.035500000000000018</v>
+        <v>0.0524675</v>
       </c>
       <c r="E117" s="64">
-        <v>0</v>
+        <v>0.0096125</v>
       </c>
       <c r="F117" s="65">
-        <v>0</v>
+        <v>0.0096125</v>
       </c>
       <c r="G117" s="63">
-        <v>0</v>
+        <v>0.0096125</v>
       </c>
       <c r="H117" s="64">
-        <v>0</v>
+        <v>0.0096125</v>
       </c>
       <c r="I117" s="64">
-        <v>0</v>
+        <v>0.0096125</v>
       </c>
       <c r="J117" s="64">
-        <v>0</v>
+        <v>0.0096125</v>
       </c>
       <c r="K117" s="65">
-        <v>0</v>
+        <v>0.0096125</v>
       </c>
       <c r="L117" s="63">
-        <v>0</v>
+        <v>0.0096125</v>
       </c>
       <c r="M117" s="64">
-        <v>0</v>
+        <v>0.0096125</v>
       </c>
       <c r="N117" s="64">
-        <v>0</v>
+        <v>0.0096125</v>
       </c>
       <c r="O117" s="65">
-        <v>0</v>
+        <v>0.0096125</v>
       </c>
       <c r="P117" s="69">
-        <v>0.071000000000000035</v>
+        <v>0.21067249999999996</v>
       </c>
     </row>
     <row r="118" ht="24" customHeight="1">
@@ -5709,46 +5712,46 @@
         <v>28</v>
       </c>
       <c r="C119" s="66">
-        <v>1420.0000000000005</v>
+        <v>2098.7</v>
       </c>
       <c r="D119" s="36">
-        <v>1420.0000000000005</v>
+        <v>2098.7</v>
       </c>
       <c r="E119" s="36">
-        <v>0</v>
+        <v>384.5</v>
       </c>
       <c r="F119" s="58">
-        <v>0</v>
+        <v>384.5</v>
       </c>
       <c r="G119" s="66">
-        <v>0</v>
+        <v>384.5</v>
       </c>
       <c r="H119" s="36">
-        <v>0</v>
+        <v>384.5</v>
       </c>
       <c r="I119" s="36">
-        <v>0</v>
+        <v>384.5</v>
       </c>
       <c r="J119" s="36">
-        <v>0</v>
+        <v>384.5</v>
       </c>
       <c r="K119" s="58">
-        <v>0</v>
+        <v>384.5</v>
       </c>
       <c r="L119" s="66">
-        <v>0</v>
+        <v>384.5</v>
       </c>
       <c r="M119" s="36">
-        <v>0</v>
+        <v>384.5</v>
       </c>
       <c r="N119" s="36">
-        <v>0</v>
+        <v>384.5</v>
       </c>
       <c r="O119" s="58">
-        <v>0</v>
+        <v>384.5</v>
       </c>
       <c r="P119" s="58">
-        <v>2840.0000000000009</v>
+        <v>8426.9</v>
       </c>
     </row>
     <row r="120" ht="24" customHeight="1">
@@ -5762,37 +5765,37 @@
         <v>25</v>
       </c>
       <c r="E120" s="38">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F120" s="74">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="G120" s="73">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="H120" s="38">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="I120" s="38">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="J120" s="38">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="K120" s="74">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L120" s="73">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="M120" s="38">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="N120" s="38">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="O120" s="74">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="P120" s="74">
         <v>25</v>
@@ -5803,46 +5806,46 @@
         <v>60</v>
       </c>
       <c r="C121" s="70">
-        <v>35500</v>
+        <v>52467.5</v>
       </c>
       <c r="D121" s="71">
-        <v>35500</v>
+        <v>52467.5</v>
       </c>
       <c r="E121" s="71">
-        <v>0</v>
+        <v>9612.5</v>
       </c>
       <c r="F121" s="72">
-        <v>0</v>
+        <v>9612.5</v>
       </c>
       <c r="G121" s="70">
-        <v>0</v>
+        <v>9612.5</v>
       </c>
       <c r="H121" s="71">
-        <v>0</v>
+        <v>9612.5</v>
       </c>
       <c r="I121" s="71">
-        <v>0</v>
+        <v>9612.5</v>
       </c>
       <c r="J121" s="71">
-        <v>0</v>
+        <v>9612.5</v>
       </c>
       <c r="K121" s="72">
-        <v>0</v>
+        <v>9612.5</v>
       </c>
       <c r="L121" s="70">
-        <v>0</v>
+        <v>9612.5</v>
       </c>
       <c r="M121" s="71">
-        <v>0</v>
+        <v>9612.5</v>
       </c>
       <c r="N121" s="71">
-        <v>0</v>
+        <v>9612.5</v>
       </c>
       <c r="O121" s="72">
-        <v>0</v>
+        <v>9612.5</v>
       </c>
       <c r="P121" s="72">
-        <v>71000</v>
+        <v>210672.5</v>
       </c>
     </row>
     <row r="122" ht="30" customHeight="1">
@@ -5865,7 +5868,7 @@
       <c r="P122" s="91"/>
     </row>
     <row r="124">
-      <c r="B124" s="53" t="s">
+      <c r="B124" s="105" t="s">
         <v>77</v>
       </c>
       <c r="C124" s="98" t="s">
@@ -5939,46 +5942,46 @@
         <v>59</v>
       </c>
       <c r="C126" s="63">
-        <v>0.035500000000000018</v>
+        <v>0.0524675</v>
       </c>
       <c r="D126" s="64">
-        <v>0.035500000000000018</v>
+        <v>0.0524675</v>
       </c>
       <c r="E126" s="64">
-        <v>0</v>
+        <v>0.0096125</v>
       </c>
       <c r="F126" s="65">
-        <v>0</v>
+        <v>0.0096125</v>
       </c>
       <c r="G126" s="63">
-        <v>0</v>
+        <v>0.0096125</v>
       </c>
       <c r="H126" s="64">
-        <v>0</v>
+        <v>0.0096125</v>
       </c>
       <c r="I126" s="64">
-        <v>0</v>
+        <v>0.0096125</v>
       </c>
       <c r="J126" s="64">
-        <v>0</v>
+        <v>0.0096125</v>
       </c>
       <c r="K126" s="65">
-        <v>0</v>
+        <v>0.0096125</v>
       </c>
       <c r="L126" s="63">
-        <v>0</v>
+        <v>0.0096125</v>
       </c>
       <c r="M126" s="64">
-        <v>0</v>
+        <v>0.0096125</v>
       </c>
       <c r="N126" s="64">
-        <v>0</v>
+        <v>0.0096125</v>
       </c>
       <c r="O126" s="65">
-        <v>0</v>
+        <v>0.0096125</v>
       </c>
       <c r="P126" s="69">
-        <v>0.071000000000000035</v>
+        <v>0.21067249999999996</v>
       </c>
     </row>
     <row r="127" ht="24" customHeight="1">
@@ -6033,46 +6036,46 @@
         <v>28</v>
       </c>
       <c r="C128" s="66">
-        <v>1420.0000000000005</v>
+        <v>2098.7</v>
       </c>
       <c r="D128" s="36">
-        <v>1420.0000000000005</v>
+        <v>2098.7</v>
       </c>
       <c r="E128" s="36">
-        <v>0</v>
+        <v>384.5</v>
       </c>
       <c r="F128" s="58">
-        <v>0</v>
+        <v>384.5</v>
       </c>
       <c r="G128" s="66">
-        <v>0</v>
+        <v>384.5</v>
       </c>
       <c r="H128" s="36">
-        <v>0</v>
+        <v>384.5</v>
       </c>
       <c r="I128" s="36">
-        <v>0</v>
+        <v>384.5</v>
       </c>
       <c r="J128" s="36">
-        <v>0</v>
+        <v>384.5</v>
       </c>
       <c r="K128" s="58">
-        <v>0</v>
+        <v>384.5</v>
       </c>
       <c r="L128" s="66">
-        <v>0</v>
+        <v>384.5</v>
       </c>
       <c r="M128" s="36">
-        <v>0</v>
+        <v>384.5</v>
       </c>
       <c r="N128" s="36">
-        <v>0</v>
+        <v>384.5</v>
       </c>
       <c r="O128" s="58">
-        <v>0</v>
+        <v>384.5</v>
       </c>
       <c r="P128" s="58">
-        <v>2840.0000000000009</v>
+        <v>8426.9</v>
       </c>
     </row>
     <row r="129" ht="24" customHeight="1">
@@ -6086,37 +6089,37 @@
         <v>25</v>
       </c>
       <c r="E129" s="38">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F129" s="74">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="G129" s="73">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="H129" s="38">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="I129" s="38">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="J129" s="38">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="K129" s="74">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L129" s="73">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="M129" s="38">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="N129" s="38">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="O129" s="74">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="P129" s="74">
         <v>25</v>
@@ -6127,46 +6130,46 @@
         <v>60</v>
       </c>
       <c r="C130" s="70">
-        <v>35500</v>
+        <v>52467.5</v>
       </c>
       <c r="D130" s="71">
-        <v>35500</v>
+        <v>52467.5</v>
       </c>
       <c r="E130" s="71">
-        <v>0</v>
+        <v>9612.5</v>
       </c>
       <c r="F130" s="72">
-        <v>0</v>
+        <v>9612.5</v>
       </c>
       <c r="G130" s="70">
-        <v>0</v>
+        <v>9612.5</v>
       </c>
       <c r="H130" s="71">
-        <v>0</v>
+        <v>9612.5</v>
       </c>
       <c r="I130" s="71">
-        <v>0</v>
+        <v>9612.5</v>
       </c>
       <c r="J130" s="71">
-        <v>0</v>
+        <v>9612.5</v>
       </c>
       <c r="K130" s="72">
-        <v>0</v>
+        <v>9612.5</v>
       </c>
       <c r="L130" s="70">
-        <v>0</v>
+        <v>9612.5</v>
       </c>
       <c r="M130" s="71">
-        <v>0</v>
+        <v>9612.5</v>
       </c>
       <c r="N130" s="71">
-        <v>0</v>
+        <v>9612.5</v>
       </c>
       <c r="O130" s="72">
-        <v>0</v>
+        <v>9612.5</v>
       </c>
       <c r="P130" s="72">
-        <v>71000</v>
+        <v>210672.5</v>
       </c>
     </row>
     <row r="131" ht="30" customHeight="1">
@@ -6189,7 +6192,7 @@
       <c r="P131" s="91"/>
     </row>
     <row r="133">
-      <c r="B133" s="53" t="s">
+      <c r="B133" s="105" t="s">
         <v>78</v>
       </c>
       <c r="C133" s="98" t="s">
@@ -6263,46 +6266,46 @@
         <v>59</v>
       </c>
       <c r="C135" s="63">
-        <v>0.035500000000000018</v>
+        <v>0.0096125</v>
       </c>
       <c r="D135" s="64">
-        <v>0.035500000000000018</v>
+        <v>0.0096125</v>
       </c>
       <c r="E135" s="64">
-        <v>0</v>
+        <v>0.0096125</v>
       </c>
       <c r="F135" s="65">
-        <v>0</v>
+        <v>0.0096125</v>
       </c>
       <c r="G135" s="63">
-        <v>0</v>
+        <v>0.0096125</v>
       </c>
       <c r="H135" s="64">
-        <v>0</v>
+        <v>0.0096125</v>
       </c>
       <c r="I135" s="64">
-        <v>0</v>
+        <v>0.0096125</v>
       </c>
       <c r="J135" s="64">
-        <v>0</v>
+        <v>0.0096125</v>
       </c>
       <c r="K135" s="65">
-        <v>0</v>
+        <v>0.0096125</v>
       </c>
       <c r="L135" s="63">
-        <v>0</v>
+        <v>0.0096125</v>
       </c>
       <c r="M135" s="64">
-        <v>0</v>
+        <v>0.0096125</v>
       </c>
       <c r="N135" s="64">
-        <v>0</v>
+        <v>0.0096125</v>
       </c>
       <c r="O135" s="65">
-        <v>0</v>
+        <v>0.0096125</v>
       </c>
       <c r="P135" s="69">
-        <v>0.071000000000000035</v>
+        <v>0.12496249999999996</v>
       </c>
     </row>
     <row r="136" ht="24" customHeight="1">
@@ -6357,46 +6360,46 @@
         <v>28</v>
       </c>
       <c r="C137" s="66">
-        <v>1420.0000000000005</v>
+        <v>384.5</v>
       </c>
       <c r="D137" s="36">
-        <v>1420.0000000000005</v>
+        <v>384.5</v>
       </c>
       <c r="E137" s="36">
-        <v>0</v>
+        <v>384.5</v>
       </c>
       <c r="F137" s="58">
-        <v>0</v>
+        <v>384.5</v>
       </c>
       <c r="G137" s="66">
-        <v>0</v>
+        <v>384.5</v>
       </c>
       <c r="H137" s="36">
-        <v>0</v>
+        <v>384.5</v>
       </c>
       <c r="I137" s="36">
-        <v>0</v>
+        <v>384.5</v>
       </c>
       <c r="J137" s="36">
-        <v>0</v>
+        <v>384.5</v>
       </c>
       <c r="K137" s="58">
-        <v>0</v>
+        <v>384.5</v>
       </c>
       <c r="L137" s="66">
-        <v>0</v>
+        <v>384.5</v>
       </c>
       <c r="M137" s="36">
-        <v>0</v>
+        <v>384.5</v>
       </c>
       <c r="N137" s="36">
-        <v>0</v>
+        <v>384.5</v>
       </c>
       <c r="O137" s="58">
-        <v>0</v>
+        <v>384.5</v>
       </c>
       <c r="P137" s="58">
-        <v>2840.0000000000009</v>
+        <v>4998.5</v>
       </c>
     </row>
     <row r="138" ht="24" customHeight="1">
@@ -6410,37 +6413,37 @@
         <v>25</v>
       </c>
       <c r="E138" s="38">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F138" s="74">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="G138" s="73">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="H138" s="38">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="I138" s="38">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="J138" s="38">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="K138" s="74">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L138" s="73">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="M138" s="38">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="N138" s="38">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="O138" s="74">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="P138" s="74">
         <v>25</v>
@@ -6451,46 +6454,46 @@
         <v>60</v>
       </c>
       <c r="C139" s="70">
-        <v>35500</v>
+        <v>9612.5</v>
       </c>
       <c r="D139" s="71">
-        <v>35500</v>
+        <v>9612.5</v>
       </c>
       <c r="E139" s="71">
-        <v>0</v>
+        <v>9612.5</v>
       </c>
       <c r="F139" s="72">
-        <v>0</v>
+        <v>9612.5</v>
       </c>
       <c r="G139" s="70">
-        <v>0</v>
+        <v>9612.5</v>
       </c>
       <c r="H139" s="71">
-        <v>0</v>
+        <v>9612.5</v>
       </c>
       <c r="I139" s="71">
-        <v>0</v>
+        <v>9612.5</v>
       </c>
       <c r="J139" s="71">
-        <v>0</v>
+        <v>9612.5</v>
       </c>
       <c r="K139" s="72">
-        <v>0</v>
+        <v>9612.5</v>
       </c>
       <c r="L139" s="70">
-        <v>0</v>
+        <v>9612.5</v>
       </c>
       <c r="M139" s="71">
-        <v>0</v>
+        <v>9612.5</v>
       </c>
       <c r="N139" s="71">
-        <v>0</v>
+        <v>9612.5</v>
       </c>
       <c r="O139" s="72">
-        <v>0</v>
+        <v>9612.5</v>
       </c>
       <c r="P139" s="72">
-        <v>71000</v>
+        <v>124962.5</v>
       </c>
     </row>
     <row r="140" ht="30" customHeight="1">
@@ -6513,7 +6516,7 @@
       <c r="P140" s="91"/>
     </row>
     <row r="142">
-      <c r="B142" s="53" t="s">
+      <c r="B142" s="105" t="s">
         <v>79</v>
       </c>
       <c r="C142" s="98" t="s">
@@ -6587,46 +6590,46 @@
         <v>59</v>
       </c>
       <c r="C144" s="63">
-        <v>0.035500000000000018</v>
+        <v>0.0096125</v>
       </c>
       <c r="D144" s="64">
-        <v>0.035500000000000018</v>
+        <v>0.0096125</v>
       </c>
       <c r="E144" s="64">
-        <v>0</v>
+        <v>0.0096125</v>
       </c>
       <c r="F144" s="65">
-        <v>0</v>
+        <v>0.0096125</v>
       </c>
       <c r="G144" s="63">
-        <v>0</v>
+        <v>0.0096125</v>
       </c>
       <c r="H144" s="64">
-        <v>0</v>
+        <v>0.0096125</v>
       </c>
       <c r="I144" s="64">
-        <v>0</v>
+        <v>0.0096125</v>
       </c>
       <c r="J144" s="64">
-        <v>0</v>
+        <v>0.0096125</v>
       </c>
       <c r="K144" s="65">
-        <v>0</v>
+        <v>0.0096125</v>
       </c>
       <c r="L144" s="63">
-        <v>0</v>
+        <v>0.0096125</v>
       </c>
       <c r="M144" s="64">
-        <v>0</v>
+        <v>0.0096125</v>
       </c>
       <c r="N144" s="64">
-        <v>0</v>
+        <v>0.0096125</v>
       </c>
       <c r="O144" s="65">
-        <v>0</v>
+        <v>0.0096125</v>
       </c>
       <c r="P144" s="69">
-        <v>0.071000000000000035</v>
+        <v>0.12496249999999996</v>
       </c>
     </row>
     <row r="145" ht="24" customHeight="1">
@@ -6681,46 +6684,46 @@
         <v>28</v>
       </c>
       <c r="C146" s="66">
-        <v>1420.0000000000005</v>
+        <v>384.5</v>
       </c>
       <c r="D146" s="36">
-        <v>1420.0000000000005</v>
+        <v>384.5</v>
       </c>
       <c r="E146" s="36">
-        <v>0</v>
+        <v>384.5</v>
       </c>
       <c r="F146" s="58">
-        <v>0</v>
+        <v>384.5</v>
       </c>
       <c r="G146" s="66">
-        <v>0</v>
+        <v>384.5</v>
       </c>
       <c r="H146" s="36">
-        <v>0</v>
+        <v>384.5</v>
       </c>
       <c r="I146" s="36">
-        <v>0</v>
+        <v>384.5</v>
       </c>
       <c r="J146" s="36">
-        <v>0</v>
+        <v>384.5</v>
       </c>
       <c r="K146" s="58">
-        <v>0</v>
+        <v>384.5</v>
       </c>
       <c r="L146" s="66">
-        <v>0</v>
+        <v>384.5</v>
       </c>
       <c r="M146" s="36">
-        <v>0</v>
+        <v>384.5</v>
       </c>
       <c r="N146" s="36">
-        <v>0</v>
+        <v>384.5</v>
       </c>
       <c r="O146" s="58">
-        <v>0</v>
+        <v>384.5</v>
       </c>
       <c r="P146" s="58">
-        <v>2840.0000000000009</v>
+        <v>4998.5</v>
       </c>
     </row>
     <row r="147" ht="24" customHeight="1">
@@ -6734,37 +6737,37 @@
         <v>25</v>
       </c>
       <c r="E147" s="38">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F147" s="74">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="G147" s="73">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="H147" s="38">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="I147" s="38">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="J147" s="38">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="K147" s="74">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L147" s="73">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="M147" s="38">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="N147" s="38">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="O147" s="74">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="P147" s="74">
         <v>25</v>
@@ -6775,46 +6778,46 @@
         <v>60</v>
       </c>
       <c r="C148" s="70">
-        <v>35500</v>
+        <v>9612.5</v>
       </c>
       <c r="D148" s="71">
-        <v>35500</v>
+        <v>9612.5</v>
       </c>
       <c r="E148" s="71">
-        <v>0</v>
+        <v>9612.5</v>
       </c>
       <c r="F148" s="72">
-        <v>0</v>
+        <v>9612.5</v>
       </c>
       <c r="G148" s="70">
-        <v>0</v>
+        <v>9612.5</v>
       </c>
       <c r="H148" s="71">
-        <v>0</v>
+        <v>9612.5</v>
       </c>
       <c r="I148" s="71">
-        <v>0</v>
+        <v>9612.5</v>
       </c>
       <c r="J148" s="71">
-        <v>0</v>
+        <v>9612.5</v>
       </c>
       <c r="K148" s="72">
-        <v>0</v>
+        <v>9612.5</v>
       </c>
       <c r="L148" s="70">
-        <v>0</v>
+        <v>9612.5</v>
       </c>
       <c r="M148" s="71">
-        <v>0</v>
+        <v>9612.5</v>
       </c>
       <c r="N148" s="71">
-        <v>0</v>
+        <v>9612.5</v>
       </c>
       <c r="O148" s="72">
-        <v>0</v>
+        <v>9612.5</v>
       </c>
       <c r="P148" s="72">
-        <v>71000</v>
+        <v>124962.5</v>
       </c>
     </row>
     <row r="149" ht="30" customHeight="1">
@@ -9496,11 +9499,6 @@
     </row>
   </sheetData>
   <mergeCells>
-    <mergeCell ref="G7:L7"/>
-    <mergeCell ref="N7:T7"/>
-    <mergeCell ref="G13:L13"/>
-    <mergeCell ref="N13:T13"/>
-    <mergeCell ref="C35:T35"/>
     <mergeCell ref="C37:T37"/>
     <mergeCell ref="C39:T39"/>
     <mergeCell ref="C41:T41"/>
@@ -9510,6 +9508,11 @@
     <mergeCell ref="N25:T25"/>
     <mergeCell ref="C31:T31"/>
     <mergeCell ref="C33:T33"/>
+    <mergeCell ref="G7:L7"/>
+    <mergeCell ref="N7:T7"/>
+    <mergeCell ref="G13:L13"/>
+    <mergeCell ref="N13:T13"/>
+    <mergeCell ref="C35:T35"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="50" fitToHeight="0" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
@@ -9739,25 +9742,25 @@
         <v>0</v>
       </c>
       <c r="G9" s="85">
-        <v>127142.85714285715</v>
+        <v>71430</v>
       </c>
       <c r="H9" s="86">
         <v>0</v>
       </c>
       <c r="I9" s="87">
-        <v>9.22845406130006</v>
+        <v>4.7286660000000005</v>
       </c>
       <c r="J9" s="83">
         <v>0</v>
       </c>
       <c r="K9" s="83">
-        <v>10171.428571428571</v>
+        <v>5714.4</v>
       </c>
       <c r="L9" s="88">
-        <v>12.499999999999966</v>
+        <v>12.5</v>
       </c>
       <c r="M9" s="85">
-        <v>13777.264999999998</v>
+        <v>15105.740181268882</v>
       </c>
       <c r="N9" s="89">
         <v>0.5</v>
@@ -9766,19 +9769,19 @@
         <v>0</v>
       </c>
       <c r="P9" s="87">
-        <v>38.0019837889515</v>
+        <v>17.5</v>
       </c>
       <c r="Q9" s="83">
         <v>0</v>
       </c>
       <c r="R9" s="83">
-        <v>5085.7142857142853</v>
+        <v>2857.2</v>
       </c>
       <c r="S9" s="88">
-        <v>24.999999999999975</v>
+        <v>25</v>
       </c>
       <c r="T9" s="85">
-        <v>3345.69</v>
+        <v>4081.7142857142853</v>
       </c>
     </row>
     <row r="10" ht="24" customHeight="1">
@@ -9799,25 +9802,25 @@
         <v>0</v>
       </c>
       <c r="G10" s="85">
-        <v>125000</v>
+        <v>71430</v>
       </c>
       <c r="H10" s="86">
         <v>0</v>
       </c>
       <c r="I10" s="87">
-        <v>9.072918318693878</v>
+        <v>4.7286660000000005</v>
       </c>
       <c r="J10" s="83">
         <v>0</v>
       </c>
       <c r="K10" s="83">
-        <v>10000</v>
+        <v>5714.4</v>
       </c>
       <c r="L10" s="88">
         <v>12.5</v>
       </c>
       <c r="M10" s="85">
-        <v>13777.264999999996</v>
+        <v>15105.740181268882</v>
       </c>
       <c r="N10" s="89">
         <v>0.5</v>
@@ -9826,19 +9829,19 @@
         <v>0</v>
       </c>
       <c r="P10" s="87">
-        <v>37.361500916104</v>
+        <v>17.5</v>
       </c>
       <c r="Q10" s="83">
         <v>0</v>
       </c>
       <c r="R10" s="83">
-        <v>5000</v>
+        <v>2857.2</v>
       </c>
       <c r="S10" s="88">
         <v>25</v>
       </c>
       <c r="T10" s="85">
-        <v>3345.69</v>
+        <v>4081.7142857142853</v>
       </c>
     </row>
     <row r="11" ht="24" customHeight="1">
@@ -9859,25 +9862,25 @@
         <v>0</v>
       </c>
       <c r="G11" s="85">
-        <v>177500</v>
+        <v>339327.5</v>
       </c>
       <c r="H11" s="86">
         <v>0</v>
       </c>
       <c r="I11" s="87">
-        <v>12.883544012545309</v>
+        <v>22.463480500000003</v>
       </c>
       <c r="J11" s="83">
         <v>0</v>
       </c>
       <c r="K11" s="83">
-        <v>14200.000000000004</v>
+        <v>27146.2</v>
       </c>
       <c r="L11" s="88">
         <v>12.5</v>
       </c>
       <c r="M11" s="85">
-        <v>13777.265000000007</v>
+        <v>15105.740181268882</v>
       </c>
       <c r="N11" s="89">
         <v>0.5</v>
@@ -9886,19 +9889,19 @@
         <v>0</v>
       </c>
       <c r="P11" s="87">
-        <v>53.05333130086769</v>
+        <v>84.7</v>
       </c>
       <c r="Q11" s="83">
         <v>0</v>
       </c>
       <c r="R11" s="83">
-        <v>7100.0000000000018</v>
+        <v>13573.1</v>
       </c>
       <c r="S11" s="88">
         <v>25</v>
       </c>
       <c r="T11" s="85">
-        <v>3345.6899999999987</v>
+        <v>4006.2278630460446</v>
       </c>
     </row>
     <row r="12" ht="24" customHeight="1">
@@ -9919,25 +9922,25 @@
         <v>0</v>
       </c>
       <c r="G12" s="85">
-        <v>177500</v>
+        <v>125037.5</v>
       </c>
       <c r="H12" s="86">
         <v>0</v>
       </c>
       <c r="I12" s="87">
-        <v>12.883544012545309</v>
+        <v>8.2774825000000014</v>
       </c>
       <c r="J12" s="83">
         <v>0</v>
       </c>
       <c r="K12" s="83">
-        <v>14200.000000000004</v>
+        <v>10003</v>
       </c>
       <c r="L12" s="88">
         <v>12.5</v>
       </c>
       <c r="M12" s="85">
-        <v>13777.265000000007</v>
+        <v>15105.740181268882</v>
       </c>
       <c r="N12" s="89">
         <v>0.5</v>
@@ -9946,19 +9949,19 @@
         <v>0</v>
       </c>
       <c r="P12" s="87">
-        <v>53.05333130086769</v>
+        <v>31.199999999999992</v>
       </c>
       <c r="Q12" s="83">
         <v>0</v>
       </c>
       <c r="R12" s="83">
-        <v>7100.0000000000018</v>
+        <v>5001.5</v>
       </c>
       <c r="S12" s="88">
         <v>25</v>
       </c>
       <c r="T12" s="85">
-        <v>3345.6899999999987</v>
+        <v>4007.6121794871792</v>
       </c>
     </row>
     <row r="13" ht="24" customHeight="1">
@@ -9974,25 +9977,25 @@
         <v>38</v>
       </c>
       <c r="G13" s="43">
-        <v>607142.85714285716</v>
+        <v>607225</v>
       </c>
       <c r="H13" s="52" t="s">
         <v>38</v>
       </c>
       <c r="I13" s="79">
-        <v>44.068460405084551</v>
+        <v>40.198295</v>
       </c>
       <c r="J13" s="51" t="s">
         <v>38</v>
       </c>
       <c r="K13" s="51">
-        <v>48571.42857142858</v>
+        <v>48578</v>
       </c>
       <c r="L13" s="47">
-        <v>12.499999999999993</v>
+        <v>12.5</v>
       </c>
       <c r="M13" s="43">
-        <v>13777.264999999983</v>
+        <v>15105.740181268882</v>
       </c>
       <c r="N13" s="45" t="s">
         <v>38</v>
@@ -10001,19 +10004,19 @@
         <v>38</v>
       </c>
       <c r="P13" s="79">
-        <v>181.47014730679086</v>
+        <v>150.9</v>
       </c>
       <c r="Q13" s="51" t="s">
         <v>38</v>
       </c>
       <c r="R13" s="51">
-        <v>24285.71428571429</v>
+        <v>24289</v>
       </c>
       <c r="S13" s="47">
-        <v>24.999999999999986</v>
+        <v>25</v>
       </c>
       <c r="T13" s="43">
-        <v>3345.6899999999973</v>
+        <v>4024.0225314778</v>
       </c>
     </row>
     <row r="15" ht="24" customHeight="1">
@@ -10120,25 +10123,25 @@
         <v>0</v>
       </c>
       <c r="G17" s="85">
-        <v>125857.14285714286</v>
+        <v>28570</v>
       </c>
       <c r="H17" s="86">
         <v>0</v>
       </c>
       <c r="I17" s="87">
-        <v>9.13513261573635</v>
+        <v>1.8913340000000003</v>
       </c>
       <c r="J17" s="83">
         <v>0</v>
       </c>
       <c r="K17" s="83">
-        <v>10068.571428571429</v>
+        <v>2285.6</v>
       </c>
       <c r="L17" s="88">
-        <v>12.500000000000036</v>
+        <v>12.5</v>
       </c>
       <c r="M17" s="85">
-        <v>13777.265</v>
+        <v>15105.740181268882</v>
       </c>
       <c r="N17" s="89">
         <v>0.5</v>
@@ -10147,19 +10150,19 @@
         <v>0</v>
       </c>
       <c r="P17" s="87">
-        <v>37.617694065243</v>
+        <v>7</v>
       </c>
       <c r="Q17" s="83">
         <v>0</v>
       </c>
       <c r="R17" s="83">
-        <v>5034.2857142857147</v>
+        <v>1142.8</v>
       </c>
       <c r="S17" s="88">
-        <v>25.000000000000018</v>
+        <v>25</v>
       </c>
       <c r="T17" s="85">
-        <v>3345.69</v>
+        <v>4081.4285714285706</v>
       </c>
     </row>
     <row r="18" ht="24" customHeight="1">
@@ -10180,25 +10183,25 @@
         <v>0</v>
       </c>
       <c r="G18" s="85">
-        <v>125000</v>
+        <v>28570</v>
       </c>
       <c r="H18" s="86">
         <v>0</v>
       </c>
       <c r="I18" s="87">
-        <v>9.072918318693878</v>
+        <v>1.8913340000000003</v>
       </c>
       <c r="J18" s="83">
         <v>0</v>
       </c>
       <c r="K18" s="83">
-        <v>10000</v>
+        <v>2285.6</v>
       </c>
       <c r="L18" s="88">
         <v>12.5</v>
       </c>
       <c r="M18" s="85">
-        <v>13777.264999999996</v>
+        <v>15105.740181268882</v>
       </c>
       <c r="N18" s="89">
         <v>0.5</v>
@@ -10207,19 +10210,19 @@
         <v>0</v>
       </c>
       <c r="P18" s="87">
-        <v>37.361500916104</v>
+        <v>7</v>
       </c>
       <c r="Q18" s="83">
         <v>0</v>
       </c>
       <c r="R18" s="83">
-        <v>5000</v>
+        <v>1142.8</v>
       </c>
       <c r="S18" s="88">
         <v>25</v>
       </c>
       <c r="T18" s="85">
-        <v>3345.69</v>
+        <v>4081.4285714285706</v>
       </c>
     </row>
     <row r="19" ht="24" customHeight="1">
@@ -10240,25 +10243,25 @@
         <v>0</v>
       </c>
       <c r="G19" s="85">
-        <v>71000</v>
+        <v>210672.5</v>
       </c>
       <c r="H19" s="86">
         <v>0</v>
       </c>
       <c r="I19" s="87">
-        <v>5.1534176050181246</v>
+        <v>13.9465195</v>
       </c>
       <c r="J19" s="83">
         <v>0</v>
       </c>
       <c r="K19" s="83">
-        <v>5680.0000000000018</v>
+        <v>16853.8</v>
       </c>
       <c r="L19" s="88">
         <v>12.5</v>
       </c>
       <c r="M19" s="85">
-        <v>13777.265000000007</v>
+        <v>15105.740181268882</v>
       </c>
       <c r="N19" s="89">
         <v>0.5</v>
@@ -10267,19 +10270,19 @@
         <v>0</v>
       </c>
       <c r="P19" s="87">
-        <v>21.22133252034708</v>
+        <v>52.599999999999994</v>
       </c>
       <c r="Q19" s="83">
         <v>0</v>
       </c>
       <c r="R19" s="83">
-        <v>2840.0000000000009</v>
+        <v>8426.9</v>
       </c>
       <c r="S19" s="88">
         <v>25</v>
       </c>
       <c r="T19" s="85">
-        <v>3345.6899999999955</v>
+        <v>4005.180608365019</v>
       </c>
     </row>
     <row r="20" ht="24" customHeight="1">
@@ -10300,25 +10303,25 @@
         <v>0</v>
       </c>
       <c r="G20" s="85">
-        <v>71000</v>
+        <v>124962.5</v>
       </c>
       <c r="H20" s="86">
         <v>0</v>
       </c>
       <c r="I20" s="87">
-        <v>5.1534176050181246</v>
+        <v>8.2725175000000011</v>
       </c>
       <c r="J20" s="83">
         <v>0</v>
       </c>
       <c r="K20" s="83">
-        <v>5680.0000000000018</v>
+        <v>9997</v>
       </c>
       <c r="L20" s="88">
         <v>12.5</v>
       </c>
       <c r="M20" s="85">
-        <v>13777.265000000007</v>
+        <v>15105.740181268882</v>
       </c>
       <c r="N20" s="89">
         <v>0.5</v>
@@ -10327,19 +10330,19 @@
         <v>0</v>
       </c>
       <c r="P20" s="87">
-        <v>21.22133252034708</v>
+        <v>31.199999999999992</v>
       </c>
       <c r="Q20" s="83">
         <v>0</v>
       </c>
       <c r="R20" s="83">
-        <v>2840.0000000000009</v>
+        <v>4998.5</v>
       </c>
       <c r="S20" s="88">
         <v>25</v>
       </c>
       <c r="T20" s="85">
-        <v>3345.6899999999955</v>
+        <v>4005.208333333333</v>
       </c>
     </row>
     <row r="21" ht="24" customHeight="1">
@@ -10355,25 +10358,25 @@
         <v>38</v>
       </c>
       <c r="G21" s="43">
-        <v>392857.14285714284</v>
+        <v>392775</v>
       </c>
       <c r="H21" s="52" t="s">
         <v>38</v>
       </c>
       <c r="I21" s="79">
-        <v>28.514886144466473</v>
+        <v>26.001705</v>
       </c>
       <c r="J21" s="51" t="s">
         <v>38</v>
       </c>
       <c r="K21" s="51">
-        <v>31428.571428571428</v>
+        <v>31422</v>
       </c>
       <c r="L21" s="47">
-        <v>12.500000000000012</v>
+        <v>12.5</v>
       </c>
       <c r="M21" s="43">
-        <v>13777.264999999987</v>
+        <v>15105.740181268882</v>
       </c>
       <c r="N21" s="45" t="s">
         <v>38</v>
@@ -10382,19 +10385,19 @@
         <v>38</v>
       </c>
       <c r="P21" s="79">
-        <v>117.42186002204116</v>
+        <v>97.799999999999983</v>
       </c>
       <c r="Q21" s="51" t="s">
         <v>38</v>
       </c>
       <c r="R21" s="51">
-        <v>15714.285714285714</v>
+        <v>15711</v>
       </c>
       <c r="S21" s="47">
-        <v>25.000000000000025</v>
+        <v>25</v>
       </c>
       <c r="T21" s="43">
-        <v>3345.6900000000046</v>
+        <v>4016.1042944785272</v>
       </c>
     </row>
     <row r="23" ht="24" customHeight="1">
@@ -10501,25 +10504,25 @@
         <v>0</v>
       </c>
       <c r="G25" s="85">
-        <v>253000</v>
+        <v>100000</v>
       </c>
       <c r="H25" s="86">
         <v>0</v>
       </c>
       <c r="I25" s="87">
-        <v>18.363586677036409</v>
+        <v>6.620000000000001</v>
       </c>
       <c r="J25" s="83">
         <v>0</v>
       </c>
       <c r="K25" s="83">
-        <v>20240</v>
+        <v>8000</v>
       </c>
       <c r="L25" s="88">
-        <v>12.499999999999998</v>
+        <v>12.5</v>
       </c>
       <c r="M25" s="85">
-        <v>13777.265000000007</v>
+        <v>15105.740181268882</v>
       </c>
       <c r="N25" s="89">
         <v>0.5</v>
@@ -10528,19 +10531,19 @@
         <v>0</v>
       </c>
       <c r="P25" s="87">
-        <v>75.619677854194492</v>
+        <v>24.5</v>
       </c>
       <c r="Q25" s="83">
         <v>0</v>
       </c>
       <c r="R25" s="83">
-        <v>10120</v>
+        <v>4000</v>
       </c>
       <c r="S25" s="88">
-        <v>24.999999999999996</v>
+        <v>25</v>
       </c>
       <c r="T25" s="85">
-        <v>3345.69</v>
+        <v>4081.6326530612237</v>
       </c>
     </row>
     <row r="26" ht="24" customHeight="1">
@@ -10561,25 +10564,25 @@
         <v>0</v>
       </c>
       <c r="G26" s="85">
-        <v>250000</v>
+        <v>100000</v>
       </c>
       <c r="H26" s="86">
         <v>0</v>
       </c>
       <c r="I26" s="87">
-        <v>18.145836637387756</v>
+        <v>6.620000000000001</v>
       </c>
       <c r="J26" s="83">
         <v>0</v>
       </c>
       <c r="K26" s="83">
-        <v>20000</v>
+        <v>8000</v>
       </c>
       <c r="L26" s="88">
         <v>12.5</v>
       </c>
       <c r="M26" s="85">
-        <v>13777.264999999967</v>
+        <v>15105.740181268882</v>
       </c>
       <c r="N26" s="89">
         <v>0.5</v>
@@ -10588,19 +10591,19 @@
         <v>0</v>
       </c>
       <c r="P26" s="87">
-        <v>74.723001832208</v>
+        <v>24.5</v>
       </c>
       <c r="Q26" s="83">
         <v>0</v>
       </c>
       <c r="R26" s="83">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="S26" s="88">
         <v>25</v>
       </c>
       <c r="T26" s="85">
-        <v>3345.69</v>
+        <v>4081.6326530612237</v>
       </c>
     </row>
     <row r="27" ht="24" customHeight="1">
@@ -10621,25 +10624,25 @@
         <v>0</v>
       </c>
       <c r="G27" s="85">
-        <v>248500</v>
+        <v>550000</v>
       </c>
       <c r="H27" s="86">
         <v>0</v>
       </c>
       <c r="I27" s="87">
-        <v>18.036961617563435</v>
+        <v>36.410000000000004</v>
       </c>
       <c r="J27" s="83">
         <v>0</v>
       </c>
       <c r="K27" s="83">
-        <v>19880.000000000007</v>
+        <v>44000</v>
       </c>
       <c r="L27" s="88">
         <v>12.5</v>
       </c>
       <c r="M27" s="85">
-        <v>13777.265000000021</v>
+        <v>15105.740181268882</v>
       </c>
       <c r="N27" s="89">
         <v>0.5</v>
@@ -10648,19 +10651,19 @@
         <v>0</v>
       </c>
       <c r="P27" s="87">
-        <v>74.274663821214773</v>
+        <v>137.3</v>
       </c>
       <c r="Q27" s="83">
         <v>0</v>
       </c>
       <c r="R27" s="83">
-        <v>9940.0000000000036</v>
+        <v>22000</v>
       </c>
       <c r="S27" s="88">
         <v>25</v>
       </c>
       <c r="T27" s="85">
-        <v>3345.6899999999978</v>
+        <v>4005.8266569555713</v>
       </c>
     </row>
     <row r="28" ht="24" customHeight="1">
@@ -10681,25 +10684,25 @@
         <v>0</v>
       </c>
       <c r="G28" s="85">
-        <v>248500</v>
+        <v>250000</v>
       </c>
       <c r="H28" s="86">
         <v>0</v>
       </c>
       <c r="I28" s="87">
-        <v>18.036961617563435</v>
+        <v>16.550000000000004</v>
       </c>
       <c r="J28" s="83">
         <v>0</v>
       </c>
       <c r="K28" s="83">
-        <v>19880.000000000007</v>
+        <v>20000</v>
       </c>
       <c r="L28" s="88">
         <v>12.5</v>
       </c>
       <c r="M28" s="85">
-        <v>13777.265000000021</v>
+        <v>15105.740181268882</v>
       </c>
       <c r="N28" s="89">
         <v>0.5</v>
@@ -10708,19 +10711,19 @@
         <v>0</v>
       </c>
       <c r="P28" s="87">
-        <v>74.274663821214773</v>
+        <v>62.399999999999984</v>
       </c>
       <c r="Q28" s="83">
         <v>0</v>
       </c>
       <c r="R28" s="83">
-        <v>9940.0000000000036</v>
+        <v>10000</v>
       </c>
       <c r="S28" s="88">
         <v>25</v>
       </c>
       <c r="T28" s="85">
-        <v>3345.6899999999978</v>
+        <v>4006.4102564102564</v>
       </c>
     </row>
     <row r="29" ht="24" customHeight="1">
@@ -10742,19 +10745,19 @@
         <v>38</v>
       </c>
       <c r="I29" s="79">
-        <v>72.583346549551038</v>
+        <v>66.200000000000017</v>
       </c>
       <c r="J29" s="51" t="s">
         <v>38</v>
       </c>
       <c r="K29" s="51">
-        <v>80000.000000000015</v>
+        <v>80000</v>
       </c>
       <c r="L29" s="47">
-        <v>12.499999999999998</v>
+        <v>12.5</v>
       </c>
       <c r="M29" s="43">
-        <v>13777.265000000005</v>
+        <v>15105.740181268882</v>
       </c>
       <c r="N29" s="45" t="s">
         <v>38</v>
@@ -10763,19 +10766,19 @@
         <v>38</v>
       </c>
       <c r="P29" s="79">
-        <v>298.89200732883205</v>
+        <v>248.7</v>
       </c>
       <c r="Q29" s="51" t="s">
         <v>38</v>
       </c>
       <c r="R29" s="51">
-        <v>40000.000000000007</v>
+        <v>40000</v>
       </c>
       <c r="S29" s="47">
-        <v>24.999999999999996</v>
+        <v>25</v>
       </c>
       <c r="T29" s="43">
-        <v>3345.69</v>
+        <v>4020.9087253719335</v>
       </c>
     </row>
     <row r="31" ht="48" customHeight="1">
@@ -10971,6 +10974,11 @@
     </row>
   </sheetData>
   <mergeCells>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="F33:T33"/>
     <mergeCell ref="F35:T35"/>
     <mergeCell ref="F37:T37"/>
     <mergeCell ref="F39:T39"/>
@@ -10980,11 +10988,6 @@
     <mergeCell ref="H7:M7"/>
     <mergeCell ref="N7:T7"/>
     <mergeCell ref="F31:T31"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="F33:T33"/>
     <mergeCell ref="H15:M15"/>
     <mergeCell ref="N15:T15"/>
     <mergeCell ref="H23:M23"/>

--- a/Source/Tam/MaestroTests/SupportTests/Services.Broadcast.IntegrationTests/Files/Campaign export/CampaignExport_ReservedPlanWithConstraints.xlsx
+++ b/Source/Tam/MaestroTests/SupportTests/Services.Broadcast.IntegrationTests/Files/Campaign export/CampaignExport_ReservedPlanWithConstraints.xlsx
@@ -286,7 +286,7 @@
     <t>Broadcast Proposal Campaign with all types of plans</t>
   </si>
   <si>
-    <t>Created 06/17/20</t>
+    <t>Created 08/05/20</t>
   </si>
   <si>
     <t>Stub Agency</t>
@@ -298,7 +298,7 @@
     <t>12/30/19 - 06/28/20</t>
   </si>
   <si>
-    <t>A21-24</t>
+    <t>A18+</t>
   </si>
   <si>
     <t>:90</t>
@@ -355,7 +355,7 @@
         <d:color rgb="FF3D5261"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
-      <d:t xml:space="preserve">Genre Excludes Documentary, Action/Adventure, Children (Plan ID 1850) | Program Includes BIG BANG THEORY, Big Bang Theory/Young Sheldon-CBS (Plan ID 1850)</d:t>
+      <d:t xml:space="preserve">Genre Excludes Action/Adventure, Children, Documentary (Plan ID 1850) | Program Includes BIG BANG THEORY, Big Bang Theory/Young Sheldon-CBS (Plan ID 1850)</d:t>
     </d:r>
     <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <d:rPr>
@@ -703,318 +703,318 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="106">
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="1" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="164" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="164" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="3" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="3" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="165" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="165" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="3" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="3" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="165" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="165" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="4" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="4" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="4" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="4" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="4" applyBorder="1" xfId="0">
+    <xf numFmtId="164" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="4" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="4" applyBorder="1" xfId="0">
+    <xf numFmtId="164" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="4" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="2" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="2" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="4" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="4" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="4" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="4" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="4" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="4" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="4" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="4" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="6" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="6" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="7" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="7" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="7" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="7" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="7" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="7" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="13" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="13" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="13" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="13" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="3" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="3" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="3" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="3" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="165" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="165" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="11" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="11" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="10" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="10" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="14" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="14" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="10" applyBorder="1" xfId="0">
+    <xf numFmtId="164" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="10" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="14" applyBorder="1" xfId="0">
+    <xf numFmtId="164" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="14" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="5" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="5" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="11" applyBorder="1" xfId="0">
+    <xf numFmtId="49" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="11" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="10" applyBorder="1" xfId="0">
+    <xf numFmtId="49" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="10" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="165" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="10" applyBorder="1" xfId="0">
+    <xf numFmtId="165" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="10" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="166" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="166" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="166" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="166" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="166" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="10" applyBorder="1" xfId="0">
+    <xf numFmtId="166" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="10" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="3" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="10" applyBorder="1" xfId="0">
+    <xf numFmtId="3" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="10" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="166" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="11" applyBorder="1" xfId="0">
+    <xf numFmtId="166" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="11" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="14" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="2" applyBorder="1" xfId="0">
+    <xf numFmtId="14" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="2" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="14" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="5" applyBorder="1" xfId="0">
+    <xf numFmtId="14" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="5" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="3" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="4" applyBorder="1" xfId="0">
+    <xf numFmtId="3" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="4" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="3" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="4" applyBorder="1" xfId="0">
+    <xf numFmtId="3" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="4" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="13" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="13" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="8" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="8" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="10" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="13" applyBorder="1" xfId="0">
+    <xf numFmtId="10" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="13" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="10" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="10" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="10" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="4" applyBorder="1" xfId="0">
+    <xf numFmtId="10" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="4" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="3" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="13" applyBorder="1" xfId="0">
+    <xf numFmtId="3" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="13" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="3" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="13" applyBorder="1" xfId="0">
+    <xf numFmtId="3" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="13" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="14" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="9" applyBorder="1" xfId="0">
+    <xf numFmtId="14" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="9" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="10" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="7" applyBorder="1" xfId="0">
+    <xf numFmtId="10" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="7" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="6" applyBorder="1" xfId="0">
+    <xf numFmtId="164" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="6" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="2" applyBorder="1" xfId="0">
+    <xf numFmtId="164" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="2" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="5" applyBorder="1" xfId="0">
+    <xf numFmtId="164" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="5" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="165" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="13" applyBorder="1" xfId="0">
+    <xf numFmtId="165" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="13" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="165" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="4" applyBorder="1" xfId="0">
+    <xf numFmtId="165" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="4" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="5" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="5" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1" indent="1"/>
     </xf>
-    <xf numFmtId="167" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="167" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="167" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="167" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="167" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="10" applyBorder="1" xfId="0">
+    <xf numFmtId="167" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="10" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1" indent="2"/>
     </xf>
-    <xf numFmtId="3" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="3" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="164" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="4" applyBorder="1" xfId="0">
+    <xf numFmtId="164" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="4" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="166" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="166" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="167" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="167" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="165" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="165" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="168" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="168" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="5" applyFill="1" borderId="9" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="5" applyFill="1" borderId="9" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="1" applyNumberFormat="1" fontId="9" applyFont="1" fillId="6" applyFill="1" borderId="15" applyBorder="1" xfId="0">
+    <xf numFmtId="1" applyNumberFormat="1" fontId="9" applyFont="1" fillId="6" applyFill="1" borderId="15" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="9" applyFont="1" fillId="6" applyFill="1" borderId="11" applyBorder="1" xfId="0">
+    <xf numFmtId="49" applyNumberFormat="1" fontId="9" applyFont="1" fillId="6" applyFill="1" borderId="11" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="9" applyFont="1" fillId="6" applyFill="1" borderId="10" applyBorder="1" xfId="0">
+    <xf numFmtId="49" applyNumberFormat="1" fontId="9" applyFont="1" fillId="6" applyFill="1" borderId="10" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="9" applyFont="1" fillId="6" applyFill="1" borderId="14" applyBorder="1" xfId="0">
+    <xf numFmtId="49" applyNumberFormat="1" fontId="9" applyFont="1" fillId="6" applyFill="1" borderId="14" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="12" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="12" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="3" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="3" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="4" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="4" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -1612,7 +1612,7 @@
       <c r="K2" s="5"/>
       <c r="P2" s="6" t="str">
         <f>'PROPOSAL'!T2</f>
-        <v>Created 06/17/20</v>
+        <v>Created 08/05/20</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1"/>
@@ -1630,7 +1630,7 @@
     <row r="5" ht="18" customHeight="1" s="3" customFormat="1">
       <c r="B5" s="76" t="str">
         <f>'PROPOSAL'!J5</f>
-        <v>A21-24</v>
+        <v>A18+</v>
       </c>
       <c r="C5" s="76" t="str">
         <f>'PROPOSAL'!N5</f>
@@ -1801,22 +1801,22 @@
         <v>0</v>
       </c>
       <c r="K10" s="67">
-        <v>0</v>
+        <v>0.22864</v>
       </c>
       <c r="L10" s="37">
-        <v>0</v>
+        <v>0.22856</v>
       </c>
       <c r="M10" s="37">
-        <v>0</v>
+        <v>0.22856</v>
       </c>
       <c r="N10" s="37">
-        <v>0</v>
+        <v>0.22856</v>
       </c>
       <c r="O10" s="59">
-        <v>0</v>
+        <v>0.22856</v>
       </c>
       <c r="P10" s="59">
-        <v>0</v>
+        <v>1.1428800000000001</v>
       </c>
     </row>
     <row r="11" ht="24" customHeight="1">
@@ -2125,22 +2125,22 @@
         <v>0</v>
       </c>
       <c r="K19" s="67">
-        <v>0</v>
+        <v>0.22864</v>
       </c>
       <c r="L19" s="37">
-        <v>0</v>
+        <v>0.22856</v>
       </c>
       <c r="M19" s="37">
-        <v>0</v>
+        <v>0.22856</v>
       </c>
       <c r="N19" s="37">
-        <v>0</v>
+        <v>0.22856</v>
       </c>
       <c r="O19" s="59">
-        <v>0</v>
+        <v>0.22856</v>
       </c>
       <c r="P19" s="59">
-        <v>0</v>
+        <v>1.1428800000000001</v>
       </c>
     </row>
     <row r="20" ht="24" customHeight="1">
@@ -2449,22 +2449,22 @@
         <v>0</v>
       </c>
       <c r="K28" s="67">
-        <v>0</v>
+        <v>0.22864</v>
       </c>
       <c r="L28" s="37">
-        <v>0</v>
+        <v>0.22856</v>
       </c>
       <c r="M28" s="37">
-        <v>0</v>
+        <v>0.22856</v>
       </c>
       <c r="N28" s="37">
-        <v>0</v>
+        <v>0.22856</v>
       </c>
       <c r="O28" s="59">
-        <v>0</v>
+        <v>0.22856</v>
       </c>
       <c r="P28" s="59">
-        <v>0</v>
+        <v>1.1428800000000001</v>
       </c>
     </row>
     <row r="29" ht="24" customHeight="1">
@@ -2773,22 +2773,22 @@
         <v>0</v>
       </c>
       <c r="K37" s="67">
-        <v>0</v>
+        <v>0.22864</v>
       </c>
       <c r="L37" s="37">
-        <v>0</v>
+        <v>0.22856</v>
       </c>
       <c r="M37" s="37">
-        <v>0</v>
+        <v>0.22856</v>
       </c>
       <c r="N37" s="37">
-        <v>0</v>
+        <v>0.22856</v>
       </c>
       <c r="O37" s="59">
-        <v>0</v>
+        <v>0.22856</v>
       </c>
       <c r="P37" s="59">
-        <v>0</v>
+        <v>1.1428800000000001</v>
       </c>
     </row>
     <row r="38" ht="24" customHeight="1">
@@ -3073,46 +3073,46 @@
         <v>23</v>
       </c>
       <c r="C46" s="67">
-        <v>0</v>
+        <v>0.155</v>
       </c>
       <c r="D46" s="37">
-        <v>0</v>
+        <v>0.1538</v>
       </c>
       <c r="E46" s="37">
-        <v>0</v>
+        <v>0.1538</v>
       </c>
       <c r="F46" s="59">
-        <v>0</v>
+        <v>0.1538</v>
       </c>
       <c r="G46" s="67">
-        <v>0</v>
+        <v>0.1538</v>
       </c>
       <c r="H46" s="37">
-        <v>0</v>
+        <v>0.1538</v>
       </c>
       <c r="I46" s="37">
-        <v>0</v>
+        <v>0.1538</v>
       </c>
       <c r="J46" s="59">
-        <v>0</v>
+        <v>0.1538</v>
       </c>
       <c r="K46" s="67">
-        <v>0</v>
+        <v>0.83972</v>
       </c>
       <c r="L46" s="37">
-        <v>0</v>
+        <v>0.83948</v>
       </c>
       <c r="M46" s="37">
-        <v>0</v>
+        <v>0.83948</v>
       </c>
       <c r="N46" s="37">
-        <v>0</v>
+        <v>0.83948</v>
       </c>
       <c r="O46" s="59">
-        <v>0</v>
+        <v>0.83948</v>
       </c>
       <c r="P46" s="59">
-        <v>0</v>
+        <v>5.42924</v>
       </c>
     </row>
     <row r="47" ht="24" customHeight="1">
@@ -3397,46 +3397,46 @@
         <v>23</v>
       </c>
       <c r="C55" s="67">
-        <v>0</v>
+        <v>0.155</v>
       </c>
       <c r="D55" s="37">
-        <v>0</v>
+        <v>0.1538</v>
       </c>
       <c r="E55" s="37">
-        <v>0</v>
+        <v>0.1538</v>
       </c>
       <c r="F55" s="59">
-        <v>0</v>
+        <v>0.1538</v>
       </c>
       <c r="G55" s="67">
-        <v>0</v>
+        <v>0.1538</v>
       </c>
       <c r="H55" s="37">
-        <v>0</v>
+        <v>0.1538</v>
       </c>
       <c r="I55" s="37">
-        <v>0</v>
+        <v>0.1538</v>
       </c>
       <c r="J55" s="59">
-        <v>0</v>
+        <v>0.1538</v>
       </c>
       <c r="K55" s="67">
-        <v>0</v>
+        <v>0.83972</v>
       </c>
       <c r="L55" s="37">
-        <v>0</v>
+        <v>0.83948</v>
       </c>
       <c r="M55" s="37">
-        <v>0</v>
+        <v>0.83948</v>
       </c>
       <c r="N55" s="37">
-        <v>0</v>
+        <v>0.83948</v>
       </c>
       <c r="O55" s="59">
-        <v>0</v>
+        <v>0.83948</v>
       </c>
       <c r="P55" s="59">
-        <v>0</v>
+        <v>5.42924</v>
       </c>
     </row>
     <row r="56" ht="24" customHeight="1">
@@ -3721,46 +3721,46 @@
         <v>23</v>
       </c>
       <c r="C64" s="67">
-        <v>0</v>
+        <v>0.155</v>
       </c>
       <c r="D64" s="37">
-        <v>0</v>
+        <v>0.1538</v>
       </c>
       <c r="E64" s="37">
-        <v>0</v>
+        <v>0.1538</v>
       </c>
       <c r="F64" s="59">
-        <v>0</v>
+        <v>0.1538</v>
       </c>
       <c r="G64" s="67">
-        <v>0</v>
+        <v>0.1538</v>
       </c>
       <c r="H64" s="37">
-        <v>0</v>
+        <v>0.1538</v>
       </c>
       <c r="I64" s="37">
-        <v>0</v>
+        <v>0.1538</v>
       </c>
       <c r="J64" s="59">
-        <v>0</v>
+        <v>0.1538</v>
       </c>
       <c r="K64" s="67">
-        <v>0</v>
+        <v>0.1538</v>
       </c>
       <c r="L64" s="37">
-        <v>0</v>
+        <v>0.1538</v>
       </c>
       <c r="M64" s="37">
-        <v>0</v>
+        <v>0.1538</v>
       </c>
       <c r="N64" s="37">
-        <v>0</v>
+        <v>0.1538</v>
       </c>
       <c r="O64" s="59">
-        <v>0</v>
+        <v>0.1538</v>
       </c>
       <c r="P64" s="59">
-        <v>0</v>
+        <v>2.0005999999999995</v>
       </c>
     </row>
     <row r="65" ht="24" customHeight="1">
@@ -4045,46 +4045,46 @@
         <v>23</v>
       </c>
       <c r="C73" s="67">
-        <v>0</v>
+        <v>0.155</v>
       </c>
       <c r="D73" s="37">
-        <v>0</v>
+        <v>0.1538</v>
       </c>
       <c r="E73" s="37">
-        <v>0</v>
+        <v>0.1538</v>
       </c>
       <c r="F73" s="59">
-        <v>0</v>
+        <v>0.1538</v>
       </c>
       <c r="G73" s="67">
-        <v>0</v>
+        <v>0.1538</v>
       </c>
       <c r="H73" s="37">
-        <v>0</v>
+        <v>0.1538</v>
       </c>
       <c r="I73" s="37">
-        <v>0</v>
+        <v>0.1538</v>
       </c>
       <c r="J73" s="59">
-        <v>0</v>
+        <v>0.1538</v>
       </c>
       <c r="K73" s="67">
-        <v>0</v>
+        <v>0.1538</v>
       </c>
       <c r="L73" s="37">
-        <v>0</v>
+        <v>0.1538</v>
       </c>
       <c r="M73" s="37">
-        <v>0</v>
+        <v>0.1538</v>
       </c>
       <c r="N73" s="37">
-        <v>0</v>
+        <v>0.1538</v>
       </c>
       <c r="O73" s="59">
-        <v>0</v>
+        <v>0.1538</v>
       </c>
       <c r="P73" s="59">
-        <v>0</v>
+        <v>2.0005999999999995</v>
       </c>
     </row>
     <row r="74" ht="24" customHeight="1">
@@ -4369,10 +4369,10 @@
         <v>23</v>
       </c>
       <c r="C82" s="67">
-        <v>0</v>
+        <v>0.22856</v>
       </c>
       <c r="D82" s="37">
-        <v>0</v>
+        <v>0.22856</v>
       </c>
       <c r="E82" s="37">
         <v>0</v>
@@ -4408,7 +4408,7 @@
         <v>0</v>
       </c>
       <c r="P82" s="59">
-        <v>0</v>
+        <v>0.45712</v>
       </c>
     </row>
     <row r="83" ht="24" customHeight="1">
@@ -4693,10 +4693,10 @@
         <v>23</v>
       </c>
       <c r="C91" s="67">
-        <v>0</v>
+        <v>0.22856</v>
       </c>
       <c r="D91" s="37">
-        <v>0</v>
+        <v>0.22856</v>
       </c>
       <c r="E91" s="37">
         <v>0</v>
@@ -4732,7 +4732,7 @@
         <v>0</v>
       </c>
       <c r="P91" s="59">
-        <v>0</v>
+        <v>0.45712</v>
       </c>
     </row>
     <row r="92" ht="24" customHeight="1">
@@ -5017,10 +5017,10 @@
         <v>23</v>
       </c>
       <c r="C100" s="67">
-        <v>0</v>
+        <v>0.22856</v>
       </c>
       <c r="D100" s="37">
-        <v>0</v>
+        <v>0.22856</v>
       </c>
       <c r="E100" s="37">
         <v>0</v>
@@ -5056,7 +5056,7 @@
         <v>0</v>
       </c>
       <c r="P100" s="59">
-        <v>0</v>
+        <v>0.45712</v>
       </c>
     </row>
     <row r="101" ht="24" customHeight="1">
@@ -5341,10 +5341,10 @@
         <v>23</v>
       </c>
       <c r="C109" s="67">
-        <v>0</v>
+        <v>0.22856</v>
       </c>
       <c r="D109" s="37">
-        <v>0</v>
+        <v>0.22856</v>
       </c>
       <c r="E109" s="37">
         <v>0</v>
@@ -5380,7 +5380,7 @@
         <v>0</v>
       </c>
       <c r="P109" s="59">
-        <v>0</v>
+        <v>0.45712</v>
       </c>
     </row>
     <row r="110" ht="24" customHeight="1">
@@ -5665,46 +5665,46 @@
         <v>23</v>
       </c>
       <c r="C118" s="67">
-        <v>0</v>
+        <v>0.83948</v>
       </c>
       <c r="D118" s="37">
-        <v>0</v>
+        <v>0.83948</v>
       </c>
       <c r="E118" s="37">
-        <v>0</v>
+        <v>0.1538</v>
       </c>
       <c r="F118" s="59">
-        <v>0</v>
+        <v>0.1538</v>
       </c>
       <c r="G118" s="67">
-        <v>0</v>
+        <v>0.1538</v>
       </c>
       <c r="H118" s="37">
-        <v>0</v>
+        <v>0.1538</v>
       </c>
       <c r="I118" s="37">
-        <v>0</v>
+        <v>0.1538</v>
       </c>
       <c r="J118" s="37">
-        <v>0</v>
+        <v>0.1538</v>
       </c>
       <c r="K118" s="59">
-        <v>0</v>
+        <v>0.1538</v>
       </c>
       <c r="L118" s="67">
-        <v>0</v>
+        <v>0.1538</v>
       </c>
       <c r="M118" s="37">
-        <v>0</v>
+        <v>0.1538</v>
       </c>
       <c r="N118" s="37">
-        <v>0</v>
+        <v>0.1538</v>
       </c>
       <c r="O118" s="59">
-        <v>0</v>
+        <v>0.1538</v>
       </c>
       <c r="P118" s="59">
-        <v>0</v>
+        <v>3.3707599999999993</v>
       </c>
     </row>
     <row r="119" ht="24" customHeight="1">
@@ -5989,46 +5989,46 @@
         <v>23</v>
       </c>
       <c r="C127" s="67">
-        <v>0</v>
+        <v>0.83948</v>
       </c>
       <c r="D127" s="37">
-        <v>0</v>
+        <v>0.83948</v>
       </c>
       <c r="E127" s="37">
-        <v>0</v>
+        <v>0.1538</v>
       </c>
       <c r="F127" s="59">
-        <v>0</v>
+        <v>0.1538</v>
       </c>
       <c r="G127" s="67">
-        <v>0</v>
+        <v>0.1538</v>
       </c>
       <c r="H127" s="37">
-        <v>0</v>
+        <v>0.1538</v>
       </c>
       <c r="I127" s="37">
-        <v>0</v>
+        <v>0.1538</v>
       </c>
       <c r="J127" s="37">
-        <v>0</v>
+        <v>0.1538</v>
       </c>
       <c r="K127" s="59">
-        <v>0</v>
+        <v>0.1538</v>
       </c>
       <c r="L127" s="67">
-        <v>0</v>
+        <v>0.1538</v>
       </c>
       <c r="M127" s="37">
-        <v>0</v>
+        <v>0.1538</v>
       </c>
       <c r="N127" s="37">
-        <v>0</v>
+        <v>0.1538</v>
       </c>
       <c r="O127" s="59">
-        <v>0</v>
+        <v>0.1538</v>
       </c>
       <c r="P127" s="59">
-        <v>0</v>
+        <v>3.3707599999999993</v>
       </c>
     </row>
     <row r="128" ht="24" customHeight="1">
@@ -6313,46 +6313,46 @@
         <v>23</v>
       </c>
       <c r="C136" s="67">
-        <v>0</v>
+        <v>0.1538</v>
       </c>
       <c r="D136" s="37">
-        <v>0</v>
+        <v>0.1538</v>
       </c>
       <c r="E136" s="37">
-        <v>0</v>
+        <v>0.1538</v>
       </c>
       <c r="F136" s="59">
-        <v>0</v>
+        <v>0.1538</v>
       </c>
       <c r="G136" s="67">
-        <v>0</v>
+        <v>0.1538</v>
       </c>
       <c r="H136" s="37">
-        <v>0</v>
+        <v>0.1538</v>
       </c>
       <c r="I136" s="37">
-        <v>0</v>
+        <v>0.1538</v>
       </c>
       <c r="J136" s="37">
-        <v>0</v>
+        <v>0.1538</v>
       </c>
       <c r="K136" s="59">
-        <v>0</v>
+        <v>0.1538</v>
       </c>
       <c r="L136" s="67">
-        <v>0</v>
+        <v>0.1538</v>
       </c>
       <c r="M136" s="37">
-        <v>0</v>
+        <v>0.1538</v>
       </c>
       <c r="N136" s="37">
-        <v>0</v>
+        <v>0.1538</v>
       </c>
       <c r="O136" s="59">
-        <v>0</v>
+        <v>0.1538</v>
       </c>
       <c r="P136" s="59">
-        <v>0</v>
+        <v>1.9993999999999994</v>
       </c>
     </row>
     <row r="137" ht="24" customHeight="1">
@@ -6637,46 +6637,46 @@
         <v>23</v>
       </c>
       <c r="C145" s="67">
-        <v>0</v>
+        <v>0.1538</v>
       </c>
       <c r="D145" s="37">
-        <v>0</v>
+        <v>0.1538</v>
       </c>
       <c r="E145" s="37">
-        <v>0</v>
+        <v>0.1538</v>
       </c>
       <c r="F145" s="59">
-        <v>0</v>
+        <v>0.1538</v>
       </c>
       <c r="G145" s="67">
-        <v>0</v>
+        <v>0.1538</v>
       </c>
       <c r="H145" s="37">
-        <v>0</v>
+        <v>0.1538</v>
       </c>
       <c r="I145" s="37">
-        <v>0</v>
+        <v>0.1538</v>
       </c>
       <c r="J145" s="37">
-        <v>0</v>
+        <v>0.1538</v>
       </c>
       <c r="K145" s="59">
-        <v>0</v>
+        <v>0.1538</v>
       </c>
       <c r="L145" s="67">
-        <v>0</v>
+        <v>0.1538</v>
       </c>
       <c r="M145" s="37">
-        <v>0</v>
+        <v>0.1538</v>
       </c>
       <c r="N145" s="37">
-        <v>0</v>
+        <v>0.1538</v>
       </c>
       <c r="O145" s="59">
-        <v>0</v>
+        <v>0.1538</v>
       </c>
       <c r="P145" s="59">
-        <v>0</v>
+        <v>1.9993999999999994</v>
       </c>
     </row>
     <row r="146" ht="24" customHeight="1">
@@ -7254,13 +7254,13 @@
         <f>SUM(J9:J10)</f>
         <v>27669</v>
       </c>
-      <c r="K11" s="47">
+      <c r="K11" s="47" t="e">
         <f>E11/J11</f>
-        <v>3.6914958979363188</v>
-      </c>
-      <c r="L11" s="43">
+        <v>#VALUE!</v>
+      </c>
+      <c r="L11" s="43" t="e">
         <f>E11/H11</f>
-        <v>4426.1035816256463</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M11" s="31"/>
       <c r="N11" s="45" t="s">
@@ -7280,13 +7280,13 @@
         <f>SUM(R9:R10)</f>
         <v>8189.91</v>
       </c>
-      <c r="S11" s="47">
+      <c r="S11" s="47" t="e">
         <f>E11/R11</f>
-        <v>12.471443520136363</v>
-      </c>
-      <c r="T11" s="43">
+        <v>#VALUE!</v>
+      </c>
+      <c r="T11" s="43" t="e">
         <f>E11/P11</f>
-        <v>12482.667819304488</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="13" ht="24" customHeight="1">
@@ -7511,13 +7511,13 @@
         <f>SUM(J15:J16)</f>
         <v>24004</v>
       </c>
-      <c r="K17" s="47">
+      <c r="K17" s="47" t="e">
         <f>E17/J17</f>
-        <v>4.78253624395934</v>
-      </c>
-      <c r="L17" s="43">
+        <v>#VALUE!</v>
+      </c>
+      <c r="L17" s="43" t="e">
         <f>E17/H17</f>
-        <v>5734.2609565072489</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M17" s="31"/>
       <c r="N17" s="45" t="s">
@@ -7537,13 +7537,13 @@
         <f>SUM(R15:R16)</f>
         <v>7099.380000000001</v>
       </c>
-      <c r="S17" s="47">
+      <c r="S17" s="47" t="e">
         <f>E17/R17</f>
-        <v>16.170426149889142</v>
-      </c>
-      <c r="T17" s="43">
+        <v>#VALUE!</v>
+      </c>
+      <c r="T17" s="43" t="e">
         <f>E17/P17</f>
-        <v>16184.979533424046</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="19" ht="24" customHeight="1">
@@ -9528,7 +9528,7 @@
   </sheetPr>
   <dimension ref="A2:T39"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0" tabSelected="1">
+    <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0" tabSelected="0">
       <selection activeCell="C5" sqref="C5:D5"/>
     </sheetView>
   </sheetViews>
@@ -9736,43 +9736,43 @@
         <v>94</v>
       </c>
       <c r="E9" s="83">
-        <v>0</v>
+        <v>1.1428800000000001</v>
       </c>
       <c r="F9" s="84">
-        <v>0</v>
+        <v>62500</v>
       </c>
       <c r="G9" s="85">
         <v>71430</v>
       </c>
       <c r="H9" s="86">
-        <v>0</v>
+        <v>1.7784337566257766</v>
       </c>
       <c r="I9" s="87">
-        <v>4.7286660000000005</v>
+        <v>2.0325363717724678</v>
       </c>
       <c r="J9" s="83">
-        <v>0</v>
+        <v>2153.3161068044787</v>
       </c>
       <c r="K9" s="83">
-        <v>5714.4</v>
+        <v>2460.9819121447031</v>
       </c>
       <c r="L9" s="88">
-        <v>12.5</v>
+        <v>29.025000000000034</v>
       </c>
       <c r="M9" s="85">
-        <v>15105.740181268882</v>
+        <v>35143.282546874958</v>
       </c>
       <c r="N9" s="89">
-        <v>0.5</v>
+        <v>1.1609999999999998</v>
       </c>
       <c r="O9" s="86">
-        <v>0</v>
+        <v>0.87498250034999292</v>
       </c>
       <c r="P9" s="87">
-        <v>17.5</v>
+        <v>1</v>
       </c>
       <c r="Q9" s="83">
-        <v>0</v>
+        <v>2499.9999999999995</v>
       </c>
       <c r="R9" s="83">
         <v>2857.2</v>
@@ -9781,7 +9781,7 @@
         <v>25</v>
       </c>
       <c r="T9" s="85">
-        <v>4081.7142857142853</v>
+        <v>71430</v>
       </c>
     </row>
     <row r="10" ht="24" customHeight="1">
@@ -9796,43 +9796,43 @@
         <v>94</v>
       </c>
       <c r="E10" s="83">
-        <v>0</v>
+        <v>1.1428800000000001</v>
       </c>
       <c r="F10" s="84">
-        <v>0</v>
+        <v>62500</v>
       </c>
       <c r="G10" s="85">
         <v>71430</v>
       </c>
       <c r="H10" s="86">
-        <v>0</v>
+        <v>1.7784337566257766</v>
       </c>
       <c r="I10" s="87">
-        <v>4.7286660000000005</v>
+        <v>2.0325363717724678</v>
       </c>
       <c r="J10" s="83">
-        <v>0</v>
+        <v>2153.3161068044787</v>
       </c>
       <c r="K10" s="83">
-        <v>5714.4</v>
+        <v>2460.9819121447031</v>
       </c>
       <c r="L10" s="88">
-        <v>12.5</v>
+        <v>29.025000000000034</v>
       </c>
       <c r="M10" s="85">
-        <v>15105.740181268882</v>
+        <v>35143.282546874958</v>
       </c>
       <c r="N10" s="89">
-        <v>0.5</v>
+        <v>1.1609999999999998</v>
       </c>
       <c r="O10" s="86">
-        <v>0</v>
+        <v>0.87498250034999292</v>
       </c>
       <c r="P10" s="87">
-        <v>17.5</v>
+        <v>1</v>
       </c>
       <c r="Q10" s="83">
-        <v>0</v>
+        <v>2499.9999999999995</v>
       </c>
       <c r="R10" s="83">
         <v>2857.2</v>
@@ -9841,7 +9841,7 @@
         <v>25</v>
       </c>
       <c r="T10" s="85">
-        <v>4081.7142857142853</v>
+        <v>71430</v>
       </c>
     </row>
     <row r="11" ht="24" customHeight="1">
@@ -9856,43 +9856,43 @@
         <v>94</v>
       </c>
       <c r="E11" s="83">
-        <v>0</v>
+        <v>5.4292399999999983</v>
       </c>
       <c r="F11" s="84">
-        <v>0</v>
+        <v>62500</v>
       </c>
       <c r="G11" s="85">
         <v>339327.5</v>
       </c>
       <c r="H11" s="86">
-        <v>0</v>
+        <v>1.8157152493066333</v>
       </c>
       <c r="I11" s="87">
-        <v>22.463480500000003</v>
+        <v>9.8579538601455425</v>
       </c>
       <c r="J11" s="83">
-        <v>0</v>
+        <v>2196.8365553602821</v>
       </c>
       <c r="K11" s="83">
-        <v>27146.2</v>
+        <v>11927.152899824254</v>
       </c>
       <c r="L11" s="88">
-        <v>12.5</v>
+        <v>28.449999999999889</v>
       </c>
       <c r="M11" s="85">
-        <v>15105.740181268882</v>
+        <v>34421.696917436195</v>
       </c>
       <c r="N11" s="89">
-        <v>0.5</v>
+        <v>1.138</v>
       </c>
       <c r="O11" s="86">
-        <v>0</v>
+        <v>0.88410164221880083</v>
       </c>
       <c r="P11" s="87">
-        <v>84.7</v>
+        <v>4.8000000000000007</v>
       </c>
       <c r="Q11" s="83">
-        <v>0</v>
+        <v>2500.0000000000009</v>
       </c>
       <c r="R11" s="83">
         <v>13573.1</v>
@@ -9901,7 +9901,7 @@
         <v>25</v>
       </c>
       <c r="T11" s="85">
-        <v>4006.2278630460446</v>
+        <v>70693.229166666672</v>
       </c>
     </row>
     <row r="12" ht="24" customHeight="1">
@@ -9916,43 +9916,43 @@
         <v>94</v>
       </c>
       <c r="E12" s="83">
-        <v>0</v>
+        <v>2.0005999999999995</v>
       </c>
       <c r="F12" s="84">
-        <v>0</v>
+        <v>62500</v>
       </c>
       <c r="G12" s="85">
         <v>125037.5</v>
       </c>
       <c r="H12" s="86">
-        <v>0</v>
+        <v>1.7819922369379289</v>
       </c>
       <c r="I12" s="87">
-        <v>8.2774825000000014</v>
+        <v>3.5650536692180195</v>
       </c>
       <c r="J12" s="83">
-        <v>0</v>
+        <v>2153.3161068044792</v>
       </c>
       <c r="K12" s="83">
-        <v>10003</v>
+        <v>4307.92420327304</v>
       </c>
       <c r="L12" s="88">
-        <v>12.5</v>
+        <v>29.025000000000002</v>
       </c>
       <c r="M12" s="85">
-        <v>15105.740181268882</v>
+        <v>35073.104531250006</v>
       </c>
       <c r="N12" s="89">
-        <v>0.5</v>
+        <v>1.1610000000000003</v>
       </c>
       <c r="O12" s="86">
-        <v>0</v>
+        <v>0.6498050584824554</v>
       </c>
       <c r="P12" s="87">
-        <v>31.199999999999992</v>
+        <v>1.3</v>
       </c>
       <c r="Q12" s="83">
-        <v>0</v>
+        <v>2500.0000000000005</v>
       </c>
       <c r="R12" s="83">
         <v>5001.5</v>
@@ -9961,7 +9961,7 @@
         <v>25</v>
       </c>
       <c r="T12" s="85">
-        <v>4007.6121794871792</v>
+        <v>96182.692307692312</v>
       </c>
     </row>
     <row r="13" ht="24" customHeight="1">
@@ -9971,7 +9971,7 @@
         <v>99</v>
       </c>
       <c r="E13" s="51">
-        <v>0</v>
+        <v>9.7155999999999985</v>
       </c>
       <c r="F13" s="42" t="s">
         <v>38</v>
@@ -9983,19 +9983,19 @@
         <v>38</v>
       </c>
       <c r="I13" s="79">
-        <v>40.198295</v>
+        <v>17.488080272908498</v>
       </c>
       <c r="J13" s="51" t="s">
         <v>38</v>
       </c>
       <c r="K13" s="51">
-        <v>48578</v>
+        <v>21157.0409273867</v>
       </c>
       <c r="L13" s="47">
-        <v>12.5</v>
+        <v>28.700847253832105</v>
       </c>
       <c r="M13" s="43">
-        <v>15105.740181268882</v>
+        <v>34722.221680368035</v>
       </c>
       <c r="N13" s="45" t="s">
         <v>38</v>
@@ -10004,7 +10004,7 @@
         <v>38</v>
       </c>
       <c r="P13" s="79">
-        <v>150.9</v>
+        <v>8.1000000000000014</v>
       </c>
       <c r="Q13" s="51" t="s">
         <v>38</v>
@@ -10016,7 +10016,7 @@
         <v>25</v>
       </c>
       <c r="T13" s="43">
-        <v>4024.0225314778</v>
+        <v>74966.049382716054</v>
       </c>
     </row>
     <row r="15" ht="24" customHeight="1">
@@ -10117,43 +10117,43 @@
         <v>94</v>
       </c>
       <c r="E17" s="83">
-        <v>0</v>
+        <v>0.45712</v>
       </c>
       <c r="F17" s="84">
-        <v>0</v>
+        <v>62500</v>
       </c>
       <c r="G17" s="85">
         <v>28570</v>
       </c>
       <c r="H17" s="86">
-        <v>0</v>
+        <v>1.7784337566257769</v>
       </c>
       <c r="I17" s="87">
-        <v>1.8913340000000003</v>
+        <v>0.81295763882877514</v>
       </c>
       <c r="J17" s="83">
-        <v>0</v>
+        <v>2153.3161068044787</v>
       </c>
       <c r="K17" s="83">
-        <v>2285.6</v>
+        <v>984.32385874246336</v>
       </c>
       <c r="L17" s="88">
-        <v>12.5</v>
+        <v>29.025000000000009</v>
       </c>
       <c r="M17" s="85">
-        <v>15105.740181268882</v>
+        <v>35143.282546875009</v>
       </c>
       <c r="N17" s="89">
-        <v>0.5</v>
+        <v>1.161</v>
       </c>
       <c r="O17" s="86">
-        <v>0</v>
+        <v>0.87504375218760932</v>
       </c>
       <c r="P17" s="87">
-        <v>7</v>
+        <v>0.4</v>
       </c>
       <c r="Q17" s="83">
-        <v>0</v>
+        <v>2499.9999999999995</v>
       </c>
       <c r="R17" s="83">
         <v>1142.8</v>
@@ -10162,7 +10162,7 @@
         <v>25</v>
       </c>
       <c r="T17" s="85">
-        <v>4081.4285714285706</v>
+        <v>71425</v>
       </c>
     </row>
     <row r="18" ht="24" customHeight="1">
@@ -10177,43 +10177,43 @@
         <v>94</v>
       </c>
       <c r="E18" s="83">
-        <v>0</v>
+        <v>0.45712</v>
       </c>
       <c r="F18" s="84">
-        <v>0</v>
+        <v>62500</v>
       </c>
       <c r="G18" s="85">
         <v>28570</v>
       </c>
       <c r="H18" s="86">
-        <v>0</v>
+        <v>1.7784337566257769</v>
       </c>
       <c r="I18" s="87">
-        <v>1.8913340000000003</v>
+        <v>0.81295763882877514</v>
       </c>
       <c r="J18" s="83">
-        <v>0</v>
+        <v>2153.3161068044787</v>
       </c>
       <c r="K18" s="83">
-        <v>2285.6</v>
+        <v>984.32385874246336</v>
       </c>
       <c r="L18" s="88">
-        <v>12.5</v>
+        <v>29.025000000000009</v>
       </c>
       <c r="M18" s="85">
-        <v>15105.740181268882</v>
+        <v>35143.282546875009</v>
       </c>
       <c r="N18" s="89">
-        <v>0.5</v>
+        <v>1.161</v>
       </c>
       <c r="O18" s="86">
-        <v>0</v>
+        <v>0.87504375218760932</v>
       </c>
       <c r="P18" s="87">
-        <v>7</v>
+        <v>0.4</v>
       </c>
       <c r="Q18" s="83">
-        <v>0</v>
+        <v>2499.9999999999995</v>
       </c>
       <c r="R18" s="83">
         <v>1142.8</v>
@@ -10222,7 +10222,7 @@
         <v>25</v>
       </c>
       <c r="T18" s="85">
-        <v>4081.4285714285706</v>
+        <v>71425</v>
       </c>
     </row>
     <row r="19" ht="24" customHeight="1">
@@ -10237,43 +10237,43 @@
         <v>94</v>
       </c>
       <c r="E19" s="83">
-        <v>0</v>
+        <v>3.3707599999999993</v>
       </c>
       <c r="F19" s="84">
-        <v>0</v>
+        <v>62500</v>
       </c>
       <c r="G19" s="85">
         <v>210672.5</v>
       </c>
       <c r="H19" s="86">
-        <v>0</v>
+        <v>1.8165309051667991</v>
       </c>
       <c r="I19" s="87">
-        <v>13.9465195</v>
+        <v>6.123089713900038</v>
       </c>
       <c r="J19" s="83">
-        <v>0</v>
+        <v>2196.8365553602821</v>
       </c>
       <c r="K19" s="83">
-        <v>16853.8</v>
+        <v>7405.0087873462235</v>
       </c>
       <c r="L19" s="88">
-        <v>12.5</v>
+        <v>28.450000000000003</v>
       </c>
       <c r="M19" s="85">
-        <v>15105.740181268882</v>
+        <v>34406.240941032091</v>
       </c>
       <c r="N19" s="89">
-        <v>0.5</v>
+        <v>1.1379999999999997</v>
       </c>
       <c r="O19" s="86">
-        <v>0</v>
+        <v>0.80100630124957006</v>
       </c>
       <c r="P19" s="87">
-        <v>52.599999999999994</v>
+        <v>2.7</v>
       </c>
       <c r="Q19" s="83">
-        <v>0</v>
+        <v>2500.0000000000005</v>
       </c>
       <c r="R19" s="83">
         <v>8426.9</v>
@@ -10282,7 +10282,7 @@
         <v>25</v>
       </c>
       <c r="T19" s="85">
-        <v>4005.180608365019</v>
+        <v>78026.851851851854</v>
       </c>
     </row>
     <row r="20" ht="24" customHeight="1">
@@ -10297,43 +10297,43 @@
         <v>94</v>
       </c>
       <c r="E20" s="83">
-        <v>0</v>
+        <v>1.9993999999999994</v>
       </c>
       <c r="F20" s="84">
-        <v>0</v>
+        <v>62500</v>
       </c>
       <c r="G20" s="85">
         <v>124962.5</v>
       </c>
       <c r="H20" s="86">
-        <v>0</v>
+        <v>1.7819922369379291</v>
       </c>
       <c r="I20" s="87">
-        <v>8.2725175000000011</v>
+        <v>3.5629152785336942</v>
       </c>
       <c r="J20" s="83">
-        <v>0</v>
+        <v>2153.3161068044792</v>
       </c>
       <c r="K20" s="83">
-        <v>9997</v>
+        <v>4305.3402239448742</v>
       </c>
       <c r="L20" s="88">
-        <v>12.5</v>
+        <v>29.025000000000034</v>
       </c>
       <c r="M20" s="85">
-        <v>15105.740181268882</v>
+        <v>35073.10453125005</v>
       </c>
       <c r="N20" s="89">
-        <v>0.5</v>
+        <v>1.1610000000000003</v>
       </c>
       <c r="O20" s="86">
-        <v>0</v>
+        <v>0.65019505851755544</v>
       </c>
       <c r="P20" s="87">
-        <v>31.199999999999992</v>
+        <v>1.3</v>
       </c>
       <c r="Q20" s="83">
-        <v>0</v>
+        <v>2500.0000000000009</v>
       </c>
       <c r="R20" s="83">
         <v>4998.5</v>
@@ -10342,7 +10342,7 @@
         <v>25</v>
       </c>
       <c r="T20" s="85">
-        <v>4005.208333333333</v>
+        <v>96125</v>
       </c>
     </row>
     <row r="21" ht="24" customHeight="1">
@@ -10352,7 +10352,7 @@
         <v>99</v>
       </c>
       <c r="E21" s="51">
-        <v>0</v>
+        <v>6.2843999999999989</v>
       </c>
       <c r="F21" s="42" t="s">
         <v>38</v>
@@ -10364,19 +10364,19 @@
         <v>38</v>
       </c>
       <c r="I21" s="79">
-        <v>26.001705</v>
+        <v>11.311920270091282</v>
       </c>
       <c r="J21" s="51" t="s">
         <v>38</v>
       </c>
       <c r="K21" s="51">
-        <v>31422</v>
+        <v>13678.996728776023</v>
       </c>
       <c r="L21" s="47">
-        <v>12.5</v>
+        <v>28.713728629946505</v>
       </c>
       <c r="M21" s="43">
-        <v>15105.740181268882</v>
+        <v>34722.221393170221</v>
       </c>
       <c r="N21" s="45" t="s">
         <v>38</v>
@@ -10385,7 +10385,7 @@
         <v>38</v>
       </c>
       <c r="P21" s="79">
-        <v>97.799999999999983</v>
+        <v>4.8</v>
       </c>
       <c r="Q21" s="51" t="s">
         <v>38</v>
@@ -10397,7 +10397,7 @@
         <v>25</v>
       </c>
       <c r="T21" s="43">
-        <v>4016.1042944785272</v>
+        <v>81828.125</v>
       </c>
     </row>
     <row r="23" ht="24" customHeight="1">
@@ -10498,43 +10498,43 @@
         <v>94</v>
       </c>
       <c r="E25" s="83">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="F25" s="84">
-        <v>0</v>
+        <v>62500</v>
       </c>
       <c r="G25" s="85">
         <v>100000</v>
       </c>
       <c r="H25" s="86">
-        <v>0</v>
+        <v>3.5568675132515537</v>
       </c>
       <c r="I25" s="87">
-        <v>6.620000000000001</v>
+        <v>2.845494010601243</v>
       </c>
       <c r="J25" s="83">
-        <v>0</v>
+        <v>4306.6322136089575</v>
       </c>
       <c r="K25" s="83">
-        <v>8000</v>
+        <v>3445.3057708871665</v>
       </c>
       <c r="L25" s="88">
-        <v>12.5</v>
+        <v>29.024999999999967</v>
       </c>
       <c r="M25" s="85">
-        <v>15105.740181268882</v>
+        <v>35143.282546875038</v>
       </c>
       <c r="N25" s="89">
-        <v>0.5</v>
+        <v>1.1609999999999998</v>
       </c>
       <c r="O25" s="86">
-        <v>0</v>
+        <v>1.7500262525376022</v>
       </c>
       <c r="P25" s="87">
-        <v>24.5</v>
+        <v>1.4</v>
       </c>
       <c r="Q25" s="83">
-        <v>0</v>
+        <v>4999.9999999999991</v>
       </c>
       <c r="R25" s="83">
         <v>4000</v>
@@ -10543,7 +10543,7 @@
         <v>25</v>
       </c>
       <c r="T25" s="85">
-        <v>4081.6326530612237</v>
+        <v>71428.57142857142</v>
       </c>
     </row>
     <row r="26" ht="24" customHeight="1">
@@ -10558,43 +10558,43 @@
         <v>94</v>
       </c>
       <c r="E26" s="83">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="F26" s="84">
-        <v>0</v>
+        <v>62500</v>
       </c>
       <c r="G26" s="85">
         <v>100000</v>
       </c>
       <c r="H26" s="86">
-        <v>0</v>
+        <v>3.5568675132515537</v>
       </c>
       <c r="I26" s="87">
-        <v>6.620000000000001</v>
+        <v>2.845494010601243</v>
       </c>
       <c r="J26" s="83">
-        <v>0</v>
+        <v>4306.6322136089575</v>
       </c>
       <c r="K26" s="83">
-        <v>8000</v>
+        <v>3445.3057708871665</v>
       </c>
       <c r="L26" s="88">
-        <v>12.5</v>
+        <v>29.024999999999967</v>
       </c>
       <c r="M26" s="85">
-        <v>15105.740181268882</v>
+        <v>35143.282546875038</v>
       </c>
       <c r="N26" s="89">
-        <v>0.5</v>
+        <v>1.1609999999999998</v>
       </c>
       <c r="O26" s="86">
-        <v>0</v>
+        <v>1.7500262525376022</v>
       </c>
       <c r="P26" s="87">
-        <v>24.5</v>
+        <v>1.4</v>
       </c>
       <c r="Q26" s="83">
-        <v>0</v>
+        <v>4999.9999999999991</v>
       </c>
       <c r="R26" s="83">
         <v>4000</v>
@@ -10603,7 +10603,7 @@
         <v>25</v>
       </c>
       <c r="T26" s="85">
-        <v>4081.6326530612237</v>
+        <v>71428.57142857142</v>
       </c>
     </row>
     <row r="27" ht="24" customHeight="1">
@@ -10618,43 +10618,43 @@
         <v>94</v>
       </c>
       <c r="E27" s="83">
-        <v>0</v>
+        <v>8.7999999999999972</v>
       </c>
       <c r="F27" s="84">
-        <v>0</v>
+        <v>62500</v>
       </c>
       <c r="G27" s="85">
         <v>550000</v>
       </c>
       <c r="H27" s="86">
-        <v>0</v>
+        <v>3.6322461544734326</v>
       </c>
       <c r="I27" s="87">
-        <v>36.410000000000004</v>
+        <v>15.981043574045581</v>
       </c>
       <c r="J27" s="83">
-        <v>0</v>
+        <v>4393.6731107205642</v>
       </c>
       <c r="K27" s="83">
-        <v>44000</v>
+        <v>19332.161687170475</v>
       </c>
       <c r="L27" s="88">
-        <v>12.5</v>
+        <v>28.449999999999964</v>
       </c>
       <c r="M27" s="85">
-        <v>15105.740181268882</v>
+        <v>34415.775005659882</v>
       </c>
       <c r="N27" s="89">
-        <v>0.5</v>
+        <v>1.138</v>
       </c>
       <c r="O27" s="86">
-        <v>0</v>
+        <v>1.6851079434683709</v>
       </c>
       <c r="P27" s="87">
-        <v>137.3</v>
+        <v>7.5000000000000009</v>
       </c>
       <c r="Q27" s="83">
-        <v>0</v>
+        <v>5000.0000000000018</v>
       </c>
       <c r="R27" s="83">
         <v>22000</v>
@@ -10663,7 +10663,7 @@
         <v>25</v>
       </c>
       <c r="T27" s="85">
-        <v>4005.8266569555713</v>
+        <v>73333.333333333328</v>
       </c>
     </row>
     <row r="28" ht="24" customHeight="1">
@@ -10678,43 +10678,43 @@
         <v>94</v>
       </c>
       <c r="E28" s="83">
-        <v>0</v>
+        <v>3.9999999999999991</v>
       </c>
       <c r="F28" s="84">
-        <v>0</v>
+        <v>62500</v>
       </c>
       <c r="G28" s="85">
         <v>250000</v>
       </c>
       <c r="H28" s="86">
-        <v>0</v>
+        <v>3.5639844738758582</v>
       </c>
       <c r="I28" s="87">
-        <v>16.550000000000004</v>
+        <v>7.1279689477517136</v>
       </c>
       <c r="J28" s="83">
-        <v>0</v>
+        <v>4306.6322136089584</v>
       </c>
       <c r="K28" s="83">
-        <v>20000</v>
+        <v>8613.2644272179132</v>
       </c>
       <c r="L28" s="88">
-        <v>12.5</v>
+        <v>29.02500000000002</v>
       </c>
       <c r="M28" s="85">
-        <v>15105.740181268882</v>
+        <v>35073.104531250028</v>
       </c>
       <c r="N28" s="89">
-        <v>0.5</v>
+        <v>1.1610000000000003</v>
       </c>
       <c r="O28" s="86">
-        <v>0</v>
+        <v>1.3000001170000108</v>
       </c>
       <c r="P28" s="87">
-        <v>62.399999999999984</v>
+        <v>2.6</v>
       </c>
       <c r="Q28" s="83">
-        <v>0</v>
+        <v>5000.0000000000018</v>
       </c>
       <c r="R28" s="83">
         <v>10000</v>
@@ -10723,7 +10723,7 @@
         <v>25</v>
       </c>
       <c r="T28" s="85">
-        <v>4006.4102564102564</v>
+        <v>96153.846153846156</v>
       </c>
     </row>
     <row r="29" ht="24" customHeight="1">
@@ -10733,7 +10733,7 @@
         <v>99</v>
       </c>
       <c r="E29" s="51">
-        <v>0</v>
+        <v>15.999999999999996</v>
       </c>
       <c r="F29" s="42" t="s">
         <v>38</v>
@@ -10745,19 +10745,19 @@
         <v>38</v>
       </c>
       <c r="I29" s="79">
-        <v>66.200000000000017</v>
+        <v>28.800000542999779</v>
       </c>
       <c r="J29" s="51" t="s">
         <v>38</v>
       </c>
       <c r="K29" s="51">
-        <v>80000</v>
+        <v>34836.03765616272</v>
       </c>
       <c r="L29" s="47">
-        <v>12.5</v>
+        <v>28.705905357841239</v>
       </c>
       <c r="M29" s="43">
-        <v>15105.740181268882</v>
+        <v>34722.221567563909</v>
       </c>
       <c r="N29" s="45" t="s">
         <v>38</v>
@@ -10766,7 +10766,7 @@
         <v>38</v>
       </c>
       <c r="P29" s="79">
-        <v>248.7</v>
+        <v>12.9</v>
       </c>
       <c r="Q29" s="51" t="s">
         <v>38</v>
@@ -10778,7 +10778,7 @@
         <v>25</v>
       </c>
       <c r="T29" s="43">
-        <v>4020.9087253719335</v>
+        <v>77519.379844961251</v>
       </c>
     </row>
     <row r="31" ht="48" customHeight="1">
